--- a/model_metrics.xlsx
+++ b/model_metrics.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="rankings" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="rank" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="169">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -180,10 +181,7 @@
     <t xml:space="preserve">03_7</t>
   </si>
   <si>
-    <t xml:space="preserve">wrong one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO Submit during the week (submission created)</t>
+    <t xml:space="preserve">Resnet 101, fp16 otherwise default transforms as 03_1</t>
   </si>
   <si>
     <t xml:space="preserve">stage-2-rn101-03_7-cv_reflect_101-20191031-5e1dab49</t>
@@ -219,6 +217,51 @@
     <t xml:space="preserve">qualitative testing of effect of stepping up image sizes, TODO more experiments</t>
   </si>
   <si>
+    <t xml:space="preserve">03_10_fastai_train_resnet_swa_20191104.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_11_fastai_train_resnet_valid_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_1 valid only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_12_fastai_train_resnet_valid_cf_verified_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predicted unverified and saved to csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_13_fastai_train_resnet_radam_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_1 but with radm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_14_fastai_train_resnet_ranger_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: created sub file, submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_1 but with ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_15_fastai_train_resnet_valid_cf_verified_cutoff_20191109.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used predictions on test, invalid, looked at confidence histograms, use high confidence ones as part of trainign set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Using sharpend images</t>
   </si>
   <si>
@@ -279,6 +322,39 @@
     <t xml:space="preserve">Using data with border_reflect_101 and imgaug to add classes</t>
   </si>
   <si>
+    <t xml:space="preserve">Overfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_5_fastai_train_resnet_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgaug of valid data only, adding 1000 imgaug images to each class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_6_fastai_train_resnet_imgaug_pred_unverified_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgaug of valid data + unverified that we predict to have the same class using 03_11 model, adding 1000 imgaug images to each class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_7_fastai_train_resnet_minimal-imgaug_pred_unverified_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgaug of valid data + unverified that we predict to have the same class using 03_11 model, adding imgaug images (exacty same as number in verified) to each class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_8_fastai_train_resnet_miniminimal-imgaug_pred_unverified_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgaug based on class level/4 + unverified that we predict to have the same class using 03_11 model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_9_fastai_train_resnet_miniminimal-imgaug_pred_unverified_pred_test_20191109.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using  predicted test with cutoffs and imgs aug class number/10 for training</t>
+  </si>
+  <si>
     <t xml:space="preserve">TODO – inference on 05_4 and 05_2, error on loading leading learnier rel to fp16</t>
   </si>
   <si>
@@ -345,6 +421,12 @@
     <t xml:space="preserve">created submission, todo: submit</t>
   </si>
   <si>
+    <t xml:space="preserve">06_8_fastai_train_wideresnet_20191107.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strted looking at this buty fair bit of work to get training then more work to get pred</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ensembles</t>
   </si>
   <si>
@@ -354,6 +436,24 @@
     <t xml:space="preserve">Simple ensemble using averaging of 2 x resnet, 1x densenet, 1x eficientnet</t>
   </si>
   <si>
+    <t xml:space="preserve">Unsupervised clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2d_clustering-train_valid.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data QC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_1_clustering_qc_20191109.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clustering detailed QC, nothing major stands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
     <t xml:space="preserve">07_2</t>
   </si>
   <si>
@@ -366,12 +466,18 @@
     <t xml:space="preserve">reflect</t>
   </si>
   <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
     <t xml:space="preserve">basic transforms</t>
   </si>
   <si>
     <t xml:space="preserve">wrap</t>
   </si>
   <si>
+    <t xml:space="preserve">Resnet101</t>
+  </si>
+  <si>
     <t xml:space="preserve">imgaug</t>
   </si>
   <si>
@@ -391,6 +497,39 @@
   </si>
   <si>
     <t xml:space="preserve">06_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kaggle.com/c/aptos2019-blindness-detection/discussion/108065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrast_range=0.2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brightness_range=20.,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hue_range=10.,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saturation_range=20.,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blur_and_sharpen=True,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate_range=180.,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale_range=0.2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shear_range=0.2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift_range=0.2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do_mirror=True,</t>
   </si>
 </sst>
 </file>
@@ -400,7 +539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -442,12 +581,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,7 +632,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8AA97"/>
-        <bgColor rgb="FFF68E76"/>
+        <bgColor rgb="FFFDC578"/>
       </patternFill>
     </fill>
     <fill>
@@ -516,8 +661,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDC578"/>
+        <bgColor rgb="FFFFDAA2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC2E0AE"/>
         <bgColor rgb="FFBEE3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87D1D1"/>
+        <bgColor rgb="FF8CCFB7"/>
       </patternFill>
     </fill>
     <fill>
@@ -534,14 +691,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFADD58A"/>
-        <bgColor rgb="FFC2E0AE"/>
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF87D1D1"/>
-        <bgColor rgb="FF8CCFB7"/>
+        <fgColor rgb="FFADD58A"/>
+        <bgColor rgb="FFC2E0AE"/>
       </patternFill>
     </fill>
     <fill>
@@ -591,7 +748,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,15 +809,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -676,47 +841,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -724,7 +893,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -744,7 +913,7 @@
       <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -782,7 +951,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF87D1D1"/>
       <rgbColor rgb="FF72BF44"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFDC578"/>
       <rgbColor rgb="FFF68E76"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -833,6 +1002,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -842,10 +1013,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>rankings!$A$3:$A$13</c:f>
+              <c:f>rankings!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -878,16 +1049,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>rankings!$C$3:$C$13</c:f>
+              <c:f>rankings!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.4306</c:v>
                 </c:pt>
@@ -898,27 +1072,30 @@
                   <c:v>0.4531</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.4849</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.489</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.4947</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.4988</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.5043</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.5215</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.5543</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.5557</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.6312</c:v>
                 </c:pt>
               </c:numCache>
@@ -926,17 +1103,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="9174256"/>
-        <c:axId val="26752398"/>
+        <c:axId val="9835685"/>
+        <c:axId val="48529175"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9174256"/>
+        <c:axId val="9835685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -958,12 +1135,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26752398"/>
+        <c:crossAx val="48529175"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26752398"/>
+        <c:axId val="48529175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +1155,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1000,7 +1177,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9174256"/>
+        <c:crossAx val="9835685"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1071,6 +1248,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1080,9 +1259,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>rankings!$A$3:$A$13</c:f>
+              <c:f>rankings!$A$3:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>07_2</c:v>
                 </c:pt>
@@ -1093,27 +1272,30 @@
                   <c:v>05_3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>03_7</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>05_2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>06_7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>03_8_3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>06_7_1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>03_8_1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>06_3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>05_4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>06_6</c:v>
                 </c:pt>
               </c:strCache>
@@ -1121,10 +1303,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>rankings!$C$3:$C$13</c:f>
+              <c:f>rankings!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.4306</c:v>
                 </c:pt>
@@ -1135,27 +1317,30 @@
                   <c:v>0.4531</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.4849</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.489</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.4947</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.4988</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.5043</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.5215</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.5543</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.5557</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.6312</c:v>
                 </c:pt>
               </c:numCache>
@@ -1164,11 +1349,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="30408828"/>
-        <c:axId val="4305455"/>
+        <c:axId val="22864067"/>
+        <c:axId val="91927152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30408828"/>
+        <c:axId val="22864067"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,14 +1381,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4305455"/>
+        <c:crossAx val="91927152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4305455"/>
+        <c:axId val="91927152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1403,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1240,7 +1425,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30408828"/>
+        <c:crossAx val="22864067"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1378,11 +1563,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="19927720"/>
-        <c:axId val="89665056"/>
+        <c:axId val="93109884"/>
+        <c:axId val="71181858"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19927720"/>
+        <c:axId val="93109884"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,14 +1595,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89665056"/>
+        <c:crossAx val="71181858"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89665056"/>
+        <c:axId val="71181858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -1455,7 +1640,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19927720"/>
+        <c:crossAx val="93109884"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1507,16 +1692,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>783360</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>783720</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>45360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>40680</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38880</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1524,8 +1709,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9052920" y="2483640"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="9865800" y="2483640"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1543,10 +1728,10 @@
       <xdr:rowOff>133920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1555,7 +1740,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="118800" y="2572200"/>
-        <a:ext cx="8452440" cy="3241800"/>
+        <a:ext cx="9263520" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1579,9 +1764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>158040</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1590,7 +1775,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1714680" y="2696400"/>
-        <a:ext cx="5758560" cy="3241440"/>
+        <a:ext cx="5756760" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1608,28 +1793,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W66" activeCellId="0" sqref="W66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W39" activeCellId="0" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="2.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="10" style="0" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="3.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="59.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2008,14 +2190,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -2045,22 +2228,22 @@
       <c r="R15" s="9" t="n">
         <v>0.131707</v>
       </c>
-      <c r="U15" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="V15" s="16" t="s">
+      <c r="U15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="V15" s="9" t="n">
+        <v>0.4849</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W15" s="15" t="s">
+      <c r="X15" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
@@ -2077,7 +2260,7 @@
       <c r="R17" s="9" t="n">
         <v>0.129047</v>
       </c>
-      <c r="S17" s="17" t="n">
+      <c r="S17" s="15" t="n">
         <f aca="false">Q17/V17</f>
         <v>0.74729242569511</v>
       </c>
@@ -2091,7 +2274,7 @@
         <v>0.5215</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,7 +2282,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -2108,7 +2291,7 @@
         <v>20191102</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,19 +2299,19 @@
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="9" t="n">
         <v>20191102</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="9" t="n">
         <v>0.132052</v>
@@ -2153,7 +2336,7 @@
         <v>0.4988</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,616 +2344,952 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="W23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="W23" s="15" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.460921</v>
+      </c>
+      <c r="K27" s="17" t="n">
+        <v>0.493934</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>0.184936</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>0.4687</v>
+      </c>
+      <c r="W27" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V31" s="9" t="n">
+        <v>0.4521</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="V33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V34" s="19"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="W35" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0.5374</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>0.5266</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>0.4535</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="3" t="n">
+      <c r="D43" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="3" t="n">
         <v>20191027</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="0" t="n">
+      <c r="G43" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I43" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="9" t="n">
+      <c r="J43" s="9" t="n">
         <v>0.371694</v>
       </c>
-      <c r="K27" s="18" t="n">
+      <c r="K43" s="20" t="n">
         <v>0.366708</v>
       </c>
-      <c r="L27" s="9" t="n">
+      <c r="L43" s="9" t="n">
         <v>0.129712</v>
       </c>
-      <c r="M27" s="9" t="n">
+      <c r="M43" s="9" t="n">
         <v>0.351872</v>
       </c>
-      <c r="N27" s="19" t="n">
+      <c r="N43" s="21" t="n">
         <v>0.355532</v>
       </c>
-      <c r="O27" s="9" t="n">
+      <c r="O43" s="9" t="n">
         <v>0.127273</v>
       </c>
-      <c r="W27" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="U43" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="V43" s="9" t="n">
+        <v>0.4916</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>20191028</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.322902</v>
+      </c>
+      <c r="K48" s="22" t="n">
+        <v>0.375154</v>
+      </c>
+      <c r="L48" s="9" t="n">
+        <v>0.144468</v>
+      </c>
+      <c r="M48" s="9" t="n">
+        <v>0.299865</v>
+      </c>
+      <c r="N48" s="23" t="n">
+        <v>0.334215</v>
+      </c>
+      <c r="O48" s="9" t="n">
+        <v>0.128337</v>
+      </c>
+      <c r="P48" s="9" t="n">
+        <v>0.265335</v>
+      </c>
+      <c r="Q48" s="9" t="n">
+        <v>0.325966</v>
+      </c>
+      <c r="R48" s="9" t="n">
+        <v>0.124625</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <f aca="false">Q48/V48</f>
+        <v>0.666597137014315</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" s="9" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="W48" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>20191028</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.388993</v>
+      </c>
+      <c r="K52" s="21" t="n">
+        <v>0.369708</v>
+      </c>
+      <c r="L52" s="9" t="n">
+        <v>0.128825</v>
+      </c>
+      <c r="M52" s="9" t="n">
+        <v>0.358222</v>
+      </c>
+      <c r="N52" s="21" t="n">
+        <v>0.356647</v>
+      </c>
+      <c r="O52" s="9" t="n">
+        <v>0.127494</v>
+      </c>
+      <c r="P52" s="9" t="n">
+        <v>0.333846</v>
+      </c>
+      <c r="Q52" s="21" t="n">
+        <v>0.354364</v>
+      </c>
+      <c r="R52" s="9" t="n">
+        <v>0.127273</v>
+      </c>
+      <c r="S52" s="8" t="n">
+        <f aca="false">Q52/V52</f>
+        <v>0.782087839329066</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" s="9" t="n">
+        <v>0.4531</v>
+      </c>
+      <c r="W52" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>20191028</v>
+      </c>
+      <c r="J56" s="9" t="n">
+        <v>0.342703</v>
+      </c>
+      <c r="K56" s="21" t="n">
+        <v>0.376731</v>
+      </c>
+      <c r="L56" s="9" t="n">
+        <v>0.146181</v>
+      </c>
+      <c r="M56" s="9" t="n">
+        <v>0.185744</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>0.26551</v>
+      </c>
+      <c r="O56" s="9" t="n">
+        <v>0.098929</v>
+      </c>
+      <c r="P56" s="9" t="n">
+        <v>0.111736</v>
+      </c>
+      <c r="Q56" s="21" t="n">
+        <v>0.234004</v>
+      </c>
+      <c r="R56" s="9" t="n">
+        <v>0.084511</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <f aca="false">Q56/V56</f>
+        <v>0.421097714594205</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" s="9" t="n">
+        <v>0.5557</v>
+      </c>
+      <c r="W56" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="X56" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>0.294119</v>
+      </c>
+      <c r="K58" s="22" t="n">
+        <v>0.393724</v>
+      </c>
+      <c r="L58" s="9" t="n">
+        <v>0.14922</v>
+      </c>
+      <c r="M58" s="9" t="n">
+        <v>0.294119</v>
+      </c>
+      <c r="N58" s="22" t="n">
+        <v>0.393724</v>
+      </c>
+      <c r="O58" s="9" t="n">
+        <v>0.14922</v>
+      </c>
+      <c r="P58" s="9" t="n">
+        <v>0.18846</v>
+      </c>
+      <c r="Q58" s="22" t="n">
+        <v>0.378332</v>
+      </c>
+      <c r="R58" s="9" t="n">
+        <v>0.13538</v>
+      </c>
+      <c r="V58" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>20191028</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="J32" s="9" t="n">
-        <v>0.322902</v>
-      </c>
-      <c r="K32" s="20" t="n">
-        <v>0.375154</v>
-      </c>
-      <c r="L32" s="9" t="n">
-        <v>0.144468</v>
-      </c>
-      <c r="M32" s="9" t="n">
-        <v>0.299865</v>
-      </c>
-      <c r="N32" s="21" t="n">
-        <v>0.334215</v>
-      </c>
-      <c r="O32" s="9" t="n">
-        <v>0.128337</v>
-      </c>
-      <c r="P32" s="9" t="n">
-        <v>0.265335</v>
-      </c>
-      <c r="Q32" s="9" t="n">
-        <v>0.325966</v>
-      </c>
-      <c r="R32" s="9" t="n">
-        <v>0.124625</v>
-      </c>
-      <c r="S32" s="0" t="n">
-        <f aca="false">Q32/V32</f>
-        <v>0.666597137014315</v>
-      </c>
-      <c r="T32" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="U32" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V32" s="9" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="W32" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>20191028</v>
-      </c>
-      <c r="J36" s="9" t="n">
-        <v>0.388993</v>
-      </c>
-      <c r="K36" s="19" t="n">
-        <v>0.369708</v>
-      </c>
-      <c r="L36" s="9" t="n">
-        <v>0.128825</v>
-      </c>
-      <c r="M36" s="9" t="n">
-        <v>0.358222</v>
-      </c>
-      <c r="N36" s="19" t="n">
-        <v>0.356647</v>
-      </c>
-      <c r="O36" s="9" t="n">
-        <v>0.127494</v>
-      </c>
-      <c r="P36" s="9" t="n">
-        <v>0.333846</v>
-      </c>
-      <c r="Q36" s="19" t="n">
-        <v>0.354364</v>
-      </c>
-      <c r="R36" s="9" t="n">
-        <v>0.127273</v>
-      </c>
-      <c r="S36" s="8" t="n">
-        <f aca="false">Q36/V36</f>
-        <v>0.782087839329066</v>
-      </c>
-      <c r="T36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="U36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="V36" s="9" t="n">
-        <v>0.4531</v>
-      </c>
-      <c r="W36" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>20191028</v>
-      </c>
-      <c r="J40" s="9" t="n">
-        <v>0.342703</v>
-      </c>
-      <c r="K40" s="19" t="n">
-        <v>0.376731</v>
-      </c>
-      <c r="L40" s="9" t="n">
-        <v>0.146181</v>
-      </c>
-      <c r="M40" s="9" t="n">
-        <v>0.185744</v>
-      </c>
-      <c r="N40" s="19" t="n">
-        <v>0.26551</v>
-      </c>
-      <c r="O40" s="9" t="n">
-        <v>0.098929</v>
-      </c>
-      <c r="P40" s="9" t="n">
-        <v>0.111736</v>
-      </c>
-      <c r="Q40" s="19" t="n">
-        <v>0.234004</v>
-      </c>
-      <c r="R40" s="9" t="n">
-        <v>0.084511</v>
-      </c>
-      <c r="S40" s="0" t="n">
-        <f aca="false">Q40/V40</f>
-        <v>0.421097714594205</v>
-      </c>
-      <c r="T40" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="U40" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="V40" s="9" t="n">
-        <v>0.5557</v>
-      </c>
-      <c r="W40" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="J47" s="9" t="n">
-        <v>0.570309</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>0.506601</v>
-      </c>
-      <c r="L47" s="9" t="n">
-        <v>0.174945</v>
-      </c>
-      <c r="M47" s="9" t="n">
-        <v>0.497265</v>
-      </c>
-      <c r="N47" s="9" t="n">
-        <v>0.492078</v>
-      </c>
-      <c r="O47" s="9" t="n">
-        <v>0.172062</v>
-      </c>
-      <c r="P47" s="9" t="n">
-        <v>0.517553</v>
-      </c>
-      <c r="Q47" s="9" t="n">
-        <v>0.489173</v>
-      </c>
-      <c r="R47" s="9" t="n">
-        <v>0.173171</v>
-      </c>
-      <c r="W47" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V48" s="2"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="J49" s="9" t="n">
-        <v>0.53527</v>
-      </c>
-      <c r="K49" s="9" t="n">
-        <v>0.624088</v>
-      </c>
-      <c r="L49" s="9" t="n">
-        <v>0.179823</v>
-      </c>
-      <c r="V49" s="2"/>
-      <c r="W49" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V50" s="2"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="J51" s="9" t="n">
-        <v>0.509545</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>0.504833</v>
-      </c>
-      <c r="L51" s="9" t="n">
-        <v>0.173614</v>
-      </c>
-      <c r="M51" s="9" t="n">
-        <v>0.334369</v>
-      </c>
-      <c r="N51" s="9" t="n">
-        <v>0.414619</v>
-      </c>
-      <c r="O51" s="9" t="n">
-        <v>0.142572</v>
-      </c>
-      <c r="P51" s="9" t="n">
-        <v>0.260693</v>
-      </c>
-      <c r="Q51" s="23" t="n">
-        <v>0.42473</v>
-      </c>
-      <c r="R51" s="9" t="n">
-        <v>0.137916</v>
-      </c>
-      <c r="S51" s="17" t="n">
-        <f aca="false">Q51/V51</f>
-        <v>0.766245715316616</v>
-      </c>
-      <c r="T51" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="U51" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V51" s="9" t="n">
-        <v>0.5543</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V52" s="2"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="V53" s="2"/>
-      <c r="W53" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V54" s="2"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="J55" s="9" t="n">
-        <v>0.546447</v>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>0.549731</v>
-      </c>
-      <c r="L55" s="9" t="n">
-        <v>0.196452</v>
-      </c>
-      <c r="M55" s="9" t="n">
-        <v>0.493894</v>
-      </c>
-      <c r="N55" s="9" t="n">
-        <v>0.51285</v>
-      </c>
-      <c r="O55" s="9" t="n">
-        <v>0.180044</v>
-      </c>
-      <c r="P55" s="9" t="n">
-        <v>0.458191</v>
-      </c>
-      <c r="Q55" s="9" t="n">
-        <v>0.490952</v>
-      </c>
-      <c r="R55" s="9" t="n">
-        <v>0.172949</v>
-      </c>
-      <c r="W55" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+      <c r="W58" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.382297</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>0.37999</v>
+      </c>
+      <c r="L60" s="9" t="n">
+        <v>0.142206</v>
+      </c>
+      <c r="M60" s="9" t="n">
+        <v>0.257935</v>
+      </c>
+      <c r="N60" s="9" t="n">
+        <v>0.320515</v>
+      </c>
+      <c r="O60" s="9" t="n">
+        <v>0.119599</v>
+      </c>
+      <c r="P60" s="9" t="n">
+        <v>0.174454</v>
+      </c>
+      <c r="Q60" s="21" t="n">
+        <v>0.300714</v>
+      </c>
+      <c r="R60" s="9" t="n">
+        <v>0.109389</v>
+      </c>
+      <c r="V60" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="W60" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.389024</v>
+      </c>
+      <c r="K62" s="21" t="n">
+        <v>0.363357</v>
+      </c>
+      <c r="L62" s="9" t="n">
+        <v>0.136881</v>
+      </c>
+      <c r="M62" s="9" t="n">
+        <v>0.2268</v>
+      </c>
+      <c r="N62" s="23" t="n">
+        <v>0.282939</v>
+      </c>
+      <c r="O62" s="9" t="n">
+        <v>0.100741</v>
+      </c>
+      <c r="P62" s="9" t="n">
+        <v>0.123446</v>
+      </c>
+      <c r="Q62" s="23" t="n">
+        <v>0.240285</v>
+      </c>
+      <c r="R62" s="9" t="n">
+        <v>0.080884</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <f aca="false">Q62/V62</f>
+        <v>0.445302075611564</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V62" s="26" t="n">
+        <v>0.5396</v>
+      </c>
+      <c r="W62" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="X62" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="J57" s="9" t="n">
-        <v>0.525183</v>
-      </c>
-      <c r="K57" s="9" t="n">
-        <v>0.539951</v>
-      </c>
-      <c r="L57" s="9" t="n">
-        <v>0.197561</v>
-      </c>
-      <c r="M57" s="9" t="n">
-        <v>0.46354</v>
-      </c>
-      <c r="N57" s="9" t="n">
-        <v>0.48907</v>
-      </c>
-      <c r="O57" s="9" t="n">
-        <v>0.171397</v>
-      </c>
-      <c r="P57" s="9" t="n">
-        <v>0.334369</v>
-      </c>
-      <c r="Q57" s="23" t="n">
-        <v>0.414619</v>
-      </c>
-      <c r="R57" s="9" t="n">
-        <v>0.142572</v>
-      </c>
-      <c r="S57" s="0" t="n">
-        <f aca="false">Q57/V57</f>
-        <v>0.656874207858048</v>
-      </c>
-      <c r="T57" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="U57" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="V57" s="9" t="n">
-        <v>0.6312</v>
-      </c>
-      <c r="W57" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="3" t="n">
-        <v>20191030</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="J59" s="9" t="n">
-        <v>0.394624</v>
-      </c>
-      <c r="K59" s="9" t="n">
-        <v>0.390665</v>
-      </c>
-      <c r="L59" s="9" t="n">
-        <v>0.13969</v>
-      </c>
-      <c r="M59" s="9" t="n">
-        <v>0.356773</v>
-      </c>
-      <c r="N59" s="9" t="n">
-        <v>0.377995</v>
-      </c>
-      <c r="O59" s="9" t="n">
-        <v>0.136364</v>
-      </c>
-      <c r="P59" s="9" t="n">
-        <v>0.301481</v>
-      </c>
-      <c r="Q59" s="19" t="n">
-        <v>0.383617</v>
-      </c>
-      <c r="R59" s="9" t="n">
-        <v>0.136364</v>
-      </c>
-      <c r="S59" s="8" t="n">
-        <f aca="false">Q59/V59</f>
-        <v>0.775453810390135</v>
-      </c>
-      <c r="T59" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="U59" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="V59" s="9" t="n">
-        <v>0.4947</v>
-      </c>
-      <c r="W59" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="J61" s="9" t="n">
-        <v>0.155699</v>
-      </c>
-      <c r="K61" s="9" t="n">
-        <v>0.429368</v>
-      </c>
-      <c r="L61" s="9" t="n">
-        <v>0.146785</v>
-      </c>
-      <c r="M61" s="9" t="n">
-        <v>0.14578</v>
-      </c>
-      <c r="N61" s="9" t="n">
-        <v>0.405742</v>
-      </c>
-      <c r="O61" s="9" t="n">
-        <v>0.136585</v>
-      </c>
-      <c r="P61" s="9" t="n">
-        <v>0.139775</v>
-      </c>
-      <c r="Q61" s="9" t="n">
-        <v>0.396125</v>
-      </c>
-      <c r="R61" s="9" t="n">
-        <v>0.133703</v>
-      </c>
-      <c r="U61" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="V61" s="25" t="n">
-        <v>0.5043</v>
-      </c>
-      <c r="W61" s="24" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="X61" s="24"/>
-      <c r="Y61" s="24"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="J64" s="9" t="n">
+        <v>0.366225</v>
+      </c>
+      <c r="K64" s="27" t="n">
+        <v>0.399947</v>
+      </c>
+      <c r="L64" s="9" t="n">
+        <v>0.144707</v>
+      </c>
+      <c r="M64" s="9" t="n">
+        <v>0.232135</v>
+      </c>
+      <c r="N64" s="21" t="n">
+        <v>0.335551</v>
+      </c>
+      <c r="O64" s="9" t="n">
+        <v>0.119383</v>
+      </c>
+      <c r="P64" s="9" t="n">
+        <v>0.144385</v>
+      </c>
+      <c r="Q64" s="21" t="n">
+        <v>0.335953</v>
+      </c>
+      <c r="R64" s="9" t="n">
+        <v>0.112338</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <f aca="false">Q64/V64</f>
+        <v>0.72123872906827</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="V64" s="9" t="n">
+        <v>0.4658</v>
+      </c>
+      <c r="W64" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="9" t="n">
+        <v>0.406997</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>0.413022</v>
+      </c>
+      <c r="L66" s="9" t="n">
+        <v>0.150288</v>
+      </c>
+      <c r="P66" s="9" t="n">
+        <v>0.17971</v>
+      </c>
+      <c r="Q66" s="9" t="n">
+        <v>0.359421</v>
+      </c>
+      <c r="R66" s="9" t="n">
+        <v>0.120326</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <f aca="false">Q66/V66</f>
+        <v>0.772284056725397</v>
+      </c>
       <c r="U66" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="V66" s="26" t="n">
-        <v>0.4306</v>
+        <v>19</v>
+      </c>
+      <c r="V66" s="9" t="n">
+        <v>0.4654</v>
       </c>
       <c r="W66" s="0" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J72" s="9" t="n">
+        <v>0.570309</v>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>0.506601</v>
+      </c>
+      <c r="L72" s="9" t="n">
+        <v>0.174945</v>
+      </c>
+      <c r="M72" s="9" t="n">
+        <v>0.497265</v>
+      </c>
+      <c r="N72" s="9" t="n">
+        <v>0.492078</v>
+      </c>
+      <c r="O72" s="9" t="n">
+        <v>0.172062</v>
+      </c>
+      <c r="P72" s="9" t="n">
+        <v>0.517553</v>
+      </c>
+      <c r="Q72" s="9" t="n">
+        <v>0.489173</v>
+      </c>
+      <c r="R72" s="9" t="n">
+        <v>0.173171</v>
+      </c>
+      <c r="W72" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="J74" s="9" t="n">
+        <v>0.53527</v>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>0.624088</v>
+      </c>
+      <c r="L74" s="9" t="n">
+        <v>0.179823</v>
+      </c>
+      <c r="V74" s="2"/>
+      <c r="W74" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J76" s="9" t="n">
+        <v>0.509545</v>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>0.504833</v>
+      </c>
+      <c r="L76" s="9" t="n">
+        <v>0.173614</v>
+      </c>
+      <c r="M76" s="9" t="n">
+        <v>0.334369</v>
+      </c>
+      <c r="N76" s="9" t="n">
+        <v>0.414619</v>
+      </c>
+      <c r="O76" s="9" t="n">
+        <v>0.142572</v>
+      </c>
+      <c r="P76" s="9" t="n">
+        <v>0.260693</v>
+      </c>
+      <c r="Q76" s="29" t="n">
+        <v>0.42473</v>
+      </c>
+      <c r="R76" s="9" t="n">
+        <v>0.137916</v>
+      </c>
+      <c r="S76" s="15" t="n">
+        <f aca="false">Q76/V76</f>
+        <v>0.766245715316616</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V76" s="9" t="n">
+        <v>0.5543</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="V78" s="2"/>
+      <c r="W78" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J80" s="9" t="n">
+        <v>0.546447</v>
+      </c>
+      <c r="K80" s="9" t="n">
+        <v>0.549731</v>
+      </c>
+      <c r="L80" s="9" t="n">
+        <v>0.196452</v>
+      </c>
+      <c r="M80" s="9" t="n">
+        <v>0.493894</v>
+      </c>
+      <c r="N80" s="9" t="n">
+        <v>0.51285</v>
+      </c>
+      <c r="O80" s="9" t="n">
+        <v>0.180044</v>
+      </c>
+      <c r="P80" s="9" t="n">
+        <v>0.458191</v>
+      </c>
+      <c r="Q80" s="9" t="n">
+        <v>0.490952</v>
+      </c>
+      <c r="R80" s="9" t="n">
+        <v>0.172949</v>
+      </c>
+      <c r="W80" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J82" s="9" t="n">
+        <v>0.525183</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <v>0.539951</v>
+      </c>
+      <c r="L82" s="9" t="n">
+        <v>0.197561</v>
+      </c>
+      <c r="M82" s="9" t="n">
+        <v>0.46354</v>
+      </c>
+      <c r="N82" s="9" t="n">
+        <v>0.48907</v>
+      </c>
+      <c r="O82" s="9" t="n">
+        <v>0.171397</v>
+      </c>
+      <c r="P82" s="9" t="n">
+        <v>0.334369</v>
+      </c>
+      <c r="Q82" s="29" t="n">
+        <v>0.414619</v>
+      </c>
+      <c r="R82" s="9" t="n">
+        <v>0.142572</v>
+      </c>
+      <c r="S82" s="0" t="n">
+        <f aca="false">Q82/V82</f>
+        <v>0.656874207858048</v>
+      </c>
+      <c r="T82" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V82" s="9" t="n">
+        <v>0.6312</v>
+      </c>
+      <c r="W82" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>20191030</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="J84" s="9" t="n">
+        <v>0.394624</v>
+      </c>
+      <c r="K84" s="9" t="n">
+        <v>0.390665</v>
+      </c>
+      <c r="L84" s="9" t="n">
+        <v>0.13969</v>
+      </c>
+      <c r="M84" s="9" t="n">
+        <v>0.356773</v>
+      </c>
+      <c r="N84" s="9" t="n">
+        <v>0.377995</v>
+      </c>
+      <c r="O84" s="9" t="n">
+        <v>0.136364</v>
+      </c>
+      <c r="P84" s="9" t="n">
+        <v>0.301481</v>
+      </c>
+      <c r="Q84" s="21" t="n">
+        <v>0.383617</v>
+      </c>
+      <c r="R84" s="9" t="n">
+        <v>0.136364</v>
+      </c>
+      <c r="S84" s="8" t="n">
+        <f aca="false">Q84/V84</f>
+        <v>0.775453810390135</v>
+      </c>
+      <c r="T84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U84" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V84" s="9" t="n">
+        <v>0.4947</v>
+      </c>
+      <c r="W84" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="J86" s="9" t="n">
+        <v>0.155699</v>
+      </c>
+      <c r="K86" s="9" t="n">
+        <v>0.429368</v>
+      </c>
+      <c r="L86" s="9" t="n">
+        <v>0.146785</v>
+      </c>
+      <c r="M86" s="9" t="n">
+        <v>0.14578</v>
+      </c>
+      <c r="N86" s="9" t="n">
+        <v>0.405742</v>
+      </c>
+      <c r="O86" s="9" t="n">
+        <v>0.136585</v>
+      </c>
+      <c r="P86" s="9" t="n">
+        <v>0.139775</v>
+      </c>
+      <c r="Q86" s="9" t="n">
+        <v>0.396125</v>
+      </c>
+      <c r="R86" s="9" t="n">
+        <v>0.133703</v>
+      </c>
+      <c r="U86" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="V86" s="9" t="n">
+        <v>0.5043</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="W88" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U93" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V93" s="31" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="W93" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="W98" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="W102" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2789,17 +3308,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2810,204 +3329,230 @@
       <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>110</v>
+      <c r="A3" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="0" t="n">
         <v>0.4306</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>112</v>
+        <v>144</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="9" t="n">
         <v>0.4461</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>114</v>
+        <v>147</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>79</v>
+      <c r="A5" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="9" t="n">
         <v>0.4531</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>114</v>
+        <v>149</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0.4849</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C7" s="9" t="n">
         <v>0.489</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="E7" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C7" s="25" t="n">
+      <c r="C8" s="9" t="n">
         <v>0.4947</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="D8" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C9" s="9" t="n">
         <v>0.4988</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G9" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>0.5043</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>0.5215</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>0.5543</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C9" s="25" t="n">
-        <v>0.5043</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="0" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>0.5557</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>0.6312</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" s="25" t="n">
-        <v>0.5215</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" s="25" t="n">
-        <v>0.5543</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="25" t="n">
-        <v>0.5557</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" s="25" t="n">
-        <v>0.6312</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>100</v>
+      <c r="G14" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3098,4 +3643,88 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/model_metrics.xlsx
+++ b/model_metrics.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="187">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -262,6 +262,48 @@
     <t xml:space="preserve">03_18</t>
   </si>
   <si>
+    <t xml:space="preserve">xtra_tfms=[dihedral(p=0.7), rand_crop(p=0.4)], (flip_vert=True, max_lighting=0.2, max_zoom=1.1, max_warp=0., xtra_tfms=xtra_tfms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_11 (valid only), using 4x4 bg padded, wrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generated sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padded bg, 256 then 512 img size, resnet 50, 101, 152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_20_fastai_train_resnet_valid_pad_refl_20191118.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_11 (valid only), using 4x4 bg padded, reflect, 256 then 512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rn101-03_21-cv_reflect_101_valid-20191118-7607ef2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_20 but resnet101, extra tfms (with 256 then 512)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generated sub on 2 (not 2-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_22_fastai_train_resnet152_valid_pad_refl_20191118.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_20 but resnet152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO – train on full non clipped bg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Using sharpend images</t>
   </si>
   <si>
@@ -425,6 +467,18 @@
   </si>
   <si>
     <t xml:space="preserve">strted looking at this buty fair bit of work to get training then more work to get pred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_9_fastai_train_efficientnet_b3_20191117.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficientnet_b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_10_fastai_train_efficientnet_b6_20191117.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficientnet_b6</t>
   </si>
   <si>
     <t xml:space="preserve">Ensembles</t>
@@ -581,15 +635,15 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="21">
@@ -748,7 +802,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -829,6 +883,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -853,7 +919,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -874,10 +940,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -969,7 +1031,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1103,11 +1165,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="9835685"/>
-        <c:axId val="48529175"/>
+        <c:axId val="52458119"/>
+        <c:axId val="61791446"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9835685"/>
+        <c:axId val="52458119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,12 +1197,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48529175"/>
+        <c:crossAx val="61791446"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48529175"/>
+        <c:axId val="61791446"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1239,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9835685"/>
+        <c:crossAx val="52458119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1225,7 +1287,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1349,11 +1411,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="22864067"/>
-        <c:axId val="91927152"/>
+        <c:axId val="72555897"/>
+        <c:axId val="60811836"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22864067"/>
+        <c:axId val="72555897"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,14 +1443,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91927152"/>
+        <c:crossAx val="60811836"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91927152"/>
+        <c:axId val="60811836"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1487,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22864067"/>
+        <c:crossAx val="72555897"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1472,7 +1534,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1563,11 +1625,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="93109884"/>
-        <c:axId val="71181858"/>
+        <c:axId val="9619229"/>
+        <c:axId val="13932766"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93109884"/>
+        <c:axId val="9619229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,14 +1657,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71181858"/>
+        <c:crossAx val="13932766"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71181858"/>
+        <c:axId val="13932766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -1640,7 +1702,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93109884"/>
+        <c:crossAx val="9619229"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1699,9 +1761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1710,7 +1772,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9865800" y="2483640"/>
-        <a:ext cx="5757840" cy="3237840"/>
+        <a:ext cx="5757480" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1729,9 +1791,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>299880</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1740,7 +1802,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="118800" y="2572200"/>
-        <a:ext cx="9263520" cy="3240000"/>
+        <a:ext cx="9263160" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1764,9 +1826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>155880</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1775,7 +1837,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1714680" y="2696400"/>
-        <a:ext cx="5756760" cy="3239640"/>
+        <a:ext cx="5756400" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1793,10 +1855,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:Y113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W39" activeCellId="0" sqref="W39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2440,856 +2502,976 @@
       <c r="B39" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="V39" s="0" t="n">
+      <c r="V39" s="15" t="n">
         <v>0.4535</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="W39" s="0" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="X40" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" s="9" t="n">
+        <v>0.473367</v>
+      </c>
+      <c r="Q43" s="9" t="n">
+        <v>0.488676</v>
+      </c>
+      <c r="R43" s="9" t="n">
+        <v>0.176866</v>
+      </c>
+      <c r="V43" s="9" t="n">
+        <v>0.4629</v>
+      </c>
+      <c r="W43" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="X43" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>0.518463</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>0.543399</v>
+      </c>
+      <c r="L44" s="9" t="n">
+        <v>0.201076</v>
+      </c>
+      <c r="M44" s="9" t="n">
+        <v>0.351982</v>
+      </c>
+      <c r="N44" s="9" t="n">
+        <v>0.506825</v>
+      </c>
+      <c r="O44" s="9" t="n">
+        <v>0.178211</v>
+      </c>
+      <c r="V44" s="9" t="n">
+        <v>0.5733</v>
+      </c>
+      <c r="W44" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="X44" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M45" s="9" t="n">
+        <v>0.427257</v>
+      </c>
+      <c r="N45" s="9" t="n">
+        <v>0.50657</v>
+      </c>
+      <c r="O45" s="9" t="n">
+        <v>0.17384</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="W45" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="2"/>
+      <c r="W46" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="3" t="n">
+      <c r="D50" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="3" t="n">
         <v>20191027</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="0" t="n">
+      <c r="G50" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I50" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="9" t="n">
+      <c r="J50" s="9" t="n">
         <v>0.371694</v>
       </c>
-      <c r="K43" s="20" t="n">
+      <c r="K50" s="23" t="n">
         <v>0.366708</v>
       </c>
-      <c r="L43" s="9" t="n">
+      <c r="L50" s="9" t="n">
         <v>0.129712</v>
       </c>
-      <c r="M43" s="9" t="n">
+      <c r="M50" s="9" t="n">
         <v>0.351872</v>
       </c>
-      <c r="N43" s="21" t="n">
+      <c r="N50" s="24" t="n">
         <v>0.355532</v>
       </c>
-      <c r="O43" s="9" t="n">
+      <c r="O50" s="9" t="n">
         <v>0.127273</v>
       </c>
-      <c r="U43" s="0" t="n">
+      <c r="U50" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="V43" s="9" t="n">
+      <c r="V50" s="9" t="n">
         <v>0.4916</v>
       </c>
-      <c r="W43" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="W50" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="3" t="n">
+      <c r="D55" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="3" t="n">
         <v>20191028</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48" s="0" t="n">
+      <c r="G55" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="J48" s="9" t="n">
+      <c r="J55" s="9" t="n">
         <v>0.322902</v>
       </c>
-      <c r="K48" s="22" t="n">
+      <c r="K55" s="25" t="n">
         <v>0.375154</v>
       </c>
-      <c r="L48" s="9" t="n">
+      <c r="L55" s="9" t="n">
         <v>0.144468</v>
       </c>
-      <c r="M48" s="9" t="n">
+      <c r="M55" s="9" t="n">
         <v>0.299865</v>
       </c>
-      <c r="N48" s="23" t="n">
+      <c r="N55" s="26" t="n">
         <v>0.334215</v>
       </c>
-      <c r="O48" s="9" t="n">
+      <c r="O55" s="9" t="n">
         <v>0.128337</v>
       </c>
-      <c r="P48" s="9" t="n">
+      <c r="P55" s="9" t="n">
         <v>0.265335</v>
       </c>
-      <c r="Q48" s="9" t="n">
+      <c r="Q55" s="9" t="n">
         <v>0.325966</v>
       </c>
-      <c r="R48" s="9" t="n">
+      <c r="R55" s="9" t="n">
         <v>0.124625</v>
       </c>
-      <c r="S48" s="0" t="n">
-        <f aca="false">Q48/V48</f>
+      <c r="S55" s="0" t="n">
+        <f aca="false">Q55/V55</f>
         <v>0.666597137014315</v>
       </c>
-      <c r="T48" s="0" t="n">
+      <c r="T55" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="U48" s="0" t="n">
+      <c r="U55" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V48" s="9" t="n">
+      <c r="V55" s="9" t="n">
         <v>0.489</v>
       </c>
-      <c r="W48" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="W55" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="3" t="n">
+      <c r="D59" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" s="3" t="n">
         <v>20191028</v>
       </c>
-      <c r="J52" s="9" t="n">
+      <c r="J59" s="9" t="n">
         <v>0.388993</v>
       </c>
-      <c r="K52" s="21" t="n">
+      <c r="K59" s="24" t="n">
         <v>0.369708</v>
       </c>
-      <c r="L52" s="9" t="n">
+      <c r="L59" s="9" t="n">
         <v>0.128825</v>
       </c>
-      <c r="M52" s="9" t="n">
+      <c r="M59" s="9" t="n">
         <v>0.358222</v>
       </c>
-      <c r="N52" s="21" t="n">
+      <c r="N59" s="24" t="n">
         <v>0.356647</v>
       </c>
-      <c r="O52" s="9" t="n">
+      <c r="O59" s="9" t="n">
         <v>0.127494</v>
       </c>
-      <c r="P52" s="9" t="n">
+      <c r="P59" s="9" t="n">
         <v>0.333846</v>
       </c>
-      <c r="Q52" s="21" t="n">
+      <c r="Q59" s="24" t="n">
         <v>0.354364</v>
       </c>
-      <c r="R52" s="9" t="n">
+      <c r="R59" s="9" t="n">
         <v>0.127273</v>
       </c>
-      <c r="S52" s="8" t="n">
-        <f aca="false">Q52/V52</f>
+      <c r="S59" s="8" t="n">
+        <f aca="false">Q59/V59</f>
         <v>0.782087839329066</v>
       </c>
-      <c r="T52" s="0" t="n">
+      <c r="T59" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="U52" s="0" t="n">
+      <c r="U59" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="V52" s="9" t="n">
+      <c r="V59" s="9" t="n">
         <v>0.4531</v>
       </c>
-      <c r="W52" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="W59" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D63" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" s="3" t="n">
+      <c r="E63" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="3" t="n">
         <v>20191028</v>
       </c>
-      <c r="J56" s="9" t="n">
+      <c r="J63" s="9" t="n">
         <v>0.342703</v>
       </c>
-      <c r="K56" s="21" t="n">
+      <c r="K63" s="24" t="n">
         <v>0.376731</v>
       </c>
-      <c r="L56" s="9" t="n">
+      <c r="L63" s="9" t="n">
         <v>0.146181</v>
       </c>
-      <c r="M56" s="9" t="n">
+      <c r="M63" s="9" t="n">
         <v>0.185744</v>
       </c>
-      <c r="N56" s="21" t="n">
+      <c r="N63" s="24" t="n">
         <v>0.26551</v>
       </c>
-      <c r="O56" s="9" t="n">
+      <c r="O63" s="9" t="n">
         <v>0.098929</v>
       </c>
-      <c r="P56" s="9" t="n">
+      <c r="P63" s="9" t="n">
         <v>0.111736</v>
       </c>
-      <c r="Q56" s="21" t="n">
+      <c r="Q63" s="24" t="n">
         <v>0.234004</v>
       </c>
-      <c r="R56" s="9" t="n">
+      <c r="R63" s="9" t="n">
         <v>0.084511</v>
       </c>
-      <c r="S56" s="0" t="n">
-        <f aca="false">Q56/V56</f>
+      <c r="S63" s="0" t="n">
+        <f aca="false">Q63/V63</f>
         <v>0.421097714594205</v>
       </c>
-      <c r="T56" s="0" t="n">
+      <c r="T63" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="U56" s="0" t="n">
+      <c r="U63" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="V56" s="9" t="n">
+      <c r="V63" s="9" t="n">
         <v>0.5557</v>
       </c>
-      <c r="W56" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="X56" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J58" s="9" t="n">
+      <c r="W63" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="X63" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J65" s="9" t="n">
         <v>0.294119</v>
       </c>
-      <c r="K58" s="22" t="n">
+      <c r="K65" s="25" t="n">
         <v>0.393724</v>
       </c>
-      <c r="L58" s="9" t="n">
+      <c r="L65" s="9" t="n">
         <v>0.14922</v>
       </c>
-      <c r="M58" s="9" t="n">
+      <c r="M65" s="9" t="n">
         <v>0.294119</v>
       </c>
-      <c r="N58" s="22" t="n">
+      <c r="N65" s="25" t="n">
         <v>0.393724</v>
       </c>
-      <c r="O58" s="9" t="n">
+      <c r="O65" s="9" t="n">
         <v>0.14922</v>
       </c>
-      <c r="P58" s="9" t="n">
+      <c r="P65" s="9" t="n">
         <v>0.18846</v>
       </c>
-      <c r="Q58" s="22" t="n">
+      <c r="Q65" s="25" t="n">
         <v>0.378332</v>
       </c>
-      <c r="R58" s="9" t="n">
+      <c r="R65" s="9" t="n">
         <v>0.13538</v>
       </c>
-      <c r="V58" s="18" t="s">
+      <c r="V65" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="W58" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="J60" s="9" t="n">
+      <c r="W65" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J67" s="9" t="n">
         <v>0.382297</v>
       </c>
-      <c r="K60" s="9" t="n">
+      <c r="K67" s="9" t="n">
         <v>0.37999</v>
       </c>
-      <c r="L60" s="9" t="n">
+      <c r="L67" s="9" t="n">
         <v>0.142206</v>
       </c>
-      <c r="M60" s="9" t="n">
+      <c r="M67" s="9" t="n">
         <v>0.257935</v>
       </c>
-      <c r="N60" s="9" t="n">
+      <c r="N67" s="9" t="n">
         <v>0.320515</v>
       </c>
-      <c r="O60" s="9" t="n">
+      <c r="O67" s="9" t="n">
         <v>0.119599</v>
       </c>
-      <c r="P60" s="9" t="n">
+      <c r="P67" s="9" t="n">
         <v>0.174454</v>
       </c>
-      <c r="Q60" s="21" t="n">
+      <c r="Q67" s="24" t="n">
         <v>0.300714</v>
       </c>
-      <c r="R60" s="9" t="n">
+      <c r="R67" s="9" t="n">
         <v>0.109389</v>
       </c>
-      <c r="V60" s="18" t="s">
+      <c r="V67" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="W60" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="J62" s="9" t="n">
+      <c r="W67" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J69" s="9" t="n">
         <v>0.389024</v>
       </c>
-      <c r="K62" s="21" t="n">
+      <c r="K69" s="24" t="n">
         <v>0.363357</v>
       </c>
-      <c r="L62" s="9" t="n">
+      <c r="L69" s="9" t="n">
         <v>0.136881</v>
       </c>
-      <c r="M62" s="9" t="n">
+      <c r="M69" s="9" t="n">
         <v>0.2268</v>
       </c>
-      <c r="N62" s="23" t="n">
+      <c r="N69" s="26" t="n">
         <v>0.282939</v>
       </c>
-      <c r="O62" s="9" t="n">
+      <c r="O69" s="9" t="n">
         <v>0.100741</v>
       </c>
-      <c r="P62" s="9" t="n">
+      <c r="P69" s="9" t="n">
         <v>0.123446</v>
       </c>
-      <c r="Q62" s="23" t="n">
+      <c r="Q69" s="26" t="n">
         <v>0.240285</v>
       </c>
-      <c r="R62" s="9" t="n">
+      <c r="R69" s="9" t="n">
         <v>0.080884</v>
       </c>
-      <c r="S62" s="0" t="n">
-        <f aca="false">Q62/V62</f>
+      <c r="S69" s="0" t="n">
+        <f aca="false">Q69/V69</f>
         <v>0.445302075611564</v>
       </c>
-      <c r="U62" s="0" t="n">
+      <c r="U69" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="V62" s="26" t="n">
+      <c r="V69" s="29" t="n">
         <v>0.5396</v>
       </c>
-      <c r="W62" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="X62" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="J64" s="9" t="n">
+      <c r="W69" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="X69" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="J71" s="9" t="n">
         <v>0.366225</v>
       </c>
-      <c r="K64" s="27" t="n">
+      <c r="K71" s="30" t="n">
         <v>0.399947</v>
       </c>
-      <c r="L64" s="9" t="n">
+      <c r="L71" s="9" t="n">
         <v>0.144707</v>
       </c>
-      <c r="M64" s="9" t="n">
+      <c r="M71" s="9" t="n">
         <v>0.232135</v>
       </c>
-      <c r="N64" s="21" t="n">
+      <c r="N71" s="24" t="n">
         <v>0.335551</v>
       </c>
-      <c r="O64" s="9" t="n">
+      <c r="O71" s="9" t="n">
         <v>0.119383</v>
       </c>
-      <c r="P64" s="9" t="n">
+      <c r="P71" s="9" t="n">
         <v>0.144385</v>
       </c>
-      <c r="Q64" s="21" t="n">
+      <c r="Q71" s="24" t="n">
         <v>0.335953</v>
       </c>
-      <c r="R64" s="9" t="n">
+      <c r="R71" s="9" t="n">
         <v>0.112338</v>
       </c>
-      <c r="S64" s="0" t="n">
-        <f aca="false">Q64/V64</f>
+      <c r="S71" s="0" t="n">
+        <f aca="false">Q71/V71</f>
         <v>0.72123872906827</v>
       </c>
-      <c r="U64" s="0" t="n">
+      <c r="U71" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="V64" s="9" t="n">
+      <c r="V71" s="9" t="n">
         <v>0.4658</v>
       </c>
-      <c r="W64" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="J66" s="9" t="n">
+      <c r="W71" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J73" s="9" t="n">
         <v>0.406997</v>
       </c>
-      <c r="K66" s="9" t="n">
+      <c r="K73" s="9" t="n">
         <v>0.413022</v>
       </c>
-      <c r="L66" s="9" t="n">
+      <c r="L73" s="9" t="n">
         <v>0.150288</v>
       </c>
-      <c r="P66" s="9" t="n">
+      <c r="P73" s="9" t="n">
         <v>0.17971</v>
       </c>
-      <c r="Q66" s="9" t="n">
+      <c r="Q73" s="9" t="n">
         <v>0.359421</v>
       </c>
-      <c r="R66" s="9" t="n">
+      <c r="R73" s="9" t="n">
         <v>0.120326</v>
       </c>
-      <c r="S66" s="0" t="n">
-        <f aca="false">Q66/V66</f>
+      <c r="S73" s="0" t="n">
+        <f aca="false">Q73/V73</f>
         <v>0.772284056725397</v>
       </c>
-      <c r="U66" s="0" t="n">
+      <c r="U73" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="V66" s="9" t="n">
+      <c r="V73" s="9" t="n">
         <v>0.4654</v>
       </c>
-      <c r="W66" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J72" s="9" t="n">
+      <c r="W73" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J79" s="9" t="n">
         <v>0.570309</v>
       </c>
-      <c r="K72" s="9" t="n">
+      <c r="K79" s="9" t="n">
         <v>0.506601</v>
       </c>
-      <c r="L72" s="9" t="n">
+      <c r="L79" s="9" t="n">
         <v>0.174945</v>
       </c>
-      <c r="M72" s="9" t="n">
+      <c r="M79" s="9" t="n">
         <v>0.497265</v>
       </c>
-      <c r="N72" s="9" t="n">
+      <c r="N79" s="9" t="n">
         <v>0.492078</v>
       </c>
-      <c r="O72" s="9" t="n">
+      <c r="O79" s="9" t="n">
         <v>0.172062</v>
       </c>
-      <c r="P72" s="9" t="n">
+      <c r="P79" s="9" t="n">
         <v>0.517553</v>
       </c>
-      <c r="Q72" s="9" t="n">
+      <c r="Q79" s="9" t="n">
         <v>0.489173</v>
       </c>
-      <c r="R72" s="9" t="n">
+      <c r="R79" s="9" t="n">
         <v>0.173171</v>
       </c>
-      <c r="W72" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V73" s="2"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J74" s="9" t="n">
+      <c r="W79" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J81" s="9" t="n">
         <v>0.53527</v>
       </c>
-      <c r="K74" s="9" t="n">
+      <c r="K81" s="9" t="n">
         <v>0.624088</v>
       </c>
-      <c r="L74" s="9" t="n">
+      <c r="L81" s="9" t="n">
         <v>0.179823</v>
       </c>
-      <c r="V74" s="2"/>
-      <c r="W74" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V75" s="2"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="J76" s="9" t="n">
+      <c r="V81" s="2"/>
+      <c r="W81" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J83" s="9" t="n">
         <v>0.509545</v>
       </c>
-      <c r="K76" s="9" t="n">
+      <c r="K83" s="9" t="n">
         <v>0.504833</v>
       </c>
-      <c r="L76" s="9" t="n">
+      <c r="L83" s="9" t="n">
         <v>0.173614</v>
       </c>
-      <c r="M76" s="9" t="n">
+      <c r="M83" s="9" t="n">
         <v>0.334369</v>
       </c>
-      <c r="N76" s="9" t="n">
+      <c r="N83" s="9" t="n">
         <v>0.414619</v>
       </c>
-      <c r="O76" s="9" t="n">
+      <c r="O83" s="9" t="n">
         <v>0.142572</v>
       </c>
-      <c r="P76" s="9" t="n">
+      <c r="P83" s="9" t="n">
         <v>0.260693</v>
       </c>
-      <c r="Q76" s="29" t="n">
+      <c r="Q83" s="32" t="n">
         <v>0.42473</v>
       </c>
-      <c r="R76" s="9" t="n">
+      <c r="R83" s="9" t="n">
         <v>0.137916</v>
       </c>
-      <c r="S76" s="15" t="n">
-        <f aca="false">Q76/V76</f>
+      <c r="S83" s="15" t="n">
+        <f aca="false">Q83/V83</f>
         <v>0.766245715316616</v>
       </c>
-      <c r="T76" s="0" t="n">
+      <c r="T83" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U76" s="0" t="n">
+      <c r="U83" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="V76" s="9" t="n">
+      <c r="V83" s="9" t="n">
         <v>0.5543</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V77" s="2"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="V78" s="2"/>
-      <c r="W78" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V79" s="2"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="J80" s="9" t="n">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="V85" s="2"/>
+      <c r="W85" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V86" s="2"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J87" s="9" t="n">
         <v>0.546447</v>
       </c>
-      <c r="K80" s="9" t="n">
+      <c r="K87" s="9" t="n">
         <v>0.549731</v>
       </c>
-      <c r="L80" s="9" t="n">
+      <c r="L87" s="9" t="n">
         <v>0.196452</v>
       </c>
-      <c r="M80" s="9" t="n">
+      <c r="M87" s="9" t="n">
         <v>0.493894</v>
       </c>
-      <c r="N80" s="9" t="n">
+      <c r="N87" s="9" t="n">
         <v>0.51285</v>
       </c>
-      <c r="O80" s="9" t="n">
+      <c r="O87" s="9" t="n">
         <v>0.180044</v>
       </c>
-      <c r="P80" s="9" t="n">
+      <c r="P87" s="9" t="n">
         <v>0.458191</v>
       </c>
-      <c r="Q80" s="9" t="n">
+      <c r="Q87" s="9" t="n">
         <v>0.490952</v>
       </c>
-      <c r="R80" s="9" t="n">
+      <c r="R87" s="9" t="n">
         <v>0.172949</v>
       </c>
-      <c r="W80" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="J82" s="9" t="n">
+      <c r="W87" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J89" s="9" t="n">
         <v>0.525183</v>
       </c>
-      <c r="K82" s="9" t="n">
+      <c r="K89" s="9" t="n">
         <v>0.539951</v>
       </c>
-      <c r="L82" s="9" t="n">
+      <c r="L89" s="9" t="n">
         <v>0.197561</v>
       </c>
-      <c r="M82" s="9" t="n">
+      <c r="M89" s="9" t="n">
         <v>0.46354</v>
       </c>
-      <c r="N82" s="9" t="n">
+      <c r="N89" s="9" t="n">
         <v>0.48907</v>
       </c>
-      <c r="O82" s="9" t="n">
+      <c r="O89" s="9" t="n">
         <v>0.171397</v>
       </c>
-      <c r="P82" s="9" t="n">
+      <c r="P89" s="9" t="n">
         <v>0.334369</v>
       </c>
-      <c r="Q82" s="29" t="n">
+      <c r="Q89" s="32" t="n">
         <v>0.414619</v>
       </c>
-      <c r="R82" s="9" t="n">
+      <c r="R89" s="9" t="n">
         <v>0.142572</v>
       </c>
-      <c r="S82" s="0" t="n">
-        <f aca="false">Q82/V82</f>
+      <c r="S89" s="0" t="n">
+        <f aca="false">Q89/V89</f>
         <v>0.656874207858048</v>
       </c>
-      <c r="T82" s="0" t="n">
+      <c r="T89" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="U82" s="0" t="n">
+      <c r="U89" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="V82" s="9" t="n">
+      <c r="V89" s="9" t="n">
         <v>0.6312</v>
       </c>
-      <c r="W82" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D84" s="0" t="s">
+      <c r="W89" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D91" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F84" s="3" t="n">
+      <c r="E91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F91" s="3" t="n">
         <v>20191030</v>
       </c>
-      <c r="H84" s="0" t="n">
+      <c r="H91" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="J84" s="9" t="n">
+      <c r="J91" s="9" t="n">
         <v>0.394624</v>
       </c>
-      <c r="K84" s="9" t="n">
+      <c r="K91" s="9" t="n">
         <v>0.390665</v>
       </c>
-      <c r="L84" s="9" t="n">
+      <c r="L91" s="9" t="n">
         <v>0.13969</v>
       </c>
-      <c r="M84" s="9" t="n">
+      <c r="M91" s="9" t="n">
         <v>0.356773</v>
       </c>
-      <c r="N84" s="9" t="n">
+      <c r="N91" s="9" t="n">
         <v>0.377995</v>
       </c>
-      <c r="O84" s="9" t="n">
+      <c r="O91" s="9" t="n">
         <v>0.136364</v>
       </c>
-      <c r="P84" s="9" t="n">
+      <c r="P91" s="9" t="n">
         <v>0.301481</v>
       </c>
-      <c r="Q84" s="21" t="n">
+      <c r="Q91" s="24" t="n">
         <v>0.383617</v>
       </c>
-      <c r="R84" s="9" t="n">
+      <c r="R91" s="9" t="n">
         <v>0.136364</v>
       </c>
-      <c r="S84" s="8" t="n">
-        <f aca="false">Q84/V84</f>
+      <c r="S91" s="8" t="n">
+        <f aca="false">Q91/V91</f>
         <v>0.775453810390135</v>
       </c>
-      <c r="T84" s="0" t="n">
+      <c r="T91" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="U84" s="0" t="n">
+      <c r="U91" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="V84" s="9" t="n">
+      <c r="V91" s="9" t="n">
         <v>0.4947</v>
       </c>
-      <c r="W84" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="J86" s="9" t="n">
+      <c r="W91" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J93" s="9" t="n">
         <v>0.155699</v>
       </c>
-      <c r="K86" s="9" t="n">
+      <c r="K93" s="9" t="n">
         <v>0.429368</v>
       </c>
-      <c r="L86" s="9" t="n">
+      <c r="L93" s="9" t="n">
         <v>0.146785</v>
       </c>
-      <c r="M86" s="9" t="n">
+      <c r="M93" s="9" t="n">
         <v>0.14578</v>
       </c>
-      <c r="N86" s="9" t="n">
+      <c r="N93" s="9" t="n">
         <v>0.405742</v>
       </c>
-      <c r="O86" s="9" t="n">
+      <c r="O93" s="9" t="n">
         <v>0.136585</v>
       </c>
-      <c r="P86" s="9" t="n">
+      <c r="P93" s="9" t="n">
         <v>0.139775</v>
       </c>
-      <c r="Q86" s="9" t="n">
+      <c r="Q93" s="9" t="n">
         <v>0.396125</v>
       </c>
-      <c r="R86" s="9" t="n">
+      <c r="R93" s="9" t="n">
         <v>0.133703</v>
       </c>
-      <c r="U86" s="2" t="n">
+      <c r="U93" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="V86" s="9" t="n">
+      <c r="V93" s="9" t="n">
         <v>0.5043</v>
       </c>
-      <c r="W86" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="W88" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U93" s="0" t="n">
+      <c r="W93" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="W95" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="W97" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="W99" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U104" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="V93" s="31" t="n">
+      <c r="V104" s="34" t="n">
         <v>0.4306</v>
       </c>
-      <c r="W93" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="W98" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="W102" s="0" t="s">
-        <v>141</v>
+      <c r="W104" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="W109" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="W113" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3333,12 +3515,12 @@
         <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
-        <v>143</v>
+      <c r="A3" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>11</v>
@@ -3347,14 +3529,14 @@
         <v>0.4306</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -3367,18 +3549,18 @@
         <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
-        <v>93</v>
+      <c r="A5" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
@@ -3390,14 +3572,14 @@
         <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -3407,18 +3589,18 @@
         <v>0.4849</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
-        <v>88</v>
+      <c r="A7" s="35" t="s">
+        <v>102</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
@@ -3430,15 +3612,15 @@
         <v>24</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
-        <v>128</v>
+      <c r="A8" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>8</v>
@@ -3447,15 +3629,15 @@
         <v>0.4947</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>152</v>
+      <c r="A9" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>9</v>
@@ -3467,12 +3649,12 @@
         <v>24</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
-        <v>154</v>
+      <c r="A10" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>13</v>
@@ -3481,15 +3663,15 @@
         <v>0.5043</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
-        <v>155</v>
+      <c r="A11" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10</v>
@@ -3501,12 +3683,12 @@
         <v>24</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
-        <v>157</v>
+      <c r="A12" s="37" t="s">
+        <v>175</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>6</v>
@@ -3515,12 +3697,12 @@
         <v>0.5543</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
-        <v>97</v>
+      <c r="A13" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -3532,15 +3714,15 @@
         <v>24</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
-        <v>124</v>
+      <c r="A14" s="38" t="s">
+        <v>138</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>7</v>
@@ -3549,10 +3731,10 @@
         <v>0.6312</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3665,57 +3847,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="9" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="9" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="9" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="9" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="9" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/model_metrics.xlsx
+++ b/model_metrics.xlsx
@@ -11,7 +11,8 @@
     <sheet name="log" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="rankings" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="rank" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="hyperparams" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="TODO" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="254">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -91,6 +92,24 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">data_prep_rasterio_with_infill_02.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished, Check fix jaggedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01nb_data_qc_viz.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QC of polygon distributions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_3_image_qc_cropping.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed color issue, sinle RGB vs BGR issue</t>
+  </si>
+  <si>
     <t xml:space="preserve">using hz rotated polygons, opencv padded images (border reflect 101)</t>
   </si>
   <si>
@@ -301,9 +320,63 @@
     <t xml:space="preserve">As 03_20 but resnet152</t>
   </si>
   <si>
+    <t xml:space="preserve">Padded bg, resnet50</t>
+  </si>
+  <si>
     <t xml:space="preserve">TODO – train on full non clipped bg</t>
   </si>
   <si>
+    <t xml:space="preserve">03_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saved st_lucia_castries_gold_concrete_cement.csv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run 1 (all padded)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merged st_lucia_castries_gold_concrete_cement.csv into valid, padded data, 90 deg rotated all images added to training data. First ran with padded for all, then with where blk frac&gt;0.15 then used padded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run 2 (blk&gt;0.15 padded)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run 2 (blk&gt;0.15 padded) and random zoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With 0.25 cutoff and rand zoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With 0.15 cutof and rand zoom, without _rot90 images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_24 with cutmix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_24 with mixup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_24 with ricap</t>
+  </si>
+  <si>
     <t xml:space="preserve">Using sharpend images</t>
   </si>
   <si>
@@ -472,13 +545,13 @@
     <t xml:space="preserve">06_9_fastai_train_efficientnet_b3_20191117.ipynb</t>
   </si>
   <si>
-    <t xml:space="preserve">efficientnet_b3</t>
+    <t xml:space="preserve">efficientnet_b3, xtra_tfms=[dihedral(p=0.7), rand_crop(p=0.4)] tfms = get_transforms(flip_vert=True, max_lighting=0.2, max_zoom=1.1, max_warp=0., xtra_tfms=xtra_tfms); predicting valid only</t>
   </si>
   <si>
     <t xml:space="preserve">06_10_fastai_train_efficientnet_b6_20191117.ipynb</t>
   </si>
   <si>
-    <t xml:space="preserve">efficientnet_b6</t>
+    <t xml:space="preserve">efficientnet_b6, 512 training needs to be re-done to train and test on 512 size</t>
   </si>
   <si>
     <t xml:space="preserve">Ensembles</t>
@@ -490,6 +563,30 @@
     <t xml:space="preserve">Simple ensemble using averaging of 2 x resnet, 1x densenet, 1x eficientnet</t>
   </si>
   <si>
+    <t xml:space="preserve">Pred other non roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_1_fastai_train_resnet_country_20191118.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predict country, amazing accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predict region – pretty good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pred xy, needs work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_6_resnet50_use_country_area_20191122.ipynb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unsupervised clustering</t>
   </si>
   <si>
@@ -584,6 +681,111 @@
   </si>
   <si>
     <t xml:space="preserve">do_mirror=True,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot Multi polygons - check cropping these correctly, try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x, y = polygon.convex_hull.exterior.coords.xy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try clustering images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflection:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try classification without border reflection/wrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try pandas prediction ensemble: rank average over the most uncorrelated sets of predictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try different optimizers eg:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    opt_func = partial(optim.Adam, eps=0.1, betas=(0.9,0.99))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    learn = Learner(data, models.xresnet50(), metrics=[accuracy,top_k_accuracy], wd=1e-3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        opt_func=opt_func, bn_wd=False, true_wd=True,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        loss_func = LabelSmoothingCrossEntropy()).mixup(alpha=0.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see ensembling hre:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/mnt/963GB/Data/Python/Code/pytorch/pytorch-image-classisifcation/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/fastai/courses/blob/master/deeplearning1/nbs/dogscats-ensemble.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and here:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://subscription.packtpub.com/book/big_data_and_business_intelligence/9781788624336/8/ch08lvl1sec47/model-ensembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster images of same class - find outliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arxiv.org/pdf/1807.05520.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/facebookresearch/deepcluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pred cty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pred region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pred xy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sep models for above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixup colour skewing for reflected data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use model to predict correct St Lucia Castries cement roofs: Check OK then use as validated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add total area of roof to training model head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/jrzaurin/pytorch-widedeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See 04_3 – where num black above certain % then used padded (otherwise just plain rot). Try really ramping up the zoom/crop, cutmix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment with wide resnet, ef/densenets more = combine with hyperparams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systematic experiments for aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systematic experiments for params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixup/Ricap/Cutmix experimentaiotn – force use of different datasets eg maybe class imbalance is re;;ated to poor result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forums.fast.ai/t/mixup-data-augmentation/22764</t>
   </si>
 </sst>
 </file>
@@ -593,7 +795,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -635,6 +837,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -645,13 +848,24 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF8CCFB7"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -686,7 +900,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8AA97"/>
-        <bgColor rgb="FFFDC578"/>
+        <bgColor rgb="FFF9A870"/>
       </patternFill>
     </fill>
     <fill>
@@ -705,12 +919,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8F93C7"/>
         <bgColor rgb="FF7DA7D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF72BF44"/>
-        <bgColor rgb="FF8CCFB7"/>
       </patternFill>
     </fill>
     <fill>
@@ -745,8 +953,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF9A870"/>
+        <bgColor rgb="FFF8AA97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E8AC7"/>
+        <bgColor rgb="FF8F93C7"/>
       </patternFill>
     </fill>
     <fill>
@@ -765,6 +979,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF37B70"/>
         <bgColor rgb="FFF68E76"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066B3"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -802,12 +1022,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -823,10 +1055,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -835,15 +1063,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -855,19 +1083,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -875,7 +1103,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -883,27 +1111,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,10 +1137,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -939,7 +1159,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -947,15 +1171,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -975,7 +1211,7 @@
       <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -985,14 +1221,14 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF5E8AC7"/>
       <rgbColor rgb="FF7DA7D8"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFE5CA"/>
       <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFF37B70"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0066B3"/>
       <rgbColor rgb="FFBCE4E5"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1014,8 +1250,8 @@
       <rgbColor rgb="FF87D1D1"/>
       <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFDC578"/>
+      <rgbColor rgb="FFF9A870"/>
       <rgbColor rgb="FFF68E76"/>
-      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF8F93C7"/>
       <rgbColor rgb="FF004586"/>
@@ -1031,7 +1267,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1165,11 +1401,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52458119"/>
-        <c:axId val="61791446"/>
+        <c:axId val="62954927"/>
+        <c:axId val="44836197"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52458119"/>
+        <c:axId val="62954927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,12 +1433,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61791446"/>
+        <c:crossAx val="44836197"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61791446"/>
+        <c:axId val="44836197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1475,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52458119"/>
+        <c:crossAx val="62954927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1287,7 +1523,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1411,11 +1647,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="72555897"/>
-        <c:axId val="60811836"/>
+        <c:axId val="87582922"/>
+        <c:axId val="53111497"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72555897"/>
+        <c:axId val="87582922"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,14 +1679,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60811836"/>
+        <c:crossAx val="53111497"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60811836"/>
+        <c:axId val="53111497"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1723,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72555897"/>
+        <c:crossAx val="87582922"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1534,7 +1770,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1625,11 +1861,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="9619229"/>
-        <c:axId val="13932766"/>
+        <c:axId val="59645944"/>
+        <c:axId val="34791516"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="9619229"/>
+        <c:axId val="59645944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,14 +1893,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13932766"/>
+        <c:crossAx val="34791516"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13932766"/>
+        <c:axId val="34791516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -1702,7 +1938,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9619229"/>
+        <c:crossAx val="59645944"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1761,9 +1997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>37080</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1772,7 +2008,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9865800" y="2483640"/>
-        <a:ext cx="5757480" cy="3237480"/>
+        <a:ext cx="5756040" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1791,9 +2027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>299880</xdr:colOff>
+      <xdr:colOff>298440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1802,7 +2038,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="118800" y="2572200"/>
-        <a:ext cx="9263160" cy="3239640"/>
+        <a:ext cx="9261720" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1826,9 +2062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
+      <xdr:colOff>154440</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1837,7 +2073,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1714680" y="2696400"/>
-        <a:ext cx="5756400" cy="3239280"/>
+        <a:ext cx="5754960" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1855,10 +2091,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y113"/>
+  <dimension ref="A1:Y136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K118" activeCellId="0" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1874,7 +2110,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="59.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="24" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,10 +2142,10 @@
       <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="0" t="s">
@@ -1920,1558 +2157,1967 @@
       <c r="O1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="W6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="W8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6" t="n">
         <v>20191026</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="G12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="4" t="n">
+      <c r="I12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="7" t="n">
         <v>0.471456</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K12" s="8" t="n">
         <v>0.468144</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L12" s="7" t="n">
         <v>0.17653</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M12" s="7" t="n">
         <v>0.455339</v>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="N12" s="8" t="n">
         <v>0.467721</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O12" s="7" t="n">
         <v>0.177202</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P12" s="7" t="n">
         <v>0.431545</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="Q12" s="8" t="n">
         <v>0.477219</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="R12" s="7" t="n">
         <v>0.17384</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="n">
+      <c r="D14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6" t="n">
         <v>20191026</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="3" t="n">
         <v>256</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="4" t="n">
+      <c r="I14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="7" t="n">
         <v>0.369138</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K14" s="9" t="n">
         <v>0.356734</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L14" s="7" t="n">
         <v>0.129712</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M14" s="7" t="n">
         <v>0.349764</v>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N14" s="7" t="n">
         <v>0.454797</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O14" s="7" t="n">
         <v>0.126829</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P14" s="7" t="n">
         <v>0.336802</v>
       </c>
-      <c r="Q7" s="6" t="n">
+      <c r="Q14" s="9" t="n">
         <v>0.355439</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R14" s="7" t="n">
         <v>0.124834</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="6" t="n">
         <v>20191026</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>256</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0.355355</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <v>0.36044</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>0.126608</v>
+      </c>
+      <c r="M16" s="7" t="n">
+        <v>0.360037</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>0.34525</v>
+      </c>
+      <c r="O16" s="7" t="n">
+        <v>0.124612</v>
+      </c>
+      <c r="P16" s="7" t="n">
+        <v>0.323809</v>
+      </c>
+      <c r="Q16" s="9" t="n">
+        <v>0.346372</v>
+      </c>
+      <c r="R16" s="7" t="n">
+        <v>0.126608</v>
+      </c>
+      <c r="S16" s="11" t="n">
+        <f aca="false">Q16/V16</f>
+        <v>0.776444743331092</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" s="12" t="n">
+        <v>0.4461</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>20191026</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="3" t="n">
         <v>256</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.355355</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0.36044</v>
-      </c>
-      <c r="L9" s="4" t="n">
+      <c r="I18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>0.464205</v>
+      </c>
+      <c r="K18" s="13" t="n">
+        <v>0.468446</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>0.174849</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>0.436128</v>
+      </c>
+      <c r="N18" s="13" t="n">
+        <v>0.464846</v>
+      </c>
+      <c r="O18" s="7" t="n">
+        <v>0.17653</v>
+      </c>
+      <c r="P18" s="7" t="n">
+        <v>0.413014</v>
+      </c>
+      <c r="Q18" s="14" t="n">
+        <v>0.517945</v>
+      </c>
+      <c r="R18" s="7" t="n">
+        <v>0.169805</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>20191026</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>0.452009</v>
+      </c>
+      <c r="K20" s="15" t="n">
+        <v>0.417441</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <v>0.149667</v>
+      </c>
+      <c r="M20" s="12" t="n">
+        <v>0.415357</v>
+      </c>
+      <c r="N20" s="16" t="n">
+        <v>1.585722</v>
+      </c>
+      <c r="O20" s="12" t="n">
+        <v>0.146563</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="12" t="n">
+        <v>0.370847</v>
+      </c>
+      <c r="K22" s="12" t="n">
+        <v>0.362523</v>
+      </c>
+      <c r="L22" s="12" t="n">
+        <v>0.134812</v>
+      </c>
+      <c r="M22" s="12" t="n">
+        <v>0.288427</v>
+      </c>
+      <c r="N22" s="12" t="n">
+        <v>0.346542</v>
+      </c>
+      <c r="O22" s="12" t="n">
+        <v>0.124834</v>
+      </c>
+      <c r="P22" s="12" t="n">
+        <v>0.211938</v>
+      </c>
+      <c r="Q22" s="12" t="n">
+        <v>0.356956</v>
+      </c>
+      <c r="R22" s="12" t="n">
+        <v>0.131707</v>
+      </c>
+      <c r="U22" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="V22" s="12" t="n">
+        <v>0.4849</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y22" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="12" t="n">
+        <v>20191102</v>
+      </c>
+      <c r="P24" s="12" t="n">
+        <v>0.537694</v>
+      </c>
+      <c r="Q24" s="12" t="n">
+        <v>0.389713</v>
+      </c>
+      <c r="R24" s="12" t="n">
+        <v>0.129047</v>
+      </c>
+      <c r="S24" s="18" t="n">
+        <f aca="false">Q24/V24</f>
+        <v>0.74729242569511</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V24" s="12" t="n">
+        <v>0.5215</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>20191102</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="12" t="n">
+        <v>20191102</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="12" t="n">
+        <v>0.132052</v>
+      </c>
+      <c r="Q28" s="12" t="n">
+        <v>0.364307</v>
+      </c>
+      <c r="R28" s="12" t="n">
         <v>0.126608</v>
       </c>
-      <c r="M9" s="4" t="n">
-        <v>0.360037</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>0.34525</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.124612</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.323809</v>
-      </c>
-      <c r="Q9" s="6" t="n">
-        <v>0.346372</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.126608</v>
-      </c>
-      <c r="S9" s="8" t="n">
-        <f aca="false">Q9/V9</f>
-        <v>0.776444743331092</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" s="9" t="n">
-        <v>0.4461</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>20191026</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>256</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0.464205</v>
-      </c>
-      <c r="K11" s="10" t="n">
-        <v>0.468446</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>0.174849</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>0.436128</v>
-      </c>
-      <c r="N11" s="10" t="n">
-        <v>0.464846</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>0.17653</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>0.413014</v>
-      </c>
-      <c r="Q11" s="11" t="n">
-        <v>0.517945</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.169805</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>20191026</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>0.452009</v>
-      </c>
-      <c r="K13" s="12" t="n">
-        <v>0.417441</v>
-      </c>
-      <c r="L13" s="4" t="n">
-        <v>0.149667</v>
-      </c>
-      <c r="M13" s="9" t="n">
-        <v>0.415357</v>
-      </c>
-      <c r="N13" s="13" t="n">
-        <v>1.585722</v>
-      </c>
-      <c r="O13" s="9" t="n">
-        <v>0.146563</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="9" t="n">
-        <v>0.370847</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>0.362523</v>
-      </c>
-      <c r="L15" s="9" t="n">
-        <v>0.134812</v>
-      </c>
-      <c r="M15" s="9" t="n">
-        <v>0.288427</v>
-      </c>
-      <c r="N15" s="9" t="n">
-        <v>0.346542</v>
-      </c>
-      <c r="O15" s="9" t="n">
-        <v>0.124834</v>
-      </c>
-      <c r="P15" s="9" t="n">
-        <v>0.211938</v>
-      </c>
-      <c r="Q15" s="9" t="n">
-        <v>0.356956</v>
-      </c>
-      <c r="R15" s="9" t="n">
-        <v>0.131707</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="V15" s="9" t="n">
-        <v>0.4849</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>20191102</v>
-      </c>
-      <c r="P17" s="9" t="n">
-        <v>0.537694</v>
-      </c>
-      <c r="Q17" s="9" t="n">
-        <v>0.389713</v>
-      </c>
-      <c r="R17" s="9" t="n">
-        <v>0.129047</v>
-      </c>
-      <c r="S17" s="15" t="n">
-        <f aca="false">Q17/V17</f>
-        <v>0.74729242569511</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V17" s="9" t="n">
-        <v>0.5215</v>
-      </c>
-      <c r="W17" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>20191102</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="9" t="n">
-        <v>20191102</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" s="9" t="n">
-        <v>0.132052</v>
-      </c>
-      <c r="Q21" s="9" t="n">
-        <v>0.364307</v>
-      </c>
-      <c r="R21" s="9" t="n">
-        <v>0.126608</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <f aca="false">Q21/V21</f>
+      <c r="S28" s="0" t="n">
+        <f aca="false">Q28/V28</f>
         <v>0.730366880513232</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="V21" s="9" t="n">
+      <c r="V28" s="12" t="n">
         <v>0.4988</v>
       </c>
-      <c r="W21" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="W23" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="9" t="n">
+      <c r="W28" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="W30" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="12" t="n">
         <v>0.460921</v>
       </c>
-      <c r="K27" s="17" t="n">
+      <c r="K34" s="19" t="n">
         <v>0.493934</v>
       </c>
-      <c r="L27" s="9" t="n">
+      <c r="L34" s="12" t="n">
         <v>0.184936</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="U34" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V34" s="0" t="n">
         <v>0.4687</v>
       </c>
-      <c r="W27" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="W29" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="V31" s="9" t="n">
-        <v>0.4521</v>
-      </c>
-      <c r="W31" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="V33" s="18" t="s">
+      <c r="W34" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="W33" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V34" s="19"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="W36" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="W35" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="V37" s="0" t="n">
-        <v>0.5374</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="V38" s="0" t="n">
-        <v>0.5266</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="V39" s="15" t="n">
-        <v>0.4535</v>
-      </c>
-      <c r="W39" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="V38" s="12" t="n">
+        <v>0.4521</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="V40" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V41" s="21"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="W40" s="0" t="s">
+      <c r="W42" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="X40" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="P43" s="9" t="n">
-        <v>0.473367</v>
-      </c>
-      <c r="Q43" s="9" t="n">
-        <v>0.488676</v>
-      </c>
-      <c r="R43" s="9" t="n">
-        <v>0.176866</v>
-      </c>
-      <c r="V43" s="9" t="n">
-        <v>0.4629</v>
-      </c>
-      <c r="W43" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="X43" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0.5374</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>0.5266</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="V46" s="18" t="n">
+        <v>0.4535</v>
+      </c>
+      <c r="W46" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="W47" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="J44" s="9" t="n">
-        <v>0.518463</v>
-      </c>
-      <c r="K44" s="9" t="n">
-        <v>0.543399</v>
-      </c>
-      <c r="L44" s="9" t="n">
-        <v>0.201076</v>
-      </c>
-      <c r="M44" s="9" t="n">
-        <v>0.351982</v>
-      </c>
-      <c r="N44" s="9" t="n">
-        <v>0.506825</v>
-      </c>
-      <c r="O44" s="9" t="n">
-        <v>0.178211</v>
-      </c>
-      <c r="V44" s="9" t="n">
-        <v>0.5733</v>
-      </c>
-      <c r="W44" s="20" t="s">
+      <c r="X47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="X44" s="0" t="s">
+    </row>
+    <row r="48" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="M45" s="9" t="n">
-        <v>0.427257</v>
-      </c>
-      <c r="N45" s="9" t="n">
-        <v>0.50657</v>
-      </c>
-      <c r="O45" s="9" t="n">
-        <v>0.17384</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="W45" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="2"/>
-      <c r="W46" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="P50" s="12" t="n">
+        <v>0.473367</v>
+      </c>
+      <c r="Q50" s="12" t="n">
+        <v>0.488676</v>
+      </c>
+      <c r="R50" s="12" t="n">
+        <v>0.176866</v>
+      </c>
+      <c r="V50" s="12" t="n">
+        <v>0.4629</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" s="12" t="n">
+        <v>0.518463</v>
+      </c>
+      <c r="K51" s="12" t="n">
+        <v>0.543399</v>
+      </c>
+      <c r="L51" s="12" t="n">
+        <v>0.201076</v>
+      </c>
+      <c r="M51" s="12" t="n">
+        <v>0.351982</v>
+      </c>
+      <c r="N51" s="12" t="n">
+        <v>0.506825</v>
+      </c>
+      <c r="O51" s="12" t="n">
+        <v>0.178211</v>
+      </c>
+      <c r="V51" s="12" t="n">
+        <v>0.5733</v>
+      </c>
+      <c r="W51" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="0" t="s">
+      <c r="X51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="0" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="3" t="n">
-        <v>20191027</v>
-      </c>
-      <c r="G50" s="9" t="s">
+      <c r="M52" s="12" t="n">
+        <v>0.427257</v>
+      </c>
+      <c r="N52" s="12" t="n">
+        <v>0.50657</v>
+      </c>
+      <c r="O52" s="12" t="n">
+        <v>0.17384</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="W52" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J50" s="9" t="n">
-        <v>0.371694</v>
-      </c>
-      <c r="K50" s="23" t="n">
-        <v>0.366708</v>
-      </c>
-      <c r="L50" s="9" t="n">
-        <v>0.129712</v>
-      </c>
-      <c r="M50" s="9" t="n">
-        <v>0.351872</v>
-      </c>
-      <c r="N50" s="24" t="n">
-        <v>0.355532</v>
-      </c>
-      <c r="O50" s="9" t="n">
-        <v>0.127273</v>
-      </c>
-      <c r="U50" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="V50" s="9" t="n">
-        <v>0.4916</v>
-      </c>
-      <c r="W50" s="2" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="3"/>
+      <c r="W53" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F55" s="3" t="n">
-        <v>20191028</v>
-      </c>
-      <c r="G55" s="0" t="s">
+      <c r="C55" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="H55" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="J55" s="9" t="n">
-        <v>0.322902</v>
-      </c>
-      <c r="K55" s="25" t="n">
-        <v>0.375154</v>
-      </c>
-      <c r="L55" s="9" t="n">
-        <v>0.144468</v>
-      </c>
-      <c r="M55" s="9" t="n">
-        <v>0.299865</v>
-      </c>
-      <c r="N55" s="26" t="n">
-        <v>0.334215</v>
-      </c>
-      <c r="O55" s="9" t="n">
-        <v>0.128337</v>
-      </c>
-      <c r="P55" s="9" t="n">
-        <v>0.265335</v>
-      </c>
-      <c r="Q55" s="9" t="n">
-        <v>0.325966</v>
-      </c>
-      <c r="R55" s="9" t="n">
-        <v>0.124625</v>
-      </c>
-      <c r="S55" s="0" t="n">
-        <f aca="false">Q55/V55</f>
-        <v>0.666597137014315</v>
-      </c>
-      <c r="T55" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="U55" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V55" s="9" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="W55" s="27" t="s">
+      <c r="J55" s="12" t="n">
+        <v>0.431824</v>
+      </c>
+      <c r="K55" s="12" t="n">
+        <v>0.450489</v>
+      </c>
+      <c r="L55" s="12" t="n">
+        <v>0.169622</v>
+      </c>
+      <c r="M55" s="12" t="n">
+        <v>0.384013</v>
+      </c>
+      <c r="N55" s="12" t="n">
+        <v>0.423337</v>
+      </c>
+      <c r="O55" s="12" t="n">
+        <v>0.160422</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="W55" s="5" t="s">
         <v>104</v>
       </c>
     </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J56" s="12" t="n">
+        <v>0.440999</v>
+      </c>
+      <c r="K56" s="12" t="n">
+        <v>0.448861</v>
+      </c>
+      <c r="L56" s="12" t="n">
+        <v>0.166945</v>
+      </c>
+      <c r="W56" s="5"/>
+    </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>105</v>
+      <c r="C57" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J57" s="12" t="n">
+        <v>0.395575</v>
+      </c>
+      <c r="K57" s="12" t="n">
+        <v>0.427562</v>
+      </c>
+      <c r="L57" s="12" t="n">
+        <v>0.161258</v>
+      </c>
+      <c r="W57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J58" s="12" t="n">
+        <v>0.404909</v>
+      </c>
+      <c r="K58" s="12" t="n">
+        <v>0.426448</v>
+      </c>
+      <c r="L58" s="12" t="n">
+        <v>0.159083</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F59" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="J59" s="12" t="n">
+        <v>0.4384</v>
+      </c>
+      <c r="K59" s="12" t="n">
+        <v>0.49999</v>
+      </c>
+      <c r="L59" s="12" t="n">
+        <v>0.191368</v>
+      </c>
+      <c r="W59" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="J60" s="12" t="n">
+        <v>0.658679</v>
+      </c>
+      <c r="K60" s="12" t="n">
+        <v>0.468334</v>
+      </c>
+      <c r="L60" s="12" t="n">
+        <v>0.175142</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J61" s="12" t="n">
+        <v>0.640168</v>
+      </c>
+      <c r="K61" s="12" t="n">
+        <v>0.450377</v>
+      </c>
+      <c r="L61" s="12" t="n">
+        <v>0.164436</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="J62" s="12" t="n">
+        <v>0.182851</v>
+      </c>
+      <c r="K62" s="12" t="n">
+        <v>0.487281</v>
+      </c>
+      <c r="L62" s="12" t="n">
+        <v>0.18267</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>20191027</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" s="12" t="n">
+        <v>0.371694</v>
+      </c>
+      <c r="K66" s="24" t="n">
+        <v>0.366708</v>
+      </c>
+      <c r="L66" s="12" t="n">
+        <v>0.129712</v>
+      </c>
+      <c r="M66" s="12" t="n">
+        <v>0.351872</v>
+      </c>
+      <c r="N66" s="25" t="n">
+        <v>0.355532</v>
+      </c>
+      <c r="O66" s="12" t="n">
+        <v>0.127273</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="V66" s="12" t="n">
+        <v>0.4916</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="6" t="n">
         <v>20191028</v>
       </c>
-      <c r="J59" s="9" t="n">
-        <v>0.388993</v>
-      </c>
-      <c r="K59" s="24" t="n">
-        <v>0.369708</v>
-      </c>
-      <c r="L59" s="9" t="n">
-        <v>0.128825</v>
-      </c>
-      <c r="M59" s="9" t="n">
-        <v>0.358222</v>
-      </c>
-      <c r="N59" s="24" t="n">
-        <v>0.356647</v>
-      </c>
-      <c r="O59" s="9" t="n">
-        <v>0.127494</v>
-      </c>
-      <c r="P59" s="9" t="n">
-        <v>0.333846</v>
-      </c>
-      <c r="Q59" s="24" t="n">
-        <v>0.354364</v>
-      </c>
-      <c r="R59" s="9" t="n">
-        <v>0.127273</v>
-      </c>
-      <c r="S59" s="8" t="n">
-        <f aca="false">Q59/V59</f>
-        <v>0.782087839329066</v>
-      </c>
-      <c r="T59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="U59" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="V59" s="9" t="n">
-        <v>0.4531</v>
-      </c>
-      <c r="W59" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" s="3" t="n">
-        <v>20191028</v>
-      </c>
-      <c r="J63" s="9" t="n">
-        <v>0.342703</v>
-      </c>
-      <c r="K63" s="24" t="n">
-        <v>0.376731</v>
-      </c>
-      <c r="L63" s="9" t="n">
-        <v>0.146181</v>
-      </c>
-      <c r="M63" s="9" t="n">
-        <v>0.185744</v>
-      </c>
-      <c r="N63" s="24" t="n">
-        <v>0.26551</v>
-      </c>
-      <c r="O63" s="9" t="n">
-        <v>0.098929</v>
-      </c>
-      <c r="P63" s="9" t="n">
-        <v>0.111736</v>
-      </c>
-      <c r="Q63" s="24" t="n">
-        <v>0.234004</v>
-      </c>
-      <c r="R63" s="9" t="n">
-        <v>0.084511</v>
-      </c>
-      <c r="S63" s="0" t="n">
-        <f aca="false">Q63/V63</f>
-        <v>0.421097714594205</v>
-      </c>
-      <c r="T63" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="U63" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="V63" s="9" t="n">
-        <v>0.5557</v>
-      </c>
-      <c r="W63" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="X63" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="J65" s="9" t="n">
-        <v>0.294119</v>
-      </c>
-      <c r="K65" s="25" t="n">
-        <v>0.393724</v>
-      </c>
-      <c r="L65" s="9" t="n">
-        <v>0.14922</v>
-      </c>
-      <c r="M65" s="9" t="n">
-        <v>0.294119</v>
-      </c>
-      <c r="N65" s="25" t="n">
-        <v>0.393724</v>
-      </c>
-      <c r="O65" s="9" t="n">
-        <v>0.14922</v>
-      </c>
-      <c r="P65" s="9" t="n">
-        <v>0.18846</v>
-      </c>
-      <c r="Q65" s="25" t="n">
-        <v>0.378332</v>
-      </c>
-      <c r="R65" s="9" t="n">
-        <v>0.13538</v>
-      </c>
-      <c r="V65" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="W65" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="J67" s="9" t="n">
-        <v>0.382297</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>0.37999</v>
-      </c>
-      <c r="L67" s="9" t="n">
-        <v>0.142206</v>
-      </c>
-      <c r="M67" s="9" t="n">
-        <v>0.257935</v>
-      </c>
-      <c r="N67" s="9" t="n">
-        <v>0.320515</v>
-      </c>
-      <c r="O67" s="9" t="n">
-        <v>0.119599</v>
-      </c>
-      <c r="P67" s="9" t="n">
-        <v>0.174454</v>
-      </c>
-      <c r="Q67" s="24" t="n">
-        <v>0.300714</v>
-      </c>
-      <c r="R67" s="9" t="n">
-        <v>0.109389</v>
-      </c>
-      <c r="V67" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="W67" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="J69" s="9" t="n">
-        <v>0.389024</v>
-      </c>
-      <c r="K69" s="24" t="n">
-        <v>0.363357</v>
-      </c>
-      <c r="L69" s="9" t="n">
-        <v>0.136881</v>
-      </c>
-      <c r="M69" s="9" t="n">
-        <v>0.2268</v>
-      </c>
-      <c r="N69" s="26" t="n">
-        <v>0.282939</v>
-      </c>
-      <c r="O69" s="9" t="n">
-        <v>0.100741</v>
-      </c>
-      <c r="P69" s="9" t="n">
-        <v>0.123446</v>
-      </c>
-      <c r="Q69" s="26" t="n">
-        <v>0.240285</v>
-      </c>
-      <c r="R69" s="9" t="n">
-        <v>0.080884</v>
-      </c>
-      <c r="S69" s="0" t="n">
-        <f aca="false">Q69/V69</f>
-        <v>0.445302075611564</v>
-      </c>
-      <c r="U69" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V69" s="29" t="n">
-        <v>0.5396</v>
-      </c>
-      <c r="W69" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="X69" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="J71" s="9" t="n">
-        <v>0.366225</v>
-      </c>
-      <c r="K71" s="30" t="n">
-        <v>0.399947</v>
-      </c>
-      <c r="L71" s="9" t="n">
-        <v>0.144707</v>
-      </c>
-      <c r="M71" s="9" t="n">
-        <v>0.232135</v>
-      </c>
-      <c r="N71" s="24" t="n">
-        <v>0.335551</v>
-      </c>
-      <c r="O71" s="9" t="n">
-        <v>0.119383</v>
-      </c>
-      <c r="P71" s="9" t="n">
-        <v>0.144385</v>
-      </c>
-      <c r="Q71" s="24" t="n">
-        <v>0.335953</v>
-      </c>
-      <c r="R71" s="9" t="n">
-        <v>0.112338</v>
+      <c r="G71" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="J71" s="12" t="n">
+        <v>0.322902</v>
+      </c>
+      <c r="K71" s="26" t="n">
+        <v>0.375154</v>
+      </c>
+      <c r="L71" s="12" t="n">
+        <v>0.144468</v>
+      </c>
+      <c r="M71" s="12" t="n">
+        <v>0.299865</v>
+      </c>
+      <c r="N71" s="27" t="n">
+        <v>0.334215</v>
+      </c>
+      <c r="O71" s="12" t="n">
+        <v>0.128337</v>
+      </c>
+      <c r="P71" s="12" t="n">
+        <v>0.265335</v>
+      </c>
+      <c r="Q71" s="12" t="n">
+        <v>0.325966</v>
+      </c>
+      <c r="R71" s="12" t="n">
+        <v>0.124625</v>
       </c>
       <c r="S71" s="0" t="n">
         <f aca="false">Q71/V71</f>
-        <v>0.72123872906827</v>
+        <v>0.666597137014315</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="U71" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="V71" s="9" t="n">
-        <v>0.4658</v>
-      </c>
-      <c r="W71" s="0" t="s">
-        <v>121</v>
+        <v>5</v>
+      </c>
+      <c r="V71" s="12" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="W71" s="28" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="J73" s="9" t="n">
-        <v>0.406997</v>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>0.413022</v>
-      </c>
-      <c r="L73" s="9" t="n">
-        <v>0.150288</v>
-      </c>
-      <c r="P73" s="9" t="n">
-        <v>0.17971</v>
-      </c>
-      <c r="Q73" s="9" t="n">
-        <v>0.359421</v>
-      </c>
-      <c r="R73" s="9" t="n">
-        <v>0.120326</v>
-      </c>
-      <c r="S73" s="0" t="n">
-        <f aca="false">Q73/V73</f>
-        <v>0.772284056725397</v>
-      </c>
-      <c r="U73" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="V73" s="9" t="n">
-        <v>0.4654</v>
-      </c>
-      <c r="W73" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>124</v>
+      <c r="A73" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="6" t="n">
+        <v>20191028</v>
+      </c>
+      <c r="J75" s="12" t="n">
+        <v>0.388993</v>
+      </c>
+      <c r="K75" s="25" t="n">
+        <v>0.369708</v>
+      </c>
+      <c r="L75" s="12" t="n">
+        <v>0.128825</v>
+      </c>
+      <c r="M75" s="12" t="n">
+        <v>0.358222</v>
+      </c>
+      <c r="N75" s="25" t="n">
+        <v>0.356647</v>
+      </c>
+      <c r="O75" s="12" t="n">
+        <v>0.127494</v>
+      </c>
+      <c r="P75" s="12" t="n">
+        <v>0.333846</v>
+      </c>
+      <c r="Q75" s="25" t="n">
+        <v>0.354364</v>
+      </c>
+      <c r="R75" s="12" t="n">
+        <v>0.127273</v>
+      </c>
+      <c r="S75" s="11" t="n">
+        <f aca="false">Q75/V75</f>
+        <v>0.782087839329066</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" s="12" t="n">
+        <v>0.4531</v>
+      </c>
+      <c r="W75" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="J79" s="9" t="n">
-        <v>0.570309</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>0.506601</v>
-      </c>
-      <c r="L79" s="9" t="n">
-        <v>0.174945</v>
-      </c>
-      <c r="M79" s="9" t="n">
-        <v>0.497265</v>
-      </c>
-      <c r="N79" s="9" t="n">
-        <v>0.492078</v>
-      </c>
-      <c r="O79" s="9" t="n">
-        <v>0.172062</v>
-      </c>
-      <c r="P79" s="9" t="n">
-        <v>0.517553</v>
-      </c>
-      <c r="Q79" s="9" t="n">
-        <v>0.489173</v>
-      </c>
-      <c r="R79" s="9" t="n">
-        <v>0.173171</v>
+        <v>134</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="6" t="n">
+        <v>20191028</v>
+      </c>
+      <c r="J79" s="12" t="n">
+        <v>0.342703</v>
+      </c>
+      <c r="K79" s="25" t="n">
+        <v>0.376731</v>
+      </c>
+      <c r="L79" s="12" t="n">
+        <v>0.146181</v>
+      </c>
+      <c r="M79" s="12" t="n">
+        <v>0.185744</v>
+      </c>
+      <c r="N79" s="25" t="n">
+        <v>0.26551</v>
+      </c>
+      <c r="O79" s="12" t="n">
+        <v>0.098929</v>
+      </c>
+      <c r="P79" s="12" t="n">
+        <v>0.111736</v>
+      </c>
+      <c r="Q79" s="25" t="n">
+        <v>0.234004</v>
+      </c>
+      <c r="R79" s="12" t="n">
+        <v>0.084511</v>
+      </c>
+      <c r="S79" s="0" t="n">
+        <f aca="false">Q79/V79</f>
+        <v>0.421097714594205</v>
+      </c>
+      <c r="T79" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="U79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" s="12" t="n">
+        <v>0.5557</v>
       </c>
       <c r="W79" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V80" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="X79" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="J81" s="9" t="n">
-        <v>0.53527</v>
-      </c>
-      <c r="K81" s="9" t="n">
-        <v>0.624088</v>
-      </c>
-      <c r="L81" s="9" t="n">
-        <v>0.179823</v>
-      </c>
-      <c r="V81" s="2"/>
-      <c r="W81" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V82" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="J81" s="12" t="n">
+        <v>0.294119</v>
+      </c>
+      <c r="K81" s="26" t="n">
+        <v>0.393724</v>
+      </c>
+      <c r="L81" s="12" t="n">
+        <v>0.14922</v>
+      </c>
+      <c r="M81" s="12" t="n">
+        <v>0.294119</v>
+      </c>
+      <c r="N81" s="26" t="n">
+        <v>0.393724</v>
+      </c>
+      <c r="O81" s="12" t="n">
+        <v>0.14922</v>
+      </c>
+      <c r="P81" s="12" t="n">
+        <v>0.18846</v>
+      </c>
+      <c r="Q81" s="26" t="n">
+        <v>0.378332</v>
+      </c>
+      <c r="R81" s="12" t="n">
+        <v>0.13538</v>
+      </c>
+      <c r="V81" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="W81" s="0" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="J83" s="9" t="n">
-        <v>0.509545</v>
-      </c>
-      <c r="K83" s="9" t="n">
-        <v>0.504833</v>
-      </c>
-      <c r="L83" s="9" t="n">
-        <v>0.173614</v>
-      </c>
-      <c r="M83" s="9" t="n">
-        <v>0.334369</v>
-      </c>
-      <c r="N83" s="9" t="n">
-        <v>0.414619</v>
-      </c>
-      <c r="O83" s="9" t="n">
-        <v>0.142572</v>
-      </c>
-      <c r="P83" s="9" t="n">
-        <v>0.260693</v>
-      </c>
-      <c r="Q83" s="32" t="n">
-        <v>0.42473</v>
-      </c>
-      <c r="R83" s="9" t="n">
-        <v>0.137916</v>
-      </c>
-      <c r="S83" s="15" t="n">
-        <f aca="false">Q83/V83</f>
-        <v>0.766245715316616</v>
-      </c>
-      <c r="T83" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="U83" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V83" s="9" t="n">
-        <v>0.5543</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V84" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="J83" s="12" t="n">
+        <v>0.382297</v>
+      </c>
+      <c r="K83" s="12" t="n">
+        <v>0.37999</v>
+      </c>
+      <c r="L83" s="12" t="n">
+        <v>0.142206</v>
+      </c>
+      <c r="M83" s="12" t="n">
+        <v>0.257935</v>
+      </c>
+      <c r="N83" s="12" t="n">
+        <v>0.320515</v>
+      </c>
+      <c r="O83" s="12" t="n">
+        <v>0.119599</v>
+      </c>
+      <c r="P83" s="12" t="n">
+        <v>0.174454</v>
+      </c>
+      <c r="Q83" s="25" t="n">
+        <v>0.300714</v>
+      </c>
+      <c r="R83" s="12" t="n">
+        <v>0.109389</v>
+      </c>
+      <c r="V83" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="W83" s="0" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="V85" s="2"/>
-      <c r="W85" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V86" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="J85" s="12" t="n">
+        <v>0.389024</v>
+      </c>
+      <c r="K85" s="25" t="n">
+        <v>0.363357</v>
+      </c>
+      <c r="L85" s="12" t="n">
+        <v>0.136881</v>
+      </c>
+      <c r="M85" s="12" t="n">
+        <v>0.2268</v>
+      </c>
+      <c r="N85" s="27" t="n">
+        <v>0.282939</v>
+      </c>
+      <c r="O85" s="12" t="n">
+        <v>0.100741</v>
+      </c>
+      <c r="P85" s="12" t="n">
+        <v>0.123446</v>
+      </c>
+      <c r="Q85" s="27" t="n">
+        <v>0.240285</v>
+      </c>
+      <c r="R85" s="12" t="n">
+        <v>0.080884</v>
+      </c>
+      <c r="S85" s="0" t="n">
+        <f aca="false">Q85/V85</f>
+        <v>0.445302075611564</v>
+      </c>
+      <c r="U85" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V85" s="29" t="n">
+        <v>0.5396</v>
+      </c>
+      <c r="W85" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="X85" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="J87" s="9" t="n">
-        <v>0.546447</v>
-      </c>
-      <c r="K87" s="9" t="n">
-        <v>0.549731</v>
-      </c>
-      <c r="L87" s="9" t="n">
-        <v>0.196452</v>
-      </c>
-      <c r="M87" s="9" t="n">
-        <v>0.493894</v>
-      </c>
-      <c r="N87" s="9" t="n">
-        <v>0.51285</v>
-      </c>
-      <c r="O87" s="9" t="n">
-        <v>0.180044</v>
-      </c>
-      <c r="P87" s="9" t="n">
-        <v>0.458191</v>
-      </c>
-      <c r="Q87" s="9" t="n">
-        <v>0.490952</v>
-      </c>
-      <c r="R87" s="9" t="n">
-        <v>0.172949</v>
+        <v>144</v>
+      </c>
+      <c r="J87" s="12" t="n">
+        <v>0.366225</v>
+      </c>
+      <c r="K87" s="30" t="n">
+        <v>0.399947</v>
+      </c>
+      <c r="L87" s="12" t="n">
+        <v>0.144707</v>
+      </c>
+      <c r="M87" s="12" t="n">
+        <v>0.232135</v>
+      </c>
+      <c r="N87" s="25" t="n">
+        <v>0.335551</v>
+      </c>
+      <c r="O87" s="12" t="n">
+        <v>0.119383</v>
+      </c>
+      <c r="P87" s="12" t="n">
+        <v>0.144385</v>
+      </c>
+      <c r="Q87" s="25" t="n">
+        <v>0.335953</v>
+      </c>
+      <c r="R87" s="12" t="n">
+        <v>0.112338</v>
+      </c>
+      <c r="S87" s="0" t="n">
+        <f aca="false">Q87/V87</f>
+        <v>0.72123872906827</v>
+      </c>
+      <c r="U87" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="V87" s="12" t="n">
+        <v>0.4658</v>
       </c>
       <c r="W87" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="J89" s="9" t="n">
-        <v>0.525183</v>
-      </c>
-      <c r="K89" s="9" t="n">
-        <v>0.539951</v>
-      </c>
-      <c r="L89" s="9" t="n">
-        <v>0.197561</v>
-      </c>
-      <c r="M89" s="9" t="n">
-        <v>0.46354</v>
-      </c>
-      <c r="N89" s="9" t="n">
-        <v>0.48907</v>
-      </c>
-      <c r="O89" s="9" t="n">
-        <v>0.171397</v>
-      </c>
-      <c r="P89" s="9" t="n">
-        <v>0.334369</v>
-      </c>
-      <c r="Q89" s="32" t="n">
-        <v>0.414619</v>
-      </c>
-      <c r="R89" s="9" t="n">
-        <v>0.142572</v>
+        <v>146</v>
+      </c>
+      <c r="J89" s="12" t="n">
+        <v>0.406997</v>
+      </c>
+      <c r="K89" s="12" t="n">
+        <v>0.413022</v>
+      </c>
+      <c r="L89" s="12" t="n">
+        <v>0.150288</v>
+      </c>
+      <c r="P89" s="12" t="n">
+        <v>0.17971</v>
+      </c>
+      <c r="Q89" s="12" t="n">
+        <v>0.359421</v>
+      </c>
+      <c r="R89" s="12" t="n">
+        <v>0.120326</v>
       </c>
       <c r="S89" s="0" t="n">
         <f aca="false">Q89/V89</f>
-        <v>0.656874207858048</v>
-      </c>
-      <c r="T89" s="0" t="n">
-        <v>9</v>
+        <v>0.772284056725397</v>
       </c>
       <c r="U89" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="V89" s="9" t="n">
-        <v>0.6312</v>
+        <v>19</v>
+      </c>
+      <c r="V89" s="12" t="n">
+        <v>0.4654</v>
       </c>
       <c r="W89" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F91" s="3" t="n">
-        <v>20191030</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="J91" s="9" t="n">
-        <v>0.394624</v>
-      </c>
-      <c r="K91" s="9" t="n">
-        <v>0.390665</v>
-      </c>
-      <c r="L91" s="9" t="n">
-        <v>0.13969</v>
-      </c>
-      <c r="M91" s="9" t="n">
-        <v>0.356773</v>
-      </c>
-      <c r="N91" s="9" t="n">
-        <v>0.377995</v>
-      </c>
-      <c r="O91" s="9" t="n">
-        <v>0.136364</v>
-      </c>
-      <c r="P91" s="9" t="n">
-        <v>0.301481</v>
-      </c>
-      <c r="Q91" s="24" t="n">
-        <v>0.383617</v>
-      </c>
-      <c r="R91" s="9" t="n">
-        <v>0.136364</v>
-      </c>
-      <c r="S91" s="8" t="n">
-        <f aca="false">Q91/V91</f>
-        <v>0.775453810390135</v>
-      </c>
-      <c r="T91" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="U91" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="V91" s="9" t="n">
-        <v>0.4947</v>
-      </c>
-      <c r="W91" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="J93" s="9" t="n">
-        <v>0.155699</v>
-      </c>
-      <c r="K93" s="9" t="n">
-        <v>0.429368</v>
-      </c>
-      <c r="L93" s="9" t="n">
-        <v>0.146785</v>
-      </c>
-      <c r="M93" s="9" t="n">
-        <v>0.14578</v>
-      </c>
-      <c r="N93" s="9" t="n">
-        <v>0.405742</v>
-      </c>
-      <c r="O93" s="9" t="n">
-        <v>0.136585</v>
-      </c>
-      <c r="P93" s="9" t="n">
-        <v>0.139775</v>
-      </c>
-      <c r="Q93" s="9" t="n">
-        <v>0.396125</v>
-      </c>
-      <c r="R93" s="9" t="n">
-        <v>0.133703</v>
-      </c>
-      <c r="U93" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="V93" s="9" t="n">
-        <v>0.5043</v>
-      </c>
-      <c r="W93" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="W95" s="33" t="s">
-        <v>147</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J95" s="12" t="n">
+        <v>0.570309</v>
+      </c>
+      <c r="K95" s="12" t="n">
+        <v>0.506601</v>
+      </c>
+      <c r="L95" s="12" t="n">
+        <v>0.174945</v>
+      </c>
+      <c r="M95" s="12" t="n">
+        <v>0.497265</v>
+      </c>
+      <c r="N95" s="12" t="n">
+        <v>0.492078</v>
+      </c>
+      <c r="O95" s="12" t="n">
+        <v>0.172062</v>
+      </c>
+      <c r="P95" s="12" t="n">
+        <v>0.517553</v>
+      </c>
+      <c r="Q95" s="12" t="n">
+        <v>0.489173</v>
+      </c>
+      <c r="R95" s="12" t="n">
+        <v>0.173171</v>
+      </c>
+      <c r="W95" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="W97" s="0" t="s">
-        <v>149</v>
-      </c>
+      <c r="B97" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="J97" s="12" t="n">
+        <v>0.53527</v>
+      </c>
+      <c r="K97" s="12" t="n">
+        <v>0.624088</v>
+      </c>
+      <c r="L97" s="12" t="n">
+        <v>0.179823</v>
+      </c>
+      <c r="V97" s="3"/>
+      <c r="W97" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="W99" s="0" t="s">
-        <v>151</v>
-      </c>
+      <c r="B99" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="J99" s="12" t="n">
+        <v>0.509545</v>
+      </c>
+      <c r="K99" s="12" t="n">
+        <v>0.504833</v>
+      </c>
+      <c r="L99" s="12" t="n">
+        <v>0.173614</v>
+      </c>
+      <c r="M99" s="12" t="n">
+        <v>0.334369</v>
+      </c>
+      <c r="N99" s="12" t="n">
+        <v>0.414619</v>
+      </c>
+      <c r="O99" s="12" t="n">
+        <v>0.142572</v>
+      </c>
+      <c r="P99" s="12" t="n">
+        <v>0.260693</v>
+      </c>
+      <c r="Q99" s="32" t="n">
+        <v>0.42473</v>
+      </c>
+      <c r="R99" s="12" t="n">
+        <v>0.137916</v>
+      </c>
+      <c r="S99" s="18" t="n">
+        <f aca="false">Q99/V99</f>
+        <v>0.766245715316616</v>
+      </c>
+      <c r="T99" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U99" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V99" s="12" t="n">
+        <v>0.5543</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="B101" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="V101" s="3"/>
+      <c r="W101" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U104" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="V104" s="34" t="n">
-        <v>0.4306</v>
-      </c>
-      <c r="W104" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="J103" s="12" t="n">
+        <v>0.546447</v>
+      </c>
+      <c r="K103" s="12" t="n">
+        <v>0.549731</v>
+      </c>
+      <c r="L103" s="12" t="n">
+        <v>0.196452</v>
+      </c>
+      <c r="M103" s="12" t="n">
+        <v>0.493894</v>
+      </c>
+      <c r="N103" s="12" t="n">
+        <v>0.51285</v>
+      </c>
+      <c r="O103" s="12" t="n">
+        <v>0.180044</v>
+      </c>
+      <c r="P103" s="12" t="n">
+        <v>0.458191</v>
+      </c>
+      <c r="Q103" s="12" t="n">
+        <v>0.490952</v>
+      </c>
+      <c r="R103" s="12" t="n">
+        <v>0.172949</v>
+      </c>
+      <c r="W103" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="J105" s="12" t="n">
+        <v>0.525183</v>
+      </c>
+      <c r="K105" s="12" t="n">
+        <v>0.539951</v>
+      </c>
+      <c r="L105" s="12" t="n">
+        <v>0.197561</v>
+      </c>
+      <c r="M105" s="12" t="n">
+        <v>0.46354</v>
+      </c>
+      <c r="N105" s="12" t="n">
+        <v>0.48907</v>
+      </c>
+      <c r="O105" s="12" t="n">
+        <v>0.171397</v>
+      </c>
+      <c r="P105" s="12" t="n">
+        <v>0.334369</v>
+      </c>
+      <c r="Q105" s="32" t="n">
+        <v>0.414619</v>
+      </c>
+      <c r="R105" s="12" t="n">
+        <v>0.142572</v>
+      </c>
+      <c r="S105" s="0" t="n">
+        <f aca="false">Q105/V105</f>
+        <v>0.656874207858048</v>
+      </c>
+      <c r="T105" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="U105" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V105" s="12" t="n">
+        <v>0.6312</v>
+      </c>
+      <c r="W105" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>155</v>
+      <c r="B107" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F107" s="6" t="n">
+        <v>20191030</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="J107" s="12" t="n">
+        <v>0.394624</v>
+      </c>
+      <c r="K107" s="12" t="n">
+        <v>0.390665</v>
+      </c>
+      <c r="L107" s="12" t="n">
+        <v>0.13969</v>
+      </c>
+      <c r="M107" s="12" t="n">
+        <v>0.356773</v>
+      </c>
+      <c r="N107" s="12" t="n">
+        <v>0.377995</v>
+      </c>
+      <c r="O107" s="12" t="n">
+        <v>0.136364</v>
+      </c>
+      <c r="P107" s="12" t="n">
+        <v>0.301481</v>
+      </c>
+      <c r="Q107" s="25" t="n">
+        <v>0.383617</v>
+      </c>
+      <c r="R107" s="12" t="n">
+        <v>0.136364</v>
+      </c>
+      <c r="S107" s="11" t="n">
+        <f aca="false">Q107/V107</f>
+        <v>0.775453810390135</v>
+      </c>
+      <c r="T107" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U107" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V107" s="12" t="n">
+        <v>0.4947</v>
+      </c>
+      <c r="W107" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="W109" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+      <c r="J109" s="12" t="n">
+        <v>0.155699</v>
+      </c>
+      <c r="K109" s="12" t="n">
+        <v>0.429368</v>
+      </c>
+      <c r="L109" s="12" t="n">
+        <v>0.146785</v>
+      </c>
+      <c r="M109" s="12" t="n">
+        <v>0.14578</v>
+      </c>
+      <c r="N109" s="12" t="n">
+        <v>0.405742</v>
+      </c>
+      <c r="O109" s="12" t="n">
+        <v>0.136585</v>
+      </c>
+      <c r="P109" s="12" t="n">
+        <v>0.139775</v>
+      </c>
+      <c r="Q109" s="12" t="n">
+        <v>0.396125</v>
+      </c>
+      <c r="R109" s="12" t="n">
+        <v>0.133703</v>
+      </c>
+      <c r="U109" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="V109" s="12" t="n">
+        <v>0.5043</v>
+      </c>
+      <c r="W109" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="5"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="W111" s="33" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
-        <v>158</v>
+      <c r="B113" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P113" s="12" t="n">
+        <v>0.459714</v>
+      </c>
+      <c r="Q113" s="12" t="n">
+        <v>0.487062</v>
+      </c>
+      <c r="R113" s="12" t="n">
+        <v>0.179556</v>
       </c>
       <c r="W113" s="0" t="s">
-        <v>159</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="W115" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U120" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V120" s="35" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="W120" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="W123" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1"/>
+      <c r="B125" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
+      <c r="W125" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="X125" s="5"/>
+      <c r="Y125" s="5"/>
+    </row>
+    <row r="126" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1"/>
+      <c r="B128" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="W136" s="0" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3508,19 +4154,19 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>161</v>
+      <c r="A3" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>11</v>
@@ -3529,212 +4175,212 @@
         <v>0.4306</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>36</v>
+      <c r="A4" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="12" t="n">
         <v>0.4461</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>107</v>
+      <c r="A5" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="12" t="n">
         <v>0.4531</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="n">
+      <c r="A6" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="12" t="n">
         <v>0.4849</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
-        <v>102</v>
+      <c r="A7" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="12" t="n">
         <v>0.489</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
-        <v>142</v>
+      <c r="A8" s="36" t="s">
+        <v>166</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="12" t="n">
         <v>0.4947</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
-        <v>170</v>
+      <c r="A9" s="36" t="s">
+        <v>202</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="12" t="n">
         <v>0.4988</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="12" t="n">
         <v>0.5043</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
-        <v>173</v>
+      <c r="A11" s="37" t="s">
+        <v>205</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="12" t="n">
         <v>0.5215</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
-        <v>175</v>
+      <c r="A12" s="38" t="s">
+        <v>207</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="12" t="n">
         <v>0.5543</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
-        <v>111</v>
+      <c r="A13" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="12" t="n">
         <v>0.5557</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38" t="s">
-        <v>138</v>
+      <c r="A14" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="12" t="n">
         <v>0.6312</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3847,58 +4493,367 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
-        <v>177</v>
+      <c r="B2" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9" t="s">
-        <v>178</v>
+      <c r="B3" s="12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9" t="s">
-        <v>179</v>
+      <c r="B4" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9" t="s">
-        <v>180</v>
+      <c r="B5" s="12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9" t="s">
-        <v>181</v>
+      <c r="B6" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
-        <v>182</v>
+      <c r="B7" s="12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9" t="s">
-        <v>183</v>
+      <c r="B8" s="12" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="s">
-        <v>184</v>
+      <c r="B9" s="12" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
-        <v>185</v>
+      <c r="B10" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="s">
-        <v>186</v>
-      </c>
+      <c r="B11" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:J53"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="91.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="40"/>
+      <c r="C5" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="40"/>
+      <c r="C28" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="41"/>
+      <c r="C33" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="41"/>
+      <c r="C34" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/model_metrics.xlsx
+++ b/model_metrics.xlsx
@@ -24,20 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="284">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
   <si>
+    <t xml:space="preserve">Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODEL_NAME</t>
+  </si>
+  <si>
     <t xml:space="preserve">model</t>
   </si>
   <si>
-    <t xml:space="preserve">MODEL_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NB_NUM</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATE</t>
   </si>
   <si>
@@ -92,6 +92,15 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">data_prep_rasterio_with_infill_02.py</t>
   </si>
   <si>
@@ -104,550 +113,631 @@
     <t xml:space="preserve">QC of polygon distributions</t>
   </si>
   <si>
+    <t xml:space="preserve">using hz rotated polygons, opencv padded images (border reflect 101)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_3_fastai_train_resnet_20191026.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv_reflect_101_verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resnet 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23c3cd52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flip_vert=True, max_rotate=180, max_lighting=0.1, max_zoom=1.05, max_warp=0., xtra_tfms=[cutout(n_holes=(1,4), length=(5, 30), p=.05)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using rotated to hz + OpenCv border, Using only validated training data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_2_fastai_train_resnet_20191026.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv_reflect_101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">909b0f7c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional transforms, All data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_1_fastai_train_resnet_20191026.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1964891c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flip_vert=True, max_lighting=0.1, max_zoom=1.05, max_warp=0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic transforms, all data, fp_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_4_fastai_train_resnet_20191026.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14c12ba1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic transforms, Verified data only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_6_fastai_train_resnet_20191026.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 then 256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr too high, redo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 then 256, 128 stage retrain needs lower lr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_7_fastai_train_resnet_20191030.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resnet 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resnet 101, fp16 otherwise default transforms as 03_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stage-2-rn101-03_7-cv_reflect_101-20191031-5e1dab49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_8_1_fastai_train_resnet_mixup_20191102.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_8_2_fastai_train_resnet_cutmix_20191102.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CutMix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_8_3_fastai_train_resnet_ricap_20191102.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stage-2-rn50-03_8_3-cv_reflect_101_ricap-20191102-a81b6c9e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a81b6c9e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_9_fastai_train_resnet_resize_20191103.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualitative testing of effect of stepping up image sizes, TODO more experiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_10_fastai_train_resnet_swa_20191104.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_11_fastai_train_resnet_valid_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_1 valid only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_11_1_fastai_train_resnet_valid_20191123.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (20% valid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using stlucia concrete as gold verified, predicted unverified and saved to csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (10% valid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 1 but with 10% val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_transforms(flip_vert=True, max_lighting=0.1, max_zoom=1.05, max_warp=0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 2 but with max light 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_transforms(flip_vert=True, max_lighting=0.25, max_zoom=1.05, max_warp=0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 3 with max zoom 1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 3, max zoom 1.2, rand_crop p=0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtra_tfms=[rand_crop(p=0.4)], tfms = get_transforms(flip_vert=True, max_lighting=0.25, max_zoom=1.2, max_warp=0., xtra_tfms=xtra_tfms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 5, with dihedral p=0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtra_tfms=[dihedral(p=0.25), rand_crop(p=0.4)] tfms = get_transforms(flip_vert=True, max_lighting=0.25, max_zoom=1.2, max_warp=0., xtra_tfms=xtra_tfms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_12_fastai_train_resnet_valid_cf_verified_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predicted unverified and saved to csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_13_fastai_train_resnet_radam_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_1 but with radm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_14_fastai_train_resnet_ranger_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: created sub file, submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_1 but with ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_15_fastai_train_resnet_valid_cf_verified_cutoff_20191109.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used predictions on test, invalid, looked at confidence histograms, use high confidence ones as part of trainign set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtra_tfms=[dihedral(p=0.7), rand_crop(p=0.4)], (flip_vert=True, max_lighting=0.2, max_zoom=1.1, max_warp=0., xtra_tfms=xtra_tfms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_11 (valid only), using 4x4 bg padded, wrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generated sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padded bg, 256 then 512 img size, resnet 50, 101, 152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_20_fastai_train_resnet_valid_pad_refl_20191118.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_11 (valid only), using 4x4 bg padded, reflect, 256 then 512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rn101-03_21-cv_reflect_101_valid-20191118-7607ef2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_20 but resnet101, extra tfms (with 256 then 512)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generated sub on 2 (not 2-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_22_fastai_train_resnet152_valid_pad_refl_20191118.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_20 but resnet152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padded bg, resnet50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO – train on full non clipped bg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saved st_lucia_castries_gold_concrete_cement.csv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merged st_lucia_castries_gold_concrete_cement.csv into valid, padded data, 90 deg rotated all images added to training data. First ran with padded for all, then with where blk frac&gt;0.15 then used padded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With 0.25 cutoff and rand zoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With 0.15 cutof and rand zoom, without _rot90 images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_24 with cutmix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_24 with mixup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_24 with ricap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_24 with bg padding without rotated images, but using 10% validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_24 without bg padding, without rotated images, but using 10% validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_24 without bg padding, without rotated images, but using 10% validation, minor tfms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_24 with bg padding with rotated images, but using 10% validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_24h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_24, weighted loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 1, but with bias applied to weightings – less strong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image QC/Data QC</t>
+  </si>
+  <si>
     <t xml:space="preserve">04_3_image_qc_cropping.ipynb</t>
   </si>
   <si>
     <t xml:space="preserve">Fixed color issue, sinle RGB vs BGR issue</t>
   </si>
   <si>
-    <t xml:space="preserve">using hz rotated polygons, opencv padded images (border reflect 101)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_3_fastai_train_resnet_20191026.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resnet 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cv_reflect_101_verified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23c3cd52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flip_vert=True, max_rotate=180, max_lighting=0.1, max_zoom=1.05, max_warp=0., xtra_tfms=[cutout(n_holes=(1,4), length=(5, 30), p=.05)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using rotated to hz + OpenCv border, Using only validated training data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_2_fastai_train_resnet_20191026.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cv_reflect_101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">909b0f7c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional transforms, All data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_1_fastai_train_resnet_20191026.ipynb</t>
+    <t xml:space="preserve">Using sharpend images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_1_fastai_train_resnet_20191027.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv_reflect_101_sharp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4dfccab9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic transforms, all data, with sharpening (150%) on blurry (threshold 100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using hz rotated polygons, opencv padded images (wrap)  imgaug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_2_fastai_train_resnet_20191027.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv_wrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6210e9d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using data with wrap instead of border_reflect_101 and imgaug to add classes; no ‘irregular_metal’ aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using hz rotated polygons, opencv padded images (wrap) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_3_fastai_train_resnet_20191027.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direct comparisson with sub 2 but using wrap instead of reflect 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using hz rotated polygons, opencv padded images (reflect) imgaug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_4_fastai_train_resnet_20191028.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using data with border_reflect_101 and imgaug to add classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_5_fastai_train_resnet_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgaug of valid data only, adding 1000 imgaug images to each class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_6_fastai_train_resnet_imgaug_pred_unverified_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgaug of valid data + unverified that we predict to have the same class using 03_11 model, adding 1000 imgaug images to each class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_7_fastai_train_resnet_minimal-imgaug_pred_unverified_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgaug of valid data + unverified that we predict to have the same class using 03_11 model, adding imgaug images (exacty same as number in verified) to each class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_8_fastai_train_resnet_miniminimal-imgaug_pred_unverified_20191108.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgaug based on class level/4 + unverified that we predict to have the same class using 03_11 model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_9_fastai_train_resnet_miniminimal-imgaug_pred_unverified_pred_test_20191109.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using  predicted test with cutoffs and imgs aug class number/10 for training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO – inference on 05_4 and 05_2, error on loading leading learnier rel to fp16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem during inference, cant use this method with fastai, needs lot of work with pytorchcv too, try other models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error on unfreeze, debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_3_fastai_train_efficientnet_20191029.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EfficientNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InceptionV4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs to debug to get running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed transforms slightly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pretrained=False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_7_fastai_train_densenet_20191030.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Densenet 121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic transforms, fp_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_7_1_fastai_train_densenet_ricap_20191102.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created submission, todo: submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_8_fastai_train_wideresnet_20191107.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strted looking at this buty fair bit of work to get training then more work to get pred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_9_fastai_train_efficientnet_b3_20191117.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficientnet_b3, xtra_tfms=[dihedral(p=0.7), rand_crop(p=0.4)] tfms = get_transforms(flip_vert=True, max_lighting=0.2, max_zoom=1.1, max_warp=0., xtra_tfms=xtra_tfms); predicting valid only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_10_fastai_train_efficientnet_b6_20191117.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficientnet_b6, 512 training needs to be re-done to train and test on 512 size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensembles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_2_fastai_simple_ensemble_20191103.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple ensemble using averaging of 2 x resnet, 1x densenet, 1x eficientnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pred other non roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_1_fastai_train_resnet_country_20191118.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predict country, amazing accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predict region – pretty good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pred xy, needs work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_6_resnet50_use_country_area_20191122.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regression for area of polygon; loss is way too high to be of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_7_fastai_resnet50_multiclass_20191123.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 03_1 predict roof and country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surprised this didn’t do better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_8_fastai_resnet50_multiclass_region_20191123.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_9_fastai_resnet50_roof_country_20191123.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine roof with country labels – ie 3x more labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs=128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsupervised clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2d_clustering-train_valid.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data QC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_1_clustering_qc_20191109.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clustering detailed QC, nothing major stands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensemble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_1, 05_3, 06_7, 06_3</t>
   </si>
   <si>
     <t xml:space="preserve">03_1</t>
   </si>
   <si>
-    <t xml:space="preserve">1964891c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flip_vert=True, max_lighting=0.1, max_zoom=1.05, max_warp=0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic transforms, all data, fp_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_4_fastai_train_resnet_20191026.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14c12ba1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic transforms, Verified data only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_6_fastai_train_resnet_20191026.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128 then 256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lr too high, redo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128 then 256, 128 stage retrain needs lower lr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_7_fastai_train_resnet_20191030.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resnet 101</t>
+    <t xml:space="preserve">reflect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic transforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrap</t>
   </si>
   <si>
     <t xml:space="preserve">03_7</t>
   </si>
   <si>
-    <t xml:space="preserve">Resnet 101, fp16 otherwise default transforms as 03_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stage-2-rn101-03_7-cv_reflect_101-20191031-5e1dab49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_8_1_fastai_train_resnet_mixup_20191102.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_8_2_fastai_train_resnet_cutmix_20191102.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CutMix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_8_3_fastai_train_resnet_ricap_20191102.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stage-2-rn50-03_8_3-cv_reflect_101_ricap-20191102-a81b6c9e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a81b6c9e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_9_fastai_train_resnet_resize_20191103.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualitative testing of effect of stepping up image sizes, TODO more experiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_10_fastai_train_resnet_swa_20191104.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_11_fastai_train_resnet_valid_20191108.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As 03_1 valid only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_12_fastai_train_resnet_valid_cf_verified_20191108.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predicted unverified and saved to csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_13_fastai_train_resnet_radam_20191108.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As 03_1 but with radm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_14_fastai_train_resnet_ranger_20191108.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: created sub file, submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As 03_1 but with ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_15_fastai_train_resnet_valid_cf_verified_cutoff_20191109.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used predictions on test, invalid, looked at confidence histograms, use high confidence ones as part of trainign set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xtra_tfms=[dihedral(p=0.7), rand_crop(p=0.4)], (flip_vert=True, max_lighting=0.2, max_zoom=1.1, max_warp=0., xtra_tfms=xtra_tfms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As 03_11 (valid only), using 4x4 bg padded, wrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generated sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padded bg, 256 then 512 img size, resnet 50, 101, 152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_20_fastai_train_resnet_valid_pad_refl_20191118.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As 03_11 (valid only), using 4x4 bg padded, reflect, 256 then 512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rn101-03_21-cv_reflect_101_valid-20191118-7607ef2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As 03_20 but resnet101, extra tfms (with 256 then 512)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generated sub on 2 (not 2-1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_22_fastai_train_resnet152_valid_pad_refl_20191118.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As 03_20 but resnet152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padded bg, resnet50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO – train on full non clipped bg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saved st_lucia_castries_gold_concrete_cement.csv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run 1 (all padded)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merged st_lucia_castries_gold_concrete_cement.csv into valid, padded data, 90 deg rotated all images added to training data. First ran with padded for all, then with where blk frac&gt;0.15 then used padded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run 2 (blk&gt;0.15 padded)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run 2 (blk&gt;0.15 padded) and random zoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_24a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With 0.25 cutoff and rand zoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_24b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With 0.15 cutof and rand zoom, without _rot90 images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_24c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As 03_24 with cutmix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_24d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As 03_24 with mixup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_24e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As 03_24 with ricap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using sharpend images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_1_fastai_train_resnet_20191027.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cv_reflect_101_sharp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4dfccab9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic transforms, all data, with sharpening (150%) on blurry (threshold 100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">using hz rotated polygons, opencv padded images (wrap)  imgaug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_2_fastai_train_resnet_20191027.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cv_wrap</t>
+    <t xml:space="preserve">Resnet101</t>
   </si>
   <si>
     <t xml:space="preserve">05_2</t>
   </si>
   <si>
-    <t xml:space="preserve">6210e9d8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using data with wrap instead of border_reflect_101 and imgaug to add classes; no ‘irregular_metal’ aug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">using hz rotated polygons, opencv padded images (wrap) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_3_fastai_train_resnet_20191027.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direct comparisson with sub 2 but using wrap instead of reflect 101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">using hz rotated polygons, opencv padded images (reflect) imgaug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_4_fastai_train_resnet_20191028.ipynb</t>
+    <t xml:space="preserve">imgaug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_8_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ricap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_7_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_8_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_3</t>
   </si>
   <si>
     <t xml:space="preserve">05_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using data with border_reflect_101 and imgaug to add classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overfitting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_5_fastai_train_resnet_20191108.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgaug of valid data only, adding 1000 imgaug images to each class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_6_fastai_train_resnet_imgaug_pred_unverified_20191108.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgaug of valid data + unverified that we predict to have the same class using 03_11 model, adding 1000 imgaug images to each class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_7_fastai_train_resnet_minimal-imgaug_pred_unverified_20191108.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgaug of valid data + unverified that we predict to have the same class using 03_11 model, adding imgaug images (exacty same as number in verified) to each class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_8_fastai_train_resnet_miniminimal-imgaug_pred_unverified_20191108.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgaug based on class level/4 + unverified that we predict to have the same class using 03_11 model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_9_fastai_train_resnet_miniminimal-imgaug_pred_unverified_pred_test_20191109.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">using  predicted test with cutoffs and imgs aug class number/10 for training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO – inference on 05_4 and 05_2, error on loading leading learnier rel to fp16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResNext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problem during inference, cant use this method with fastai, needs lot of work with pytorchcv too, try other models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error on unfreeze, debug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_3_fastai_train_efficientnet_20191029.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EfficientNet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InceptionV4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Needs to debug to get running</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changed transforms slightly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pretrained=False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_7_fastai_train_densenet_20191030.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Densenet 121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basic transforms, fp_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_7_1_fastai_train_densenet_ricap_20191102.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created submission, todo: submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_8_fastai_train_wideresnet_20191107.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strted looking at this buty fair bit of work to get training then more work to get pred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_9_fastai_train_efficientnet_b3_20191117.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficientnet_b3, xtra_tfms=[dihedral(p=0.7), rand_crop(p=0.4)] tfms = get_transforms(flip_vert=True, max_lighting=0.2, max_zoom=1.1, max_warp=0., xtra_tfms=xtra_tfms); predicting valid only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_10_fastai_train_efficientnet_b6_20191117.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficientnet_b6, 512 training needs to be re-done to train and test on 512 size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensembles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07_2_fastai_simple_ensemble_20191103.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple ensemble using averaging of 2 x resnet, 1x densenet, 1x eficientnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pred other non roof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09_1_fastai_train_resnet_country_20191118.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predict country, amazing accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predict region – pretty good</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pred xy, needs work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09_6_resnet50_use_country_area_20191122.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsupervised clustering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n2d_clustering-train_valid.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data QC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08_1_clustering_qc_20191109.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clustering detailed QC, nothing major stands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensemble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_1, 05_3, 06_7, 06_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reflect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basic transforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resnet101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgaug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_8_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ricap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_7_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_8_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mixup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_3</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.kaggle.com/c/aptos2019-blindness-detection/discussion/108065</t>
@@ -795,7 +885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -835,12 +925,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -923,13 +1007,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDC578"/>
-        <bgColor rgb="FFFFDAA2"/>
+        <fgColor rgb="FFFFF9AE"/>
+        <bgColor rgb="FFFFE5CA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC2E0AE"/>
+        <bgColor rgb="FFBEE3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFCCE4"/>
         <bgColor rgb="FFBEE3D3"/>
       </patternFill>
     </fill>
@@ -967,12 +1057,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFADD58A"/>
         <bgColor rgb="FFC2E0AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF9AE"/>
-        <bgColor rgb="FFFFE5CA"/>
       </patternFill>
     </fill>
     <fill>
@@ -1022,7 +1106,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1031,19 +1115,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1115,7 +1191,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1139,39 +1219,47 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1187,11 +1275,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1225,11 +1313,11 @@
       <rgbColor rgb="FF7DA7D8"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFE5CA"/>
-      <rgbColor rgb="FFC2E0AE"/>
+      <rgbColor rgb="FFBCE4E5"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFF37B70"/>
       <rgbColor rgb="FF0066B3"/>
-      <rgbColor rgb="FFBCE4E5"/>
+      <rgbColor rgb="FFDFCCE4"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1239,7 +1327,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFADD58A"/>
+      <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FFBEE3D3"/>
       <rgbColor rgb="FFFFF9AE"/>
       <rgbColor rgb="FFADC5E7"/>
@@ -1249,7 +1337,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF87D1D1"/>
       <rgbColor rgb="FF72BF44"/>
-      <rgbColor rgb="FFFDC578"/>
+      <rgbColor rgb="FFADD58A"/>
       <rgbColor rgb="FFF9A870"/>
       <rgbColor rgb="FFF68E76"/>
       <rgbColor rgb="FF666699"/>
@@ -1267,7 +1355,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1401,11 +1489,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62954927"/>
-        <c:axId val="44836197"/>
+        <c:axId val="4789164"/>
+        <c:axId val="75209099"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62954927"/>
+        <c:axId val="4789164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,12 +1521,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44836197"/>
+        <c:crossAx val="75209099"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44836197"/>
+        <c:axId val="75209099"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1563,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62954927"/>
+        <c:crossAx val="4789164"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1523,7 +1611,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1647,11 +1735,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="87582922"/>
-        <c:axId val="53111497"/>
+        <c:axId val="43075493"/>
+        <c:axId val="81571817"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87582922"/>
+        <c:axId val="43075493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,14 +1767,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53111497"/>
+        <c:crossAx val="81571817"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53111497"/>
+        <c:axId val="81571817"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +1811,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87582922"/>
+        <c:crossAx val="43075493"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1770,7 +1858,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1861,11 +1949,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="59645944"/>
-        <c:axId val="34791516"/>
+        <c:axId val="77876415"/>
+        <c:axId val="62535477"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59645944"/>
+        <c:axId val="77876415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,14 +1981,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34791516"/>
+        <c:crossAx val="62535477"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34791516"/>
+        <c:axId val="62535477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -1938,7 +2026,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59645944"/>
+        <c:crossAx val="77876415"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1997,9 +2085,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
+      <xdr:colOff>36720</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2008,7 +2096,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9865800" y="2483640"/>
-        <a:ext cx="5756040" cy="3236040"/>
+        <a:ext cx="5755680" cy="3235680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2027,9 +2115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>298440</xdr:colOff>
+      <xdr:colOff>298080</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2038,7 +2126,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="118800" y="2572200"/>
-        <a:ext cx="9261720" cy="3238200"/>
+        <a:ext cx="9261360" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2062,9 +2150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>154440</xdr:colOff>
+      <xdr:colOff>154080</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2073,7 +2161,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1714680" y="2696400"/>
-        <a:ext cx="5754960" cy="3237840"/>
+        <a:ext cx="5754600" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2091,26 +2179,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y136"/>
+  <dimension ref="A1:AB167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K118" activeCellId="0" sqref="K118"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="2.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="10" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="3.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="59.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="24" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2142,10 +2240,10 @@
       <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="0" t="s">
@@ -2157,110 +2255,108 @@
       <c r="O1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="Y1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="0" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
@@ -2269,10 +2365,10 @@
       <c r="E12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="4" t="n">
         <v>20191026</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="0" t="n">
@@ -2281,154 +2377,154 @@
       <c r="I12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="5" t="n">
         <v>0.471456</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="6" t="n">
         <v>0.468144</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="5" t="n">
         <v>0.17653</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="M12" s="5" t="n">
         <v>0.455339</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="N12" s="6" t="n">
         <v>0.467721</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="5" t="n">
         <v>0.177202</v>
       </c>
-      <c r="P12" s="7" t="n">
+      <c r="P12" s="5" t="n">
         <v>0.431545</v>
       </c>
-      <c r="Q12" s="8" t="n">
+      <c r="Q12" s="6" t="n">
         <v>0.477219</v>
       </c>
-      <c r="R12" s="7" t="n">
+      <c r="R12" s="5" t="n">
         <v>0.17384</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7" t="s">
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5" t="s">
         <v>35</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>20191026</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="2" t="n">
         <v>256</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="5" t="n">
         <v>0.369138</v>
       </c>
-      <c r="K14" s="9" t="n">
+      <c r="K14" s="7" t="n">
         <v>0.356734</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" s="5" t="n">
         <v>0.129712</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="M14" s="5" t="n">
         <v>0.349764</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="N14" s="5" t="n">
         <v>0.454797</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="5" t="n">
         <v>0.126829</v>
       </c>
-      <c r="P14" s="7" t="n">
+      <c r="P14" s="5" t="n">
         <v>0.336802</v>
       </c>
-      <c r="Q14" s="9" t="n">
+      <c r="Q14" s="7" t="n">
         <v>0.355439</v>
       </c>
-      <c r="R14" s="7" t="n">
+      <c r="R14" s="5" t="n">
         <v>0.124834</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
       <c r="W14" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="Y14" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4" t="n">
         <v>20191026</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="2" t="n">
         <v>256</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="5" t="n">
         <v>0.355355</v>
       </c>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="8" t="n">
         <v>0.36044</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="L16" s="5" t="n">
         <v>0.126608</v>
       </c>
-      <c r="M16" s="7" t="n">
+      <c r="M16" s="5" t="n">
         <v>0.360037</v>
       </c>
-      <c r="N16" s="9" t="n">
+      <c r="N16" s="7" t="n">
         <v>0.34525</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="5" t="n">
         <v>0.124612</v>
       </c>
-      <c r="P16" s="7" t="n">
+      <c r="P16" s="5" t="n">
         <v>0.323809</v>
       </c>
-      <c r="Q16" s="9" t="n">
+      <c r="Q16" s="7" t="n">
         <v>0.346372</v>
       </c>
-      <c r="R16" s="7" t="n">
+      <c r="R16" s="5" t="n">
         <v>0.126608</v>
       </c>
-      <c r="S16" s="11" t="n">
+      <c r="S16" s="9" t="n">
         <f aca="false">Q16/V16</f>
         <v>0.776444743331092</v>
       </c>
@@ -2438,195 +2534,192 @@
       <c r="U16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V16" s="12" t="n">
+      <c r="V16" s="10" t="n">
         <v>0.4461</v>
       </c>
       <c r="W16" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y16" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D18" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>20191026</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="6" t="n">
-        <v>20191026</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="2" t="n">
         <v>256</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="5" t="n">
         <v>0.464205</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="11" t="n">
         <v>0.468446</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="L18" s="5" t="n">
         <v>0.174849</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="M18" s="5" t="n">
         <v>0.436128</v>
       </c>
-      <c r="N18" s="13" t="n">
+      <c r="N18" s="11" t="n">
         <v>0.464846</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="O18" s="5" t="n">
         <v>0.17653</v>
       </c>
-      <c r="P18" s="7" t="n">
+      <c r="P18" s="5" t="n">
         <v>0.413014</v>
       </c>
-      <c r="Q18" s="14" t="n">
+      <c r="Q18" s="12" t="n">
         <v>0.517945</v>
       </c>
-      <c r="R18" s="7" t="n">
+      <c r="R18" s="5" t="n">
         <v>0.169805</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
       <c r="W18" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>20191026</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="J20" s="5" t="n">
+        <v>0.452009</v>
+      </c>
+      <c r="K20" s="13" t="n">
+        <v>0.417441</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>0.149667</v>
+      </c>
+      <c r="M20" s="10" t="n">
+        <v>0.415357</v>
+      </c>
+      <c r="N20" s="14" t="n">
+        <v>1.585722</v>
+      </c>
+      <c r="O20" s="10" t="n">
+        <v>0.146563</v>
+      </c>
+      <c r="P20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="6" t="n">
-        <v>20191026</v>
-      </c>
-      <c r="H20" s="0" t="s">
+      <c r="Q20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="7" t="n">
-        <v>0.452009</v>
-      </c>
-      <c r="K20" s="15" t="n">
-        <v>0.417441</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>0.149667</v>
-      </c>
-      <c r="M20" s="12" t="n">
-        <v>0.415357</v>
-      </c>
-      <c r="N20" s="16" t="n">
-        <v>1.585722</v>
-      </c>
-      <c r="O20" s="12" t="n">
-        <v>0.146563</v>
-      </c>
-      <c r="P20" s="17" t="s">
+    </row>
+    <row r="22" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="W20" s="0" t="s">
+      <c r="C22" s="0"/>
+      <c r="E22" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" s="3" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
+      <c r="J22" s="10" t="n">
+        <v>0.370847</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>0.362523</v>
+      </c>
+      <c r="L22" s="10" t="n">
+        <v>0.134812</v>
+      </c>
+      <c r="M22" s="10" t="n">
+        <v>0.288427</v>
+      </c>
+      <c r="N22" s="10" t="n">
+        <v>0.346542</v>
+      </c>
+      <c r="O22" s="10" t="n">
+        <v>0.124834</v>
+      </c>
+      <c r="P22" s="10" t="n">
+        <v>0.211938</v>
+      </c>
+      <c r="Q22" s="10" t="n">
+        <v>0.356956</v>
+      </c>
+      <c r="R22" s="10" t="n">
+        <v>0.131707</v>
+      </c>
+      <c r="U22" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="V22" s="10" t="n">
+        <v>0.4849</v>
+      </c>
+      <c r="W22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="X22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="12" t="n">
-        <v>0.370847</v>
-      </c>
-      <c r="K22" s="12" t="n">
-        <v>0.362523</v>
-      </c>
-      <c r="L22" s="12" t="n">
-        <v>0.134812</v>
-      </c>
-      <c r="M22" s="12" t="n">
-        <v>0.288427</v>
-      </c>
-      <c r="N22" s="12" t="n">
-        <v>0.346542</v>
-      </c>
-      <c r="O22" s="12" t="n">
-        <v>0.124834</v>
-      </c>
-      <c r="P22" s="12" t="n">
-        <v>0.211938</v>
-      </c>
-      <c r="Q22" s="12" t="n">
-        <v>0.356956</v>
-      </c>
-      <c r="R22" s="12" t="n">
-        <v>0.131707</v>
-      </c>
-      <c r="U22" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="V22" s="12" t="n">
-        <v>0.4849</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y22" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="12" t="n">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="10" t="n">
         <v>20191102</v>
       </c>
-      <c r="P24" s="12" t="n">
+      <c r="P24" s="10" t="n">
         <v>0.537694</v>
       </c>
-      <c r="Q24" s="12" t="n">
+      <c r="Q24" s="10" t="n">
         <v>0.389713</v>
       </c>
-      <c r="R24" s="12" t="n">
+      <c r="R24" s="10" t="n">
         <v>0.129047</v>
       </c>
-      <c r="S24" s="18" t="n">
+      <c r="S24" s="16" t="n">
         <f aca="false">Q24/V24</f>
         <v>0.74729242569511</v>
       </c>
@@ -2636,56 +2729,56 @@
       <c r="U24" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="V24" s="12" t="n">
+      <c r="V24" s="10" t="n">
         <v>0.5215</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="3"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="12" t="n">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="10" t="n">
         <v>20191102</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="3"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="10" t="n">
         <v>20191102</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" s="12" t="n">
+      <c r="G28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" s="10" t="n">
         <v>0.132052</v>
       </c>
-      <c r="Q28" s="12" t="n">
+      <c r="Q28" s="10" t="n">
         <v>0.364307</v>
       </c>
-      <c r="R28" s="12" t="n">
+      <c r="R28" s="10" t="n">
         <v>0.126608</v>
       </c>
       <c r="S28" s="0" t="n">
@@ -2698,42 +2791,51 @@
       <c r="U28" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="V28" s="12" t="n">
+      <c r="V28" s="10" t="n">
         <v>0.4988</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="3"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="W30" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="W30" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J34" s="12" t="n">
-        <v>0.460921</v>
-      </c>
-      <c r="K34" s="19" t="n">
-        <v>0.493934</v>
-      </c>
-      <c r="L34" s="12" t="n">
-        <v>0.184936</v>
+        <v>68</v>
+      </c>
+      <c r="J34" s="10" t="n">
+        <v>0.426984</v>
+      </c>
+      <c r="K34" s="10" t="n">
+        <v>0.48439</v>
+      </c>
+      <c r="L34" s="10" t="n">
+        <v>0.18191</v>
+      </c>
+      <c r="P34" s="10" t="n">
+        <v>0.302899</v>
+      </c>
+      <c r="Q34" s="10" t="n">
+        <v>0.480282</v>
+      </c>
+      <c r="R34" s="10" t="n">
+        <v>0.178547</v>
       </c>
       <c r="U34" s="0" t="n">
         <v>16</v>
@@ -2742,1382 +2844,1646 @@
         <v>0.4687</v>
       </c>
       <c r="W34" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="Y34" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="10" t="n">
+        <v>0.45392</v>
+      </c>
+      <c r="K36" s="10" t="n">
+        <v>0.492084</v>
+      </c>
+      <c r="L36" s="10" t="n">
+        <v>0.185012</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="W36" s="0" t="s">
+      <c r="J37" s="10" t="n">
+        <v>0.45489</v>
+      </c>
+      <c r="K37" s="10" t="n">
+        <v>0.47378</v>
+      </c>
+      <c r="L37" s="10" t="n">
+        <v>0.180723</v>
+      </c>
+      <c r="W37" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="AA37" s="0" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V38" s="12" t="n">
-        <v>0.4521</v>
+      <c r="C38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J38" s="10" t="n">
+        <v>0.430591</v>
+      </c>
+      <c r="K38" s="10" t="n">
+        <v>0.451013</v>
+      </c>
+      <c r="L38" s="10" t="n">
+        <v>0.172021</v>
       </c>
       <c r="W38" s="0" t="s">
         <v>76</v>
       </c>
+      <c r="AA38" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" s="10" t="n">
+        <v>0.449433</v>
+      </c>
+      <c r="K39" s="10" t="n">
+        <v>0.453265</v>
+      </c>
+      <c r="L39" s="10" t="n">
+        <v>0.1834</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="V40" s="20" t="s">
-        <v>78</v>
+      <c r="C40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" s="10" t="n">
+        <v>0.453294</v>
+      </c>
+      <c r="K40" s="17" t="n">
+        <v>0.446916</v>
+      </c>
+      <c r="L40" s="10" t="n">
+        <v>0.174699</v>
       </c>
       <c r="W40" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="AA40" s="0" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V41" s="21"/>
+      <c r="C41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" s="10" t="n">
+        <v>0.302899</v>
+      </c>
+      <c r="K41" s="10" t="n">
+        <v>0.480282</v>
+      </c>
+      <c r="L41" s="10" t="n">
+        <v>0.178547</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA41" s="0" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="W42" s="0" t="s">
-        <v>81</v>
-      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="V44" s="0" t="n">
-        <v>0.5374</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="V45" s="0" t="n">
-        <v>0.5266</v>
+      <c r="W44" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="V46" s="18" t="n">
-        <v>0.4535</v>
+        <v>85</v>
+      </c>
+      <c r="V46" s="10" t="n">
+        <v>0.4521</v>
       </c>
       <c r="W46" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="W47" s="0" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="X47" s="2" t="s">
+      <c r="V48" s="18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
+      <c r="W48" s="0" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="V49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="P50" s="12" t="n">
-        <v>0.473367</v>
-      </c>
-      <c r="Q50" s="12" t="n">
-        <v>0.488676</v>
-      </c>
-      <c r="R50" s="12" t="n">
-        <v>0.176866</v>
-      </c>
-      <c r="V50" s="12" t="n">
-        <v>0.4629</v>
-      </c>
-      <c r="W50" s="3" t="s">
+      <c r="W50" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="X50" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="V52" s="0" t="n">
+        <v>0.5374</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="J51" s="12" t="n">
-        <v>0.518463</v>
-      </c>
-      <c r="K51" s="12" t="n">
-        <v>0.543399</v>
-      </c>
-      <c r="L51" s="12" t="n">
-        <v>0.201076</v>
-      </c>
-      <c r="M51" s="12" t="n">
-        <v>0.351982</v>
-      </c>
-      <c r="N51" s="12" t="n">
-        <v>0.506825</v>
-      </c>
-      <c r="O51" s="12" t="n">
-        <v>0.178211</v>
-      </c>
-      <c r="V51" s="12" t="n">
-        <v>0.5733</v>
-      </c>
-      <c r="W51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M52" s="12" t="n">
-        <v>0.427257</v>
-      </c>
-      <c r="N52" s="12" t="n">
-        <v>0.50657</v>
-      </c>
-      <c r="O52" s="12" t="n">
-        <v>0.17384</v>
-      </c>
-      <c r="P52" s="3"/>
-      <c r="W52" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="3"/>
-      <c r="W53" s="4" t="s">
-        <v>99</v>
+      <c r="V53" s="0" t="n">
+        <v>0.5266</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="W54" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="V54" s="16" t="n">
+        <v>0.4535</v>
+      </c>
+      <c r="W54" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J55" s="12" t="n">
-        <v>0.431824</v>
-      </c>
-      <c r="K55" s="12" t="n">
-        <v>0.450489</v>
-      </c>
-      <c r="L55" s="12" t="n">
-        <v>0.169622</v>
-      </c>
-      <c r="M55" s="12" t="n">
-        <v>0.384013</v>
-      </c>
-      <c r="N55" s="12" t="n">
-        <v>0.423337</v>
-      </c>
-      <c r="O55" s="12" t="n">
-        <v>0.160422</v>
-      </c>
-      <c r="P55" s="3"/>
-      <c r="W55" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="J56" s="12" t="n">
-        <v>0.440999</v>
-      </c>
-      <c r="K56" s="12" t="n">
-        <v>0.448861</v>
-      </c>
-      <c r="L56" s="12" t="n">
-        <v>0.166945</v>
-      </c>
-      <c r="W56" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="W55" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X55" s="0" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="J57" s="12" t="n">
-        <v>0.395575</v>
-      </c>
-      <c r="K57" s="12" t="n">
-        <v>0.427562</v>
-      </c>
-      <c r="L57" s="12" t="n">
-        <v>0.161258</v>
-      </c>
-      <c r="W57" s="5"/>
+      <c r="A57" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="J58" s="12" t="n">
-        <v>0.404909</v>
-      </c>
-      <c r="K58" s="12" t="n">
-        <v>0.426448</v>
-      </c>
-      <c r="L58" s="12" t="n">
-        <v>0.159083</v>
-      </c>
-      <c r="W58" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="P58" s="10" t="n">
+        <v>0.473367</v>
+      </c>
+      <c r="Q58" s="10" t="n">
+        <v>0.488676</v>
+      </c>
+      <c r="R58" s="10" t="n">
+        <v>0.176866</v>
+      </c>
+      <c r="V58" s="10" t="n">
+        <v>0.4629</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X58" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J59" s="10" t="n">
+        <v>0.518463</v>
+      </c>
+      <c r="K59" s="10" t="n">
+        <v>0.543399</v>
+      </c>
+      <c r="L59" s="10" t="n">
+        <v>0.201076</v>
+      </c>
+      <c r="M59" s="10" t="n">
+        <v>0.351982</v>
+      </c>
+      <c r="N59" s="10" t="n">
+        <v>0.506825</v>
+      </c>
+      <c r="O59" s="10" t="n">
+        <v>0.178211</v>
+      </c>
+      <c r="V59" s="10" t="n">
+        <v>0.5733</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X59" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="M60" s="10" t="n">
+        <v>0.427257</v>
+      </c>
+      <c r="N60" s="10" t="n">
+        <v>0.50657</v>
+      </c>
+      <c r="O60" s="10" t="n">
+        <v>0.17384</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="W60" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="2"/>
+      <c r="W61" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="J59" s="12" t="n">
-        <v>0.4384</v>
-      </c>
-      <c r="K59" s="12" t="n">
-        <v>0.49999</v>
-      </c>
-      <c r="L59" s="12" t="n">
-        <v>0.191368</v>
-      </c>
-      <c r="W59" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="J60" s="12" t="n">
-        <v>0.658679</v>
-      </c>
-      <c r="K60" s="12" t="n">
-        <v>0.468334</v>
-      </c>
-      <c r="L60" s="12" t="n">
-        <v>0.175142</v>
-      </c>
-      <c r="W60" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="J61" s="12" t="n">
-        <v>0.640168</v>
-      </c>
-      <c r="K61" s="12" t="n">
-        <v>0.450377</v>
-      </c>
-      <c r="L61" s="12" t="n">
-        <v>0.164436</v>
-      </c>
-      <c r="W61" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J62" s="12" t="n">
-        <v>0.182851</v>
-      </c>
-      <c r="K62" s="12" t="n">
-        <v>0.487281</v>
-      </c>
-      <c r="L62" s="12" t="n">
-        <v>0.18267</v>
-      </c>
-      <c r="W62" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W63" s="5"/>
+      <c r="B63" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="10" t="n">
+        <v>0.431824</v>
+      </c>
+      <c r="K63" s="10" t="n">
+        <v>0.450489</v>
+      </c>
+      <c r="L63" s="10" t="n">
+        <v>0.169622</v>
+      </c>
+      <c r="M63" s="10" t="n">
+        <v>0.384013</v>
+      </c>
+      <c r="N63" s="10" t="n">
+        <v>0.423337</v>
+      </c>
+      <c r="O63" s="10" t="n">
+        <v>0.160422</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="W63" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="C64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" s="10" t="n">
+        <v>0.440999</v>
+      </c>
+      <c r="K64" s="10" t="n">
+        <v>0.448861</v>
+      </c>
+      <c r="L64" s="10" t="n">
+        <v>0.166945</v>
+      </c>
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" s="10" t="n">
+        <v>0.395575</v>
+      </c>
+      <c r="K65" s="21" t="n">
+        <v>0.427562</v>
+      </c>
+      <c r="L65" s="10" t="n">
+        <v>0.161258</v>
+      </c>
+      <c r="W65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J66" s="10" t="n">
+        <v>0.404909</v>
+      </c>
+      <c r="K66" s="21" t="n">
+        <v>0.426448</v>
+      </c>
+      <c r="L66" s="10" t="n">
+        <v>0.159083</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J67" s="10" t="n">
+        <v>0.4384</v>
+      </c>
+      <c r="K67" s="10" t="n">
+        <v>0.49999</v>
+      </c>
+      <c r="L67" s="10" t="n">
+        <v>0.191368</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="0" t="s">
+      <c r="J68" s="10" t="n">
+        <v>0.658679</v>
+      </c>
+      <c r="K68" s="10" t="n">
+        <v>0.468334</v>
+      </c>
+      <c r="L68" s="10" t="n">
+        <v>0.175142</v>
+      </c>
+      <c r="W68" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E66" s="0" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="6" t="n">
-        <v>20191027</v>
-      </c>
-      <c r="G66" s="12" t="s">
+      <c r="J69" s="10" t="n">
+        <v>0.640168</v>
+      </c>
+      <c r="K69" s="10" t="n">
+        <v>0.450377</v>
+      </c>
+      <c r="L69" s="10" t="n">
+        <v>0.164436</v>
+      </c>
+      <c r="W69" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H66" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J66" s="12" t="n">
-        <v>0.371694</v>
-      </c>
-      <c r="K66" s="24" t="n">
-        <v>0.366708</v>
-      </c>
-      <c r="L66" s="12" t="n">
-        <v>0.129712</v>
-      </c>
-      <c r="M66" s="12" t="n">
-        <v>0.351872</v>
-      </c>
-      <c r="N66" s="25" t="n">
-        <v>0.355532</v>
-      </c>
-      <c r="O66" s="12" t="n">
-        <v>0.127273</v>
-      </c>
-      <c r="U66" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="V66" s="12" t="n">
-        <v>0.4916</v>
-      </c>
-      <c r="W66" s="3" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+      <c r="J70" s="10" t="n">
+        <v>0.182851</v>
+      </c>
+      <c r="K70" s="10" t="n">
+        <v>0.487281</v>
+      </c>
+      <c r="L70" s="10" t="n">
+        <v>0.18267</v>
+      </c>
+      <c r="W70" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="0" t="s">
+      <c r="C71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" s="10" t="n">
+        <v>0.451891</v>
+      </c>
+      <c r="K71" s="10" t="n">
+        <v>0.476331</v>
+      </c>
+      <c r="L71" s="10" t="n">
+        <v>0.177376</v>
+      </c>
+      <c r="W71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="Z71" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F71" s="6" t="n">
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" s="10" t="n">
+        <v>0.433014</v>
+      </c>
+      <c r="K72" s="10" t="n">
+        <v>0.454318</v>
+      </c>
+      <c r="L72" s="10" t="n">
+        <v>0.182062</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="W72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z72" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" s="10" t="n">
+        <v>0.444963</v>
+      </c>
+      <c r="K73" s="10" t="n">
+        <v>0.454205</v>
+      </c>
+      <c r="L73" s="10" t="n">
+        <v>0.178046</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="W73" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="2"/>
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="2"/>
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="10" t="n">
+        <v>0.42894</v>
+      </c>
+      <c r="K76" s="10" t="n">
+        <v>0.447529</v>
+      </c>
+      <c r="L76" s="10" t="n">
+        <v>0.173302</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" s="10" t="n">
+        <v>0.459889</v>
+      </c>
+      <c r="K77" s="10" t="n">
+        <v>0.468104</v>
+      </c>
+      <c r="L77" s="10" t="n">
+        <v>0.186078</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z77" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="10" t="n">
+        <v>0.475892</v>
+      </c>
+      <c r="K78" s="10" t="n">
+        <v>0.493939</v>
+      </c>
+      <c r="L78" s="10" t="n">
+        <v>0.192372</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="22"/>
+      <c r="C79" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" s="10" t="n">
+        <v>0.41371</v>
+      </c>
+      <c r="K79" s="10" t="n">
+        <v>0.45189</v>
+      </c>
+      <c r="L79" s="10" t="n">
+        <v>0.159418</v>
+      </c>
+      <c r="R79" s="10" t="n">
+        <v>0.403958</v>
+      </c>
+      <c r="S79" s="10" t="n">
+        <v>0.509436</v>
+      </c>
+      <c r="T79" s="10" t="n">
+        <v>0.17922</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W81" s="2"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W83" s="2"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="W84" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W85" s="2"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W86" s="2"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W87" s="2"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W88" s="2"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" s="4" t="n">
+        <v>20191027</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J91" s="10" t="n">
+        <v>0.371694</v>
+      </c>
+      <c r="K91" s="23" t="n">
+        <v>0.366708</v>
+      </c>
+      <c r="L91" s="10" t="n">
+        <v>0.129712</v>
+      </c>
+      <c r="M91" s="10" t="n">
+        <v>0.351872</v>
+      </c>
+      <c r="N91" s="24" t="n">
+        <v>0.355532</v>
+      </c>
+      <c r="O91" s="10" t="n">
+        <v>0.127273</v>
+      </c>
+      <c r="U91" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="V91" s="10" t="n">
+        <v>0.4916</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" s="4" t="n">
         <v>20191028</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H71" s="0" t="n">
+      <c r="G96" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H96" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="J71" s="12" t="n">
+      <c r="J96" s="10" t="n">
         <v>0.322902</v>
       </c>
-      <c r="K71" s="26" t="n">
+      <c r="K96" s="25" t="n">
         <v>0.375154</v>
       </c>
-      <c r="L71" s="12" t="n">
+      <c r="L96" s="10" t="n">
         <v>0.144468</v>
       </c>
-      <c r="M71" s="12" t="n">
+      <c r="M96" s="10" t="n">
         <v>0.299865</v>
       </c>
-      <c r="N71" s="27" t="n">
+      <c r="N96" s="26" t="n">
         <v>0.334215</v>
       </c>
-      <c r="O71" s="12" t="n">
+      <c r="O96" s="10" t="n">
         <v>0.128337</v>
       </c>
-      <c r="P71" s="12" t="n">
+      <c r="P96" s="10" t="n">
         <v>0.265335</v>
       </c>
-      <c r="Q71" s="12" t="n">
+      <c r="Q96" s="10" t="n">
         <v>0.325966</v>
       </c>
-      <c r="R71" s="12" t="n">
+      <c r="R96" s="10" t="n">
         <v>0.124625</v>
       </c>
-      <c r="S71" s="0" t="n">
-        <f aca="false">Q71/V71</f>
+      <c r="S96" s="0" t="n">
+        <f aca="false">Q96/V96</f>
         <v>0.666597137014315</v>
       </c>
-      <c r="T71" s="0" t="n">
+      <c r="T96" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="U71" s="0" t="n">
+      <c r="U96" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V71" s="12" t="n">
+      <c r="V96" s="10" t="n">
         <v>0.489</v>
       </c>
-      <c r="W71" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F75" s="6" t="n">
+      <c r="W96" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" s="4" t="n">
         <v>20191028</v>
       </c>
-      <c r="J75" s="12" t="n">
+      <c r="J100" s="10" t="n">
         <v>0.388993</v>
       </c>
-      <c r="K75" s="25" t="n">
+      <c r="K100" s="24" t="n">
         <v>0.369708</v>
       </c>
-      <c r="L75" s="12" t="n">
+      <c r="L100" s="10" t="n">
         <v>0.128825</v>
       </c>
-      <c r="M75" s="12" t="n">
+      <c r="M100" s="10" t="n">
         <v>0.358222</v>
       </c>
-      <c r="N75" s="25" t="n">
+      <c r="N100" s="24" t="n">
         <v>0.356647</v>
       </c>
-      <c r="O75" s="12" t="n">
+      <c r="O100" s="10" t="n">
         <v>0.127494</v>
       </c>
-      <c r="P75" s="12" t="n">
+      <c r="P100" s="10" t="n">
         <v>0.333846</v>
       </c>
-      <c r="Q75" s="25" t="n">
+      <c r="Q100" s="24" t="n">
         <v>0.354364</v>
       </c>
-      <c r="R75" s="12" t="n">
+      <c r="R100" s="10" t="n">
         <v>0.127273</v>
       </c>
-      <c r="S75" s="11" t="n">
-        <f aca="false">Q75/V75</f>
+      <c r="S100" s="9" t="n">
+        <f aca="false">Q100/V100</f>
         <v>0.782087839329066</v>
       </c>
-      <c r="T75" s="0" t="n">
+      <c r="T100" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="U75" s="0" t="n">
+      <c r="U100" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="V75" s="12" t="n">
+      <c r="V100" s="10" t="n">
         <v>0.4531</v>
       </c>
-      <c r="W75" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F79" s="6" t="n">
+      <c r="W100" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" s="4" t="n">
         <v>20191028</v>
       </c>
-      <c r="J79" s="12" t="n">
+      <c r="J104" s="10" t="n">
         <v>0.342703</v>
       </c>
-      <c r="K79" s="25" t="n">
+      <c r="K104" s="24" t="n">
         <v>0.376731</v>
       </c>
-      <c r="L79" s="12" t="n">
+      <c r="L104" s="10" t="n">
         <v>0.146181</v>
       </c>
-      <c r="M79" s="12" t="n">
+      <c r="M104" s="10" t="n">
         <v>0.185744</v>
       </c>
-      <c r="N79" s="25" t="n">
+      <c r="N104" s="24" t="n">
         <v>0.26551</v>
       </c>
-      <c r="O79" s="12" t="n">
+      <c r="O104" s="10" t="n">
         <v>0.098929</v>
       </c>
-      <c r="P79" s="12" t="n">
+      <c r="P104" s="10" t="n">
         <v>0.111736</v>
       </c>
-      <c r="Q79" s="25" t="n">
+      <c r="Q104" s="24" t="n">
         <v>0.234004</v>
       </c>
-      <c r="R79" s="12" t="n">
+      <c r="R104" s="10" t="n">
         <v>0.084511</v>
       </c>
-      <c r="S79" s="0" t="n">
-        <f aca="false">Q79/V79</f>
+      <c r="S104" s="0" t="n">
+        <f aca="false">Q104/V104</f>
         <v>0.421097714594205</v>
       </c>
-      <c r="T79" s="0" t="n">
+      <c r="T104" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="U79" s="0" t="n">
+      <c r="U104" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="V79" s="12" t="n">
+      <c r="V104" s="10" t="n">
         <v>0.5557</v>
       </c>
-      <c r="W79" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="X79" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="J81" s="12" t="n">
+      <c r="W104" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J106" s="10" t="n">
         <v>0.294119</v>
       </c>
-      <c r="K81" s="26" t="n">
+      <c r="K106" s="25" t="n">
         <v>0.393724</v>
       </c>
-      <c r="L81" s="12" t="n">
+      <c r="L106" s="10" t="n">
         <v>0.14922</v>
       </c>
-      <c r="M81" s="12" t="n">
+      <c r="M106" s="10" t="n">
         <v>0.294119</v>
       </c>
-      <c r="N81" s="26" t="n">
+      <c r="N106" s="25" t="n">
         <v>0.393724</v>
       </c>
-      <c r="O81" s="12" t="n">
+      <c r="O106" s="10" t="n">
         <v>0.14922</v>
       </c>
-      <c r="P81" s="12" t="n">
+      <c r="P106" s="10" t="n">
         <v>0.18846</v>
       </c>
-      <c r="Q81" s="26" t="n">
+      <c r="Q106" s="25" t="n">
         <v>0.378332</v>
       </c>
-      <c r="R81" s="12" t="n">
+      <c r="R106" s="10" t="n">
         <v>0.13538</v>
       </c>
-      <c r="V81" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="W81" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="J83" s="12" t="n">
+      <c r="V106" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="W106" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="J108" s="10" t="n">
         <v>0.382297</v>
       </c>
-      <c r="K83" s="12" t="n">
+      <c r="K108" s="10" t="n">
         <v>0.37999</v>
       </c>
-      <c r="L83" s="12" t="n">
+      <c r="L108" s="10" t="n">
         <v>0.142206</v>
       </c>
-      <c r="M83" s="12" t="n">
+      <c r="M108" s="10" t="n">
         <v>0.257935</v>
       </c>
-      <c r="N83" s="12" t="n">
+      <c r="N108" s="10" t="n">
         <v>0.320515</v>
       </c>
-      <c r="O83" s="12" t="n">
+      <c r="O108" s="10" t="n">
         <v>0.119599</v>
       </c>
-      <c r="P83" s="12" t="n">
+      <c r="P108" s="10" t="n">
         <v>0.174454</v>
       </c>
-      <c r="Q83" s="25" t="n">
+      <c r="Q108" s="24" t="n">
         <v>0.300714</v>
       </c>
-      <c r="R83" s="12" t="n">
+      <c r="R108" s="10" t="n">
         <v>0.109389</v>
       </c>
-      <c r="V83" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="W83" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="J85" s="12" t="n">
+      <c r="V108" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="W108" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="J110" s="10" t="n">
         <v>0.389024</v>
       </c>
-      <c r="K85" s="25" t="n">
+      <c r="K110" s="24" t="n">
         <v>0.363357</v>
       </c>
-      <c r="L85" s="12" t="n">
+      <c r="L110" s="10" t="n">
         <v>0.136881</v>
       </c>
-      <c r="M85" s="12" t="n">
+      <c r="M110" s="10" t="n">
         <v>0.2268</v>
       </c>
-      <c r="N85" s="27" t="n">
+      <c r="N110" s="26" t="n">
         <v>0.282939</v>
       </c>
-      <c r="O85" s="12" t="n">
+      <c r="O110" s="10" t="n">
         <v>0.100741</v>
       </c>
-      <c r="P85" s="12" t="n">
+      <c r="P110" s="10" t="n">
         <v>0.123446</v>
       </c>
-      <c r="Q85" s="27" t="n">
+      <c r="Q110" s="26" t="n">
         <v>0.240285</v>
       </c>
-      <c r="R85" s="12" t="n">
+      <c r="R110" s="10" t="n">
         <v>0.080884</v>
       </c>
-      <c r="S85" s="0" t="n">
-        <f aca="false">Q85/V85</f>
+      <c r="S110" s="0" t="n">
+        <f aca="false">Q110/V110</f>
         <v>0.445302075611564</v>
       </c>
-      <c r="U85" s="0" t="n">
+      <c r="U110" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="V85" s="29" t="n">
+      <c r="V110" s="28" t="n">
         <v>0.5396</v>
       </c>
-      <c r="W85" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="X85" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="J87" s="12" t="n">
+      <c r="W110" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="X110" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J112" s="10" t="n">
         <v>0.366225</v>
       </c>
-      <c r="K87" s="30" t="n">
+      <c r="K112" s="29" t="n">
         <v>0.399947</v>
       </c>
-      <c r="L87" s="12" t="n">
+      <c r="L112" s="10" t="n">
         <v>0.144707</v>
       </c>
-      <c r="M87" s="12" t="n">
+      <c r="M112" s="10" t="n">
         <v>0.232135</v>
       </c>
-      <c r="N87" s="25" t="n">
+      <c r="N112" s="24" t="n">
         <v>0.335551</v>
       </c>
-      <c r="O87" s="12" t="n">
+      <c r="O112" s="10" t="n">
         <v>0.119383</v>
       </c>
-      <c r="P87" s="12" t="n">
+      <c r="P112" s="10" t="n">
         <v>0.144385</v>
       </c>
-      <c r="Q87" s="25" t="n">
+      <c r="Q112" s="24" t="n">
         <v>0.335953</v>
       </c>
-      <c r="R87" s="12" t="n">
+      <c r="R112" s="10" t="n">
         <v>0.112338</v>
       </c>
-      <c r="S87" s="0" t="n">
-        <f aca="false">Q87/V87</f>
+      <c r="S112" s="0" t="n">
+        <f aca="false">Q112/V112</f>
         <v>0.72123872906827</v>
       </c>
-      <c r="U87" s="0" t="n">
+      <c r="U112" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="V87" s="12" t="n">
+      <c r="V112" s="10" t="n">
         <v>0.4658</v>
       </c>
-      <c r="W87" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="J89" s="12" t="n">
+      <c r="W112" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="J114" s="10" t="n">
         <v>0.406997</v>
       </c>
-      <c r="K89" s="12" t="n">
+      <c r="K114" s="10" t="n">
         <v>0.413022</v>
       </c>
-      <c r="L89" s="12" t="n">
+      <c r="L114" s="10" t="n">
         <v>0.150288</v>
       </c>
-      <c r="P89" s="12" t="n">
+      <c r="P114" s="10" t="n">
         <v>0.17971</v>
       </c>
-      <c r="Q89" s="12" t="n">
+      <c r="Q114" s="10" t="n">
         <v>0.359421</v>
       </c>
-      <c r="R89" s="12" t="n">
+      <c r="R114" s="10" t="n">
         <v>0.120326</v>
       </c>
-      <c r="S89" s="0" t="n">
-        <f aca="false">Q89/V89</f>
+      <c r="S114" s="0" t="n">
+        <f aca="false">Q114/V114</f>
         <v>0.772284056725397</v>
       </c>
-      <c r="U89" s="0" t="n">
+      <c r="U114" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="V89" s="12" t="n">
+      <c r="V114" s="10" t="n">
         <v>0.4654</v>
       </c>
-      <c r="W89" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="J95" s="12" t="n">
-        <v>0.570309</v>
-      </c>
-      <c r="K95" s="12" t="n">
-        <v>0.506601</v>
-      </c>
-      <c r="L95" s="12" t="n">
-        <v>0.174945</v>
-      </c>
-      <c r="M95" s="12" t="n">
-        <v>0.497265</v>
-      </c>
-      <c r="N95" s="12" t="n">
-        <v>0.492078</v>
-      </c>
-      <c r="O95" s="12" t="n">
-        <v>0.172062</v>
-      </c>
-      <c r="P95" s="12" t="n">
-        <v>0.517553</v>
-      </c>
-      <c r="Q95" s="12" t="n">
-        <v>0.489173</v>
-      </c>
-      <c r="R95" s="12" t="n">
-        <v>0.173171</v>
-      </c>
-      <c r="W95" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V96" s="3"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="J97" s="12" t="n">
-        <v>0.53527</v>
-      </c>
-      <c r="K97" s="12" t="n">
-        <v>0.624088</v>
-      </c>
-      <c r="L97" s="12" t="n">
-        <v>0.179823</v>
-      </c>
-      <c r="V97" s="3"/>
-      <c r="W97" s="31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V98" s="3"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="J99" s="12" t="n">
-        <v>0.509545</v>
-      </c>
-      <c r="K99" s="12" t="n">
-        <v>0.504833</v>
-      </c>
-      <c r="L99" s="12" t="n">
-        <v>0.173614</v>
-      </c>
-      <c r="M99" s="12" t="n">
-        <v>0.334369</v>
-      </c>
-      <c r="N99" s="12" t="n">
-        <v>0.414619</v>
-      </c>
-      <c r="O99" s="12" t="n">
-        <v>0.142572</v>
-      </c>
-      <c r="P99" s="12" t="n">
-        <v>0.260693</v>
-      </c>
-      <c r="Q99" s="32" t="n">
-        <v>0.42473</v>
-      </c>
-      <c r="R99" s="12" t="n">
-        <v>0.137916</v>
-      </c>
-      <c r="S99" s="18" t="n">
-        <f aca="false">Q99/V99</f>
-        <v>0.766245715316616</v>
-      </c>
-      <c r="T99" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="U99" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V99" s="12" t="n">
-        <v>0.5543</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V100" s="3"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="V101" s="3"/>
-      <c r="W101" s="31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V102" s="3"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="J103" s="12" t="n">
-        <v>0.546447</v>
-      </c>
-      <c r="K103" s="12" t="n">
-        <v>0.549731</v>
-      </c>
-      <c r="L103" s="12" t="n">
-        <v>0.196452</v>
-      </c>
-      <c r="M103" s="12" t="n">
-        <v>0.493894</v>
-      </c>
-      <c r="N103" s="12" t="n">
-        <v>0.51285</v>
-      </c>
-      <c r="O103" s="12" t="n">
-        <v>0.180044</v>
-      </c>
-      <c r="P103" s="12" t="n">
-        <v>0.458191</v>
-      </c>
-      <c r="Q103" s="12" t="n">
-        <v>0.490952</v>
-      </c>
-      <c r="R103" s="12" t="n">
-        <v>0.172949</v>
-      </c>
-      <c r="W103" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="J105" s="12" t="n">
-        <v>0.525183</v>
-      </c>
-      <c r="K105" s="12" t="n">
-        <v>0.539951</v>
-      </c>
-      <c r="L105" s="12" t="n">
-        <v>0.197561</v>
-      </c>
-      <c r="M105" s="12" t="n">
-        <v>0.46354</v>
-      </c>
-      <c r="N105" s="12" t="n">
-        <v>0.48907</v>
-      </c>
-      <c r="O105" s="12" t="n">
-        <v>0.171397</v>
-      </c>
-      <c r="P105" s="12" t="n">
-        <v>0.334369</v>
-      </c>
-      <c r="Q105" s="32" t="n">
-        <v>0.414619</v>
-      </c>
-      <c r="R105" s="12" t="n">
-        <v>0.142572</v>
-      </c>
-      <c r="S105" s="0" t="n">
-        <f aca="false">Q105/V105</f>
-        <v>0.656874207858048</v>
-      </c>
-      <c r="T105" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="U105" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="V105" s="12" t="n">
-        <v>0.6312</v>
-      </c>
-      <c r="W105" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
+      <c r="W114" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F107" s="6" t="n">
-        <v>20191030</v>
-      </c>
-      <c r="H107" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="J107" s="12" t="n">
-        <v>0.394624</v>
-      </c>
-      <c r="K107" s="12" t="n">
-        <v>0.390665</v>
-      </c>
-      <c r="L107" s="12" t="n">
-        <v>0.13969</v>
-      </c>
-      <c r="M107" s="12" t="n">
-        <v>0.356773</v>
-      </c>
-      <c r="N107" s="12" t="n">
-        <v>0.377995</v>
-      </c>
-      <c r="O107" s="12" t="n">
-        <v>0.136364</v>
-      </c>
-      <c r="P107" s="12" t="n">
-        <v>0.301481</v>
-      </c>
-      <c r="Q107" s="25" t="n">
-        <v>0.383617</v>
-      </c>
-      <c r="R107" s="12" t="n">
-        <v>0.136364</v>
-      </c>
-      <c r="S107" s="11" t="n">
-        <f aca="false">Q107/V107</f>
-        <v>0.775453810390135</v>
-      </c>
-      <c r="T107" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="U107" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="V107" s="12" t="n">
-        <v>0.4947</v>
-      </c>
-      <c r="W107" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="J109" s="12" t="n">
-        <v>0.155699</v>
-      </c>
-      <c r="K109" s="12" t="n">
-        <v>0.429368</v>
-      </c>
-      <c r="L109" s="12" t="n">
-        <v>0.146785</v>
-      </c>
-      <c r="M109" s="12" t="n">
-        <v>0.14578</v>
-      </c>
-      <c r="N109" s="12" t="n">
-        <v>0.405742</v>
-      </c>
-      <c r="O109" s="12" t="n">
-        <v>0.136585</v>
-      </c>
-      <c r="P109" s="12" t="n">
-        <v>0.139775</v>
-      </c>
-      <c r="Q109" s="12" t="n">
-        <v>0.396125</v>
-      </c>
-      <c r="R109" s="12" t="n">
-        <v>0.133703</v>
-      </c>
-      <c r="U109" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="V109" s="12" t="n">
-        <v>0.5043</v>
-      </c>
-      <c r="W109" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="X109" s="5"/>
-      <c r="Y109" s="5"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="W111" s="33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="P113" s="12" t="n">
-        <v>0.459714</v>
-      </c>
-      <c r="Q113" s="12" t="n">
-        <v>0.487062</v>
-      </c>
-      <c r="R113" s="12" t="n">
-        <v>0.179556</v>
-      </c>
-      <c r="W113" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="12"/>
-      <c r="W115" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U120" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="V120" s="35" t="n">
-        <v>0.4306</v>
+      <c r="B120" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="J120" s="10" t="n">
+        <v>0.570309</v>
+      </c>
+      <c r="K120" s="10" t="n">
+        <v>0.506601</v>
+      </c>
+      <c r="L120" s="10" t="n">
+        <v>0.174945</v>
+      </c>
+      <c r="M120" s="10" t="n">
+        <v>0.497265</v>
+      </c>
+      <c r="N120" s="10" t="n">
+        <v>0.492078</v>
+      </c>
+      <c r="O120" s="10" t="n">
+        <v>0.172062</v>
+      </c>
+      <c r="P120" s="10" t="n">
+        <v>0.517553</v>
+      </c>
+      <c r="Q120" s="10" t="n">
+        <v>0.489173</v>
+      </c>
+      <c r="R120" s="10" t="n">
+        <v>0.173171</v>
       </c>
       <c r="W120" s="0" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>179</v>
+      <c r="B122" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="J122" s="10" t="n">
+        <v>0.53527</v>
+      </c>
+      <c r="K122" s="10" t="n">
+        <v>0.624088</v>
+      </c>
+      <c r="L122" s="10" t="n">
+        <v>0.179823</v>
+      </c>
+      <c r="V122" s="2"/>
+      <c r="W122" s="30" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="W123" s="0" t="s">
-        <v>181</v>
-      </c>
+      <c r="V123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2"/>
-      <c r="V124" s="2"/>
-      <c r="W124" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1"/>
-      <c r="B125" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
-      <c r="O125" s="5"/>
-      <c r="P125" s="5"/>
-      <c r="Q125" s="5"/>
-      <c r="R125" s="5"/>
-      <c r="S125" s="5"/>
-      <c r="T125" s="5"/>
-      <c r="U125" s="5"/>
-      <c r="V125" s="5"/>
-      <c r="W125" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="X125" s="5"/>
-      <c r="Y125" s="5"/>
-    </row>
-    <row r="126" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1"/>
-      <c r="B128" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2"/>
-      <c r="V129" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="J124" s="10" t="n">
+        <v>0.509545</v>
+      </c>
+      <c r="K124" s="10" t="n">
+        <v>0.504833</v>
+      </c>
+      <c r="L124" s="10" t="n">
+        <v>0.173614</v>
+      </c>
+      <c r="M124" s="10" t="n">
+        <v>0.334369</v>
+      </c>
+      <c r="N124" s="10" t="n">
+        <v>0.414619</v>
+      </c>
+      <c r="O124" s="10" t="n">
+        <v>0.142572</v>
+      </c>
+      <c r="P124" s="10" t="n">
+        <v>0.260693</v>
+      </c>
+      <c r="Q124" s="31" t="n">
+        <v>0.42473</v>
+      </c>
+      <c r="R124" s="10" t="n">
+        <v>0.137916</v>
+      </c>
+      <c r="S124" s="16" t="n">
+        <f aca="false">Q124/V124</f>
+        <v>0.766245715316616</v>
+      </c>
+      <c r="T124" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U124" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V124" s="10" t="n">
+        <v>0.5543</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V125" s="2"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="V126" s="2"/>
+      <c r="W126" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V127" s="2"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="J128" s="10" t="n">
+        <v>0.546447</v>
+      </c>
+      <c r="K128" s="10" t="n">
+        <v>0.549731</v>
+      </c>
+      <c r="L128" s="10" t="n">
+        <v>0.196452</v>
+      </c>
+      <c r="M128" s="10" t="n">
+        <v>0.493894</v>
+      </c>
+      <c r="N128" s="10" t="n">
+        <v>0.51285</v>
+      </c>
+      <c r="O128" s="10" t="n">
+        <v>0.180044</v>
+      </c>
+      <c r="P128" s="10" t="n">
+        <v>0.458191</v>
+      </c>
+      <c r="Q128" s="10" t="n">
+        <v>0.490952</v>
+      </c>
+      <c r="R128" s="10" t="n">
+        <v>0.172949</v>
+      </c>
+      <c r="W128" s="0" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
-      <c r="S130" s="2"/>
-      <c r="T130" s="2"/>
-      <c r="U130" s="2"/>
-      <c r="V130" s="2"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2"/>
-      <c r="V131" s="2"/>
+      <c r="B130" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="J130" s="10" t="n">
+        <v>0.525183</v>
+      </c>
+      <c r="K130" s="10" t="n">
+        <v>0.539951</v>
+      </c>
+      <c r="L130" s="10" t="n">
+        <v>0.197561</v>
+      </c>
+      <c r="M130" s="10" t="n">
+        <v>0.46354</v>
+      </c>
+      <c r="N130" s="10" t="n">
+        <v>0.48907</v>
+      </c>
+      <c r="O130" s="10" t="n">
+        <v>0.171397</v>
+      </c>
+      <c r="P130" s="10" t="n">
+        <v>0.334369</v>
+      </c>
+      <c r="Q130" s="31" t="n">
+        <v>0.414619</v>
+      </c>
+      <c r="R130" s="10" t="n">
+        <v>0.142572</v>
+      </c>
+      <c r="S130" s="0" t="n">
+        <f aca="false">Q130/V130</f>
+        <v>0.656874207858048</v>
+      </c>
+      <c r="T130" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="U130" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V130" s="10" t="n">
+        <v>0.6312</v>
+      </c>
+      <c r="W130" s="0" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
-      <c r="S132" s="2"/>
-      <c r="T132" s="2"/>
-      <c r="U132" s="2"/>
-      <c r="V132" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F132" s="4" t="n">
+        <v>20191030</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="J132" s="10" t="n">
+        <v>0.394624</v>
+      </c>
+      <c r="K132" s="10" t="n">
+        <v>0.390665</v>
+      </c>
+      <c r="L132" s="10" t="n">
+        <v>0.13969</v>
+      </c>
+      <c r="M132" s="10" t="n">
+        <v>0.356773</v>
+      </c>
+      <c r="N132" s="10" t="n">
+        <v>0.377995</v>
+      </c>
+      <c r="O132" s="10" t="n">
+        <v>0.136364</v>
+      </c>
+      <c r="P132" s="10" t="n">
+        <v>0.301481</v>
+      </c>
+      <c r="Q132" s="24" t="n">
+        <v>0.383617</v>
+      </c>
+      <c r="R132" s="10" t="n">
+        <v>0.136364</v>
+      </c>
+      <c r="S132" s="9" t="n">
+        <f aca="false">Q132/V132</f>
+        <v>0.775453810390135</v>
+      </c>
+      <c r="T132" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U132" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V132" s="10" t="n">
+        <v>0.4947</v>
+      </c>
       <c r="W132" s="0" t="s">
-        <v>189</v>
-      </c>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="J134" s="10" t="n">
+        <v>0.155699</v>
+      </c>
+      <c r="K134" s="10" t="n">
+        <v>0.429368</v>
+      </c>
+      <c r="L134" s="10" t="n">
+        <v>0.146785</v>
+      </c>
+      <c r="M134" s="10" t="n">
+        <v>0.14578</v>
+      </c>
+      <c r="N134" s="10" t="n">
+        <v>0.405742</v>
+      </c>
+      <c r="O134" s="10" t="n">
+        <v>0.136585</v>
+      </c>
+      <c r="P134" s="10" t="n">
+        <v>0.139775</v>
+      </c>
+      <c r="Q134" s="10" t="n">
+        <v>0.396125</v>
+      </c>
+      <c r="R134" s="10" t="n">
+        <v>0.133703</v>
+      </c>
+      <c r="U134" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="V134" s="10" t="n">
+        <v>0.5043</v>
+      </c>
+      <c r="W134" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="X134" s="2"/>
+      <c r="Y134" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="W136" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P138" s="10" t="n">
+        <v>0.459714</v>
+      </c>
+      <c r="Q138" s="10" t="n">
+        <v>0.487062</v>
+      </c>
+      <c r="R138" s="10" t="n">
+        <v>0.179556</v>
+      </c>
+      <c r="W138" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="W136" s="0" t="s">
+      <c r="P140" s="10"/>
+      <c r="Q140" s="10"/>
+      <c r="R140" s="10"/>
+      <c r="W140" s="0" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U145" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V145" s="34" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="W145" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="W148" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="W149" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1"/>
+      <c r="B150" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2"/>
+      <c r="V150" s="2"/>
+      <c r="W150" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="X150" s="2"/>
+      <c r="Y150" s="2"/>
+    </row>
+    <row r="151" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1"/>
+      <c r="B153" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J153" s="10" t="n">
+        <v>17011.322266</v>
+      </c>
+      <c r="K153" s="10" t="n">
+        <v>16883.591797</v>
+      </c>
+      <c r="L153" s="10" t="n">
+        <v>16883.591797</v>
+      </c>
+      <c r="W153" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="154" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="10"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="V155" s="10" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="W155" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y155" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z155" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB155" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="22"/>
+      <c r="B157" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="W157" s="35"/>
+    </row>
+    <row r="158" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="36"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="22"/>
+      <c r="B159" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="W159" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="X159" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y159" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z159" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="W163" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="W167" s="0" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4154,19 +4520,19 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>193</v>
+      <c r="A3" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>11</v>
@@ -4175,212 +4541,212 @@
         <v>0.4306</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
-        <v>42</v>
+      <c r="A4" s="20" t="s">
+        <v>220</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="10" t="n">
         <v>0.4461</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
-        <v>131</v>
+      <c r="A5" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="10" t="n">
         <v>0.4531</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="3" t="n">
+      <c r="A6" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="10" t="n">
         <v>0.4849</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
-        <v>126</v>
+      <c r="A7" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="10" t="n">
         <v>0.489</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
-        <v>166</v>
+      <c r="A8" s="37" t="s">
+        <v>230</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="10" t="n">
         <v>0.4947</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
-        <v>202</v>
+      <c r="A9" s="37" t="s">
+        <v>231</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="10" t="n">
         <v>0.4988</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="3" t="n">
+      <c r="A10" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="10" t="n">
         <v>0.5043</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>205</v>
+      <c r="A11" s="38" t="s">
+        <v>234</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="10" t="n">
         <v>0.5215</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="s">
-        <v>207</v>
+      <c r="A12" s="39" t="s">
+        <v>236</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="10" t="n">
         <v>0.5543</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="s">
-        <v>135</v>
+      <c r="A13" s="39" t="s">
+        <v>237</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="10" t="n">
         <v>0.5557</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>162</v>
+      <c r="A14" s="40" t="s">
+        <v>179</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="12" t="n">
+      <c r="C14" s="10" t="n">
         <v>0.6312</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4493,57 +4859,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="12" t="s">
-        <v>209</v>
+      <c r="B2" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12" t="s">
-        <v>210</v>
+      <c r="B3" s="10" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="12" t="s">
-        <v>211</v>
+      <c r="B4" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12" t="s">
-        <v>212</v>
+      <c r="B5" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12" t="s">
-        <v>213</v>
+      <c r="B6" s="10" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12" t="s">
-        <v>214</v>
+      <c r="B7" s="10" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="12" t="s">
-        <v>215</v>
+      <c r="B8" s="10" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="12" t="s">
-        <v>216</v>
+      <c r="B9" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12" t="s">
-        <v>217</v>
+      <c r="B10" s="10" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12" t="s">
-        <v>218</v>
+      <c r="B11" s="10" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4562,16 +4928,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J53"/>
+  <dimension ref="B2:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="91.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
@@ -4579,281 +4945,183 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="0" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="40"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="0" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="41"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="0" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="41"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="42" t="s">
-        <v>244</v>
+      <c r="B42" s="43" t="s">
+        <v>274</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+        <v>275</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="C45" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="C47" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G47" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="C49" s="0" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="C50" s="0" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="C51" s="0" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="C53" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>283</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/model_metrics.xlsx
+++ b/model_metrics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="293">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -275,6 +275,18 @@
     <t xml:space="preserve">xtra_tfms=[dihedral(p=0.25), rand_crop(p=0.4)] tfms = get_transforms(flip_vert=True, max_lighting=0.25, max_zoom=1.2, max_warp=0., xtra_tfms=xtra_tfms)</t>
   </si>
   <si>
+    <t xml:space="preserve">As 5, no max zoom, with rand_zoom 1-1.4, no dihedral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtra_tfms=[rand_crop(p=0.4), rand_zoom(scale=(1.,1.5),p=0.4)]. tfms = get_transforms(flip_vert=True, max_lighting=0.25, max_warp=0., xtra_tfms=xtra_tfms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 5, no max zoom, with rand_zoom 1-1.2, no dihedral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtra_tfms=[rand_crop(p=0.4), rand_zoom(scale=(1.,1.2),p=0.4)], tfms = get_transforms(flip_vert=True, max_lighting=0.25, max_warp=0., xtra_tfms=xtra_tfms)</t>
+  </si>
+  <si>
     <t xml:space="preserve">03_12_fastai_train_resnet_valid_cf_verified_20191108.ipynb</t>
   </si>
   <si>
@@ -422,13 +434,22 @@
     <t xml:space="preserve">As 03_24 with bg padding with rotated images, but using 10% validation</t>
   </si>
   <si>
+    <t xml:space="preserve">Weighted loss</t>
+  </si>
+  <si>
     <t xml:space="preserve">03_24h</t>
   </si>
   <si>
     <t xml:space="preserve">As 03_24, weighted loss</t>
   </si>
   <si>
-    <t xml:space="preserve">As 1, but with bias applied to weightings – less strong</t>
+    <t xml:space="preserve">As 1, but with bias applied to weightings – less strong (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 1, but with bias applied to weightings – less strong again (120)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biasing the weightings doesnt really help</t>
   </si>
   <si>
     <t xml:space="preserve">Image QC/Data QC</t>
@@ -644,12 +665,15 @@
     <t xml:space="preserve">As 03_1 predict roof and country</t>
   </si>
   <si>
-    <t xml:space="preserve">Surprised this didn’t do better</t>
+    <t xml:space="preserve">Surprised this didn’t do better. NB model accidently overwitten by 09_9 alpha version</t>
   </si>
   <si>
     <t xml:space="preserve">09_8_fastai_resnet50_multiclass_region_20191123.ipynb</t>
   </si>
   <si>
+    <t xml:space="preserve">TODO Submission created, TODO submit</t>
+  </si>
+  <si>
     <t xml:space="preserve">09_9_fastai_resnet50_roof_country_20191123.ipynb</t>
   </si>
   <si>
@@ -845,12 +869,12 @@
     <t xml:space="preserve">sep models for above</t>
   </si>
   <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fixup colour skewing for reflected data.</t>
   </si>
   <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
     <t xml:space="preserve">Use model to predict correct St Lucia Castries cement roofs: Check OK then use as validated</t>
   </si>
   <si>
@@ -861,6 +885,9 @@
   </si>
   <si>
     <t xml:space="preserve">See 04_3 – where num black above certain % then used padded (otherwise just plain rot). Try really ramping up the zoom/crop, cutmix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try again with &gt;30% and clearly non padded</t>
   </si>
   <si>
     <t xml:space="preserve">Experiment with wide resnet, ef/densenets more = combine with hyperparams</t>
@@ -938,7 +965,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,6 +1048,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDFCCE4"/>
         <bgColor rgb="FFBEE3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFB3B3B3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1195,7 +1228,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1223,39 +1264,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1267,19 +1300,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1332,7 +1365,7 @@
       <rgbColor rgb="FFFFF9AE"/>
       <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFF8AA97"/>
-      <rgbColor rgb="FF8CCFB7"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFFFDAA2"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF87D1D1"/>
@@ -1343,7 +1376,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF8F93C7"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF8CCFB7"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1355,7 +1388,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1489,11 +1522,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="4789164"/>
-        <c:axId val="75209099"/>
+        <c:axId val="95468914"/>
+        <c:axId val="47424237"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4789164"/>
+        <c:axId val="95468914"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,12 +1554,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75209099"/>
+        <c:crossAx val="47424237"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75209099"/>
+        <c:axId val="47424237"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1596,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4789164"/>
+        <c:crossAx val="95468914"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1611,7 +1644,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1735,11 +1768,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="43075493"/>
-        <c:axId val="81571817"/>
+        <c:axId val="74467706"/>
+        <c:axId val="99389233"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43075493"/>
+        <c:axId val="74467706"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,14 +1800,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81571817"/>
+        <c:crossAx val="99389233"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81571817"/>
+        <c:axId val="99389233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1844,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43075493"/>
+        <c:crossAx val="74467706"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1858,7 +1891,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1949,11 +1982,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="77876415"/>
-        <c:axId val="62535477"/>
+        <c:axId val="35023661"/>
+        <c:axId val="96085120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77876415"/>
+        <c:axId val="35023661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,14 +2014,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62535477"/>
+        <c:crossAx val="96085120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62535477"/>
+        <c:axId val="96085120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -2026,7 +2059,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77876415"/>
+        <c:crossAx val="35023661"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2179,10 +2212,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB167"/>
+  <dimension ref="A1:AB172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V113" activeCellId="0" sqref="V113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2968,296 +3001,288 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="C42" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" s="10" t="n">
+        <v>0.467103</v>
+      </c>
+      <c r="K42" s="10" t="n">
+        <v>0.450741</v>
+      </c>
+      <c r="L42" s="10" t="n">
+        <v>0.178715</v>
+      </c>
+      <c r="W42" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="W44" s="0" t="s">
+      <c r="AA42" s="0" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="W43" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA43" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="V46" s="10" t="n">
-        <v>0.4521</v>
+        <v>87</v>
       </c>
       <c r="W46" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="V48" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="V48" s="10" t="n">
+        <v>0.4521</v>
       </c>
       <c r="W48" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V49" s="19"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="V50" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="W50" s="0" t="s">
-        <v>91</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="V52" s="0" t="n">
-        <v>0.5374</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="V53" s="0" t="n">
-        <v>0.5266</v>
+        <v>94</v>
+      </c>
+      <c r="W52" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="V54" s="16" t="n">
-        <v>0.4535</v>
-      </c>
-      <c r="W54" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <v>0.5374</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="W55" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="X55" s="0" t="s">
+      <c r="V55" s="0" t="n">
+        <v>0.5266</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="V56" s="16" t="n">
+        <v>0.4535</v>
+      </c>
+      <c r="W56" s="0" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+      <c r="B57" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="P58" s="10" t="n">
+      <c r="W57" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="X57" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="P60" s="10" t="n">
         <v>0.473367</v>
       </c>
-      <c r="Q58" s="10" t="n">
+      <c r="Q60" s="10" t="n">
         <v>0.488676</v>
       </c>
-      <c r="R58" s="10" t="n">
+      <c r="R60" s="10" t="n">
         <v>0.176866</v>
       </c>
-      <c r="V58" s="10" t="n">
+      <c r="V60" s="10" t="n">
         <v>0.4629</v>
       </c>
-      <c r="W58" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="X58" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+      <c r="W60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X60" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J59" s="10" t="n">
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J61" s="10" t="n">
         <v>0.518463</v>
       </c>
-      <c r="K59" s="10" t="n">
+      <c r="K61" s="10" t="n">
         <v>0.543399</v>
       </c>
-      <c r="L59" s="10" t="n">
+      <c r="L61" s="10" t="n">
         <v>0.201076</v>
       </c>
-      <c r="M59" s="10" t="n">
+      <c r="M61" s="10" t="n">
         <v>0.351982</v>
       </c>
-      <c r="N59" s="10" t="n">
+      <c r="N61" s="10" t="n">
         <v>0.506825</v>
       </c>
-      <c r="O59" s="10" t="n">
+      <c r="O61" s="10" t="n">
         <v>0.178211</v>
       </c>
-      <c r="V59" s="10" t="n">
+      <c r="V61" s="10" t="n">
         <v>0.5733</v>
       </c>
-      <c r="W59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X59" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="M60" s="10" t="n">
+      <c r="W61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X61" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M62" s="10" t="n">
         <v>0.427257</v>
       </c>
-      <c r="N60" s="10" t="n">
+      <c r="N62" s="10" t="n">
         <v>0.50657</v>
       </c>
-      <c r="O60" s="10" t="n">
+      <c r="O62" s="10" t="n">
         <v>0.17384</v>
       </c>
-      <c r="P60" s="2"/>
-      <c r="W60" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="2"/>
-      <c r="W61" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>110</v>
-      </c>
+      <c r="P62" s="2"/>
       <c r="W62" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="2"/>
+      <c r="W63" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J63" s="10" t="n">
+      <c r="J65" s="10" t="n">
         <v>0.431824</v>
       </c>
-      <c r="K63" s="10" t="n">
+      <c r="K65" s="10" t="n">
         <v>0.450489</v>
       </c>
-      <c r="L63" s="10" t="n">
+      <c r="L65" s="10" t="n">
         <v>0.169622</v>
       </c>
-      <c r="M63" s="10" t="n">
+      <c r="M65" s="10" t="n">
         <v>0.384013</v>
       </c>
-      <c r="N63" s="10" t="n">
+      <c r="N65" s="10" t="n">
         <v>0.423337</v>
       </c>
-      <c r="O63" s="10" t="n">
+      <c r="O65" s="10" t="n">
         <v>0.160422</v>
       </c>
-      <c r="P63" s="2"/>
-      <c r="W63" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="0" t="n">
+      <c r="P65" s="2"/>
+      <c r="W65" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J64" s="10" t="n">
+      <c r="J66" s="10" t="n">
         <v>0.440999</v>
       </c>
-      <c r="K64" s="10" t="n">
+      <c r="K66" s="10" t="n">
         <v>0.448861</v>
       </c>
-      <c r="L64" s="10" t="n">
+      <c r="L66" s="10" t="n">
         <v>0.166945</v>
       </c>
-      <c r="W64" s="2"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="0" t="n">
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J65" s="10" t="n">
+      <c r="J67" s="10" t="n">
         <v>0.395575</v>
       </c>
-      <c r="K65" s="21" t="n">
+      <c r="K67" s="21" t="n">
         <v>0.427562</v>
       </c>
-      <c r="L65" s="10" t="n">
+      <c r="L67" s="10" t="n">
         <v>0.161258</v>
       </c>
-      <c r="W65" s="2"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="J66" s="10" t="n">
-        <v>0.404909</v>
-      </c>
-      <c r="K66" s="21" t="n">
-        <v>0.426448</v>
-      </c>
-      <c r="L66" s="10" t="n">
-        <v>0.159083</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="J67" s="10" t="n">
-        <v>0.4384</v>
-      </c>
-      <c r="K67" s="10" t="n">
-        <v>0.49999</v>
-      </c>
-      <c r="L67" s="10" t="n">
-        <v>0.191368</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="W67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
         <v>118</v>
       </c>
       <c r="J68" s="10" t="n">
-        <v>0.658679</v>
-      </c>
-      <c r="K68" s="10" t="n">
-        <v>0.468334</v>
+        <v>0.404909</v>
+      </c>
+      <c r="K68" s="21" t="n">
+        <v>0.426448</v>
       </c>
       <c r="L68" s="10" t="n">
-        <v>0.175142</v>
+        <v>0.159083</v>
       </c>
       <c r="W68" s="2" t="s">
         <v>119</v>
@@ -3268,13 +3293,13 @@
         <v>120</v>
       </c>
       <c r="J69" s="10" t="n">
-        <v>0.640168</v>
+        <v>0.4384</v>
       </c>
       <c r="K69" s="10" t="n">
-        <v>0.450377</v>
+        <v>0.49999</v>
       </c>
       <c r="L69" s="10" t="n">
-        <v>0.164436</v>
+        <v>0.191368</v>
       </c>
       <c r="W69" s="2" t="s">
         <v>121</v>
@@ -3285,13 +3310,13 @@
         <v>122</v>
       </c>
       <c r="J70" s="10" t="n">
-        <v>0.182851</v>
+        <v>0.658679</v>
       </c>
       <c r="K70" s="10" t="n">
-        <v>0.487281</v>
+        <v>0.468334</v>
       </c>
       <c r="L70" s="10" t="n">
-        <v>0.18267</v>
+        <v>0.175142</v>
       </c>
       <c r="W70" s="2" t="s">
         <v>123</v>
@@ -3301,192 +3326,245 @@
       <c r="B71" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J71" s="10" t="n">
-        <v>0.451891</v>
+        <v>0.640168</v>
       </c>
       <c r="K71" s="10" t="n">
-        <v>0.476331</v>
+        <v>0.450377</v>
       </c>
       <c r="L71" s="10" t="n">
-        <v>0.177376</v>
+        <v>0.164436</v>
       </c>
       <c r="W71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="Z71" s="0" t="s">
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="J72" s="10" t="n">
-        <v>0.433014</v>
+        <v>0.182851</v>
       </c>
       <c r="K72" s="10" t="n">
-        <v>0.454318</v>
+        <v>0.487281</v>
       </c>
       <c r="L72" s="10" t="n">
-        <v>0.182062</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>0.18267</v>
+      </c>
       <c r="W72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Z72" s="0" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73" s="10" t="n">
-        <v>0.444963</v>
+        <v>0.451891</v>
       </c>
       <c r="K73" s="10" t="n">
-        <v>0.454205</v>
+        <v>0.476331</v>
       </c>
       <c r="L73" s="10" t="n">
-        <v>0.178046</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>0.177376</v>
+      </c>
       <c r="W73" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="Z73" s="0" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
+      <c r="C74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" s="10" t="n">
+        <v>0.433014</v>
+      </c>
+      <c r="K74" s="10" t="n">
+        <v>0.454318</v>
+      </c>
+      <c r="L74" s="10" t="n">
+        <v>0.182062</v>
+      </c>
       <c r="M74" s="2"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z74" s="0" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
+      <c r="C75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" s="10" t="n">
+        <v>0.444963</v>
+      </c>
+      <c r="K75" s="10" t="n">
+        <v>0.454205</v>
+      </c>
+      <c r="L75" s="10" t="n">
+        <v>0.178046</v>
+      </c>
       <c r="M75" s="2"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" s="10" t="n">
-        <v>0.42894</v>
-      </c>
-      <c r="K76" s="10" t="n">
-        <v>0.447529</v>
-      </c>
-      <c r="L76" s="10" t="n">
-        <v>0.173302</v>
-      </c>
-      <c r="W76" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="2"/>
+      <c r="W76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" s="10" t="n">
-        <v>0.459889</v>
-      </c>
-      <c r="K77" s="10" t="n">
-        <v>0.468104</v>
-      </c>
-      <c r="L77" s="10" t="n">
-        <v>0.186078</v>
-      </c>
-      <c r="W77" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z77" s="0" t="s">
-        <v>128</v>
-      </c>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="2"/>
+      <c r="W77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J78" s="10" t="n">
-        <v>0.475892</v>
+        <v>0.42894</v>
       </c>
       <c r="K78" s="10" t="n">
-        <v>0.493939</v>
+        <v>0.447529</v>
       </c>
       <c r="L78" s="10" t="n">
-        <v>0.192372</v>
+        <v>0.173302</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22"/>
       <c r="C79" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J79" s="10" t="n">
-        <v>0.41371</v>
+        <v>0.459889</v>
       </c>
       <c r="K79" s="10" t="n">
-        <v>0.45189</v>
+        <v>0.468104</v>
       </c>
       <c r="L79" s="10" t="n">
-        <v>0.159418</v>
-      </c>
-      <c r="R79" s="10" t="n">
-        <v>0.403958</v>
-      </c>
-      <c r="S79" s="10" t="n">
-        <v>0.509436</v>
-      </c>
-      <c r="T79" s="10" t="n">
-        <v>0.17922</v>
+        <v>0.186078</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="Z79" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
       <c r="W80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
       <c r="W81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W82" s="2"/>
+      <c r="B82" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" s="10" t="n">
+        <v>0.475892</v>
+      </c>
+      <c r="K82" s="10" t="n">
+        <v>0.493939</v>
+      </c>
+      <c r="L82" s="10" t="n">
+        <v>0.192372</v>
+      </c>
+      <c r="W82" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W83" s="2"/>
+      <c r="A83" s="22"/>
+      <c r="C83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" s="10" t="n">
+        <v>0.41371</v>
+      </c>
+      <c r="K83" s="10" t="n">
+        <v>0.45189</v>
+      </c>
+      <c r="L83" s="10" t="n">
+        <v>0.159418</v>
+      </c>
+      <c r="R83" s="10" t="n">
+        <v>0.403958</v>
+      </c>
+      <c r="S83" s="10" t="n">
+        <v>0.509436</v>
+      </c>
+      <c r="T83" s="10" t="n">
+        <v>0.17922</v>
+      </c>
+      <c r="W83" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
-        <v>136</v>
+      <c r="C84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" s="10" t="n">
+        <v>0.386697</v>
+      </c>
+      <c r="K84" s="10" t="n">
+        <v>0.427795</v>
+      </c>
+      <c r="L84" s="10" t="n">
+        <v>0.156574</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AA84" s="23" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
       <c r="W85" s="2"/>
+      <c r="AA85" s="24"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="W86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,994 +3574,1051 @@
       <c r="W88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F91" s="4" t="n">
-        <v>20191027</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J91" s="10" t="n">
-        <v>0.371694</v>
-      </c>
-      <c r="K91" s="23" t="n">
-        <v>0.366708</v>
-      </c>
-      <c r="L91" s="10" t="n">
-        <v>0.129712</v>
-      </c>
-      <c r="M91" s="10" t="n">
-        <v>0.351872</v>
-      </c>
-      <c r="N91" s="24" t="n">
-        <v>0.355532</v>
-      </c>
-      <c r="O91" s="10" t="n">
-        <v>0.127273</v>
-      </c>
-      <c r="U91" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="V91" s="10" t="n">
-        <v>0.4916</v>
-      </c>
-      <c r="W91" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="B89" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W90" s="2"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W91" s="2"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F96" s="4" t="n">
-        <v>20191028</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>146</v>
+        <v>20191027</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>256</v>
       </c>
+      <c r="I96" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="J96" s="10" t="n">
+        <v>0.371694</v>
+      </c>
+      <c r="K96" s="25" t="n">
+        <v>0.366708</v>
+      </c>
+      <c r="L96" s="10" t="n">
+        <v>0.129712</v>
+      </c>
+      <c r="M96" s="10" t="n">
+        <v>0.351872</v>
+      </c>
+      <c r="N96" s="26" t="n">
+        <v>0.355532</v>
+      </c>
+      <c r="O96" s="10" t="n">
+        <v>0.127273</v>
+      </c>
+      <c r="U96" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="V96" s="10" t="n">
+        <v>0.4916</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="4" t="n">
+        <v>20191028</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="J101" s="10" t="n">
         <v>0.322902</v>
       </c>
-      <c r="K96" s="25" t="n">
+      <c r="K101" s="27" t="n">
         <v>0.375154</v>
       </c>
-      <c r="L96" s="10" t="n">
+      <c r="L101" s="10" t="n">
         <v>0.144468</v>
       </c>
-      <c r="M96" s="10" t="n">
+      <c r="M101" s="10" t="n">
         <v>0.299865</v>
       </c>
-      <c r="N96" s="26" t="n">
+      <c r="N101" s="28" t="n">
         <v>0.334215</v>
       </c>
-      <c r="O96" s="10" t="n">
+      <c r="O101" s="10" t="n">
         <v>0.128337</v>
       </c>
-      <c r="P96" s="10" t="n">
+      <c r="P101" s="10" t="n">
         <v>0.265335</v>
       </c>
-      <c r="Q96" s="10" t="n">
+      <c r="Q101" s="10" t="n">
         <v>0.325966</v>
       </c>
-      <c r="R96" s="10" t="n">
+      <c r="R101" s="10" t="n">
         <v>0.124625</v>
       </c>
-      <c r="S96" s="0" t="n">
-        <f aca="false">Q96/V96</f>
+      <c r="S101" s="0" t="n">
+        <f aca="false">Q101/V101</f>
         <v>0.666597137014315</v>
       </c>
-      <c r="T96" s="0" t="n">
+      <c r="T101" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="U96" s="0" t="n">
+      <c r="U101" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V96" s="10" t="n">
+      <c r="V101" s="10" t="n">
         <v>0.489</v>
       </c>
-      <c r="W96" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="W101" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F100" s="4" t="n">
+      <c r="F105" s="4" t="n">
         <v>20191028</v>
       </c>
-      <c r="J100" s="10" t="n">
+      <c r="J105" s="10" t="n">
         <v>0.388993</v>
       </c>
-      <c r="K100" s="24" t="n">
+      <c r="K105" s="26" t="n">
         <v>0.369708</v>
       </c>
-      <c r="L100" s="10" t="n">
+      <c r="L105" s="10" t="n">
         <v>0.128825</v>
       </c>
-      <c r="M100" s="10" t="n">
+      <c r="M105" s="10" t="n">
         <v>0.358222</v>
       </c>
-      <c r="N100" s="24" t="n">
+      <c r="N105" s="26" t="n">
         <v>0.356647</v>
       </c>
-      <c r="O100" s="10" t="n">
+      <c r="O105" s="10" t="n">
         <v>0.127494</v>
       </c>
-      <c r="P100" s="10" t="n">
+      <c r="P105" s="10" t="n">
         <v>0.333846</v>
       </c>
-      <c r="Q100" s="24" t="n">
+      <c r="Q105" s="26" t="n">
         <v>0.354364</v>
       </c>
-      <c r="R100" s="10" t="n">
+      <c r="R105" s="10" t="n">
         <v>0.127273</v>
       </c>
-      <c r="S100" s="9" t="n">
-        <f aca="false">Q100/V100</f>
+      <c r="S105" s="9" t="n">
+        <f aca="false">Q105/V105</f>
         <v>0.782087839329066</v>
       </c>
-      <c r="T100" s="0" t="n">
+      <c r="T105" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="U100" s="0" t="n">
+      <c r="U105" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="V100" s="10" t="n">
+      <c r="V105" s="10" t="n">
         <v>0.4531</v>
       </c>
-      <c r="W100" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="D104" s="0" t="s">
+      <c r="W105" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F104" s="4" t="n">
+      <c r="F109" s="4" t="n">
         <v>20191028</v>
       </c>
-      <c r="J104" s="10" t="n">
+      <c r="J109" s="10" t="n">
         <v>0.342703</v>
       </c>
-      <c r="K104" s="24" t="n">
+      <c r="K109" s="26" t="n">
         <v>0.376731</v>
       </c>
-      <c r="L104" s="10" t="n">
+      <c r="L109" s="10" t="n">
         <v>0.146181</v>
       </c>
-      <c r="M104" s="10" t="n">
+      <c r="M109" s="10" t="n">
         <v>0.185744</v>
       </c>
-      <c r="N104" s="24" t="n">
+      <c r="N109" s="26" t="n">
         <v>0.26551</v>
       </c>
-      <c r="O104" s="10" t="n">
+      <c r="O109" s="10" t="n">
         <v>0.098929</v>
       </c>
-      <c r="P104" s="10" t="n">
+      <c r="P109" s="10" t="n">
         <v>0.111736</v>
       </c>
-      <c r="Q104" s="24" t="n">
+      <c r="Q109" s="26" t="n">
         <v>0.234004</v>
       </c>
-      <c r="R104" s="10" t="n">
+      <c r="R109" s="10" t="n">
         <v>0.084511</v>
       </c>
-      <c r="S104" s="0" t="n">
-        <f aca="false">Q104/V104</f>
+      <c r="S109" s="0" t="n">
+        <f aca="false">Q109/V109</f>
         <v>0.421097714594205</v>
       </c>
-      <c r="T104" s="0" t="n">
+      <c r="T109" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="U104" s="0" t="n">
+      <c r="U109" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="V104" s="10" t="n">
+      <c r="V109" s="10" t="n">
         <v>0.5557</v>
       </c>
-      <c r="W104" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="X104" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="J106" s="10" t="n">
+      <c r="W109" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="X109" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="J111" s="10" t="n">
         <v>0.294119</v>
       </c>
-      <c r="K106" s="25" t="n">
+      <c r="K111" s="27" t="n">
         <v>0.393724</v>
       </c>
-      <c r="L106" s="10" t="n">
+      <c r="L111" s="10" t="n">
         <v>0.14922</v>
       </c>
-      <c r="M106" s="10" t="n">
+      <c r="M111" s="10" t="n">
         <v>0.294119</v>
       </c>
-      <c r="N106" s="25" t="n">
+      <c r="N111" s="27" t="n">
         <v>0.393724</v>
       </c>
-      <c r="O106" s="10" t="n">
+      <c r="O111" s="10" t="n">
         <v>0.14922</v>
       </c>
-      <c r="P106" s="10" t="n">
+      <c r="P111" s="10" t="n">
         <v>0.18846</v>
       </c>
-      <c r="Q106" s="25" t="n">
+      <c r="Q111" s="27" t="n">
         <v>0.378332</v>
       </c>
-      <c r="R106" s="10" t="n">
+      <c r="R111" s="10" t="n">
         <v>0.13538</v>
       </c>
-      <c r="V106" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="W106" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="J108" s="10" t="n">
+      <c r="V111" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="W111" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="J113" s="10" t="n">
         <v>0.382297</v>
       </c>
-      <c r="K108" s="10" t="n">
+      <c r="K113" s="10" t="n">
         <v>0.37999</v>
       </c>
-      <c r="L108" s="10" t="n">
+      <c r="L113" s="10" t="n">
         <v>0.142206</v>
       </c>
-      <c r="M108" s="10" t="n">
+      <c r="M113" s="10" t="n">
         <v>0.257935</v>
       </c>
-      <c r="N108" s="10" t="n">
+      <c r="N113" s="10" t="n">
         <v>0.320515</v>
       </c>
-      <c r="O108" s="10" t="n">
+      <c r="O113" s="10" t="n">
         <v>0.119599</v>
       </c>
-      <c r="P108" s="10" t="n">
+      <c r="P113" s="10" t="n">
         <v>0.174454</v>
       </c>
-      <c r="Q108" s="24" t="n">
+      <c r="Q113" s="26" t="n">
         <v>0.300714</v>
       </c>
-      <c r="R108" s="10" t="n">
+      <c r="R113" s="10" t="n">
         <v>0.109389</v>
       </c>
-      <c r="V108" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="W108" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="J110" s="10" t="n">
+      <c r="V113" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="W113" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="J115" s="10" t="n">
         <v>0.389024</v>
       </c>
-      <c r="K110" s="24" t="n">
+      <c r="K115" s="26" t="n">
         <v>0.363357</v>
       </c>
-      <c r="L110" s="10" t="n">
+      <c r="L115" s="10" t="n">
         <v>0.136881</v>
       </c>
-      <c r="M110" s="10" t="n">
+      <c r="M115" s="10" t="n">
         <v>0.2268</v>
       </c>
-      <c r="N110" s="26" t="n">
+      <c r="N115" s="28" t="n">
         <v>0.282939</v>
       </c>
-      <c r="O110" s="10" t="n">
+      <c r="O115" s="10" t="n">
         <v>0.100741</v>
       </c>
-      <c r="P110" s="10" t="n">
+      <c r="P115" s="10" t="n">
         <v>0.123446</v>
       </c>
-      <c r="Q110" s="26" t="n">
+      <c r="Q115" s="28" t="n">
         <v>0.240285</v>
       </c>
-      <c r="R110" s="10" t="n">
+      <c r="R115" s="10" t="n">
         <v>0.080884</v>
       </c>
-      <c r="S110" s="0" t="n">
-        <f aca="false">Q110/V110</f>
+      <c r="S115" s="0" t="n">
+        <f aca="false">Q115/V115</f>
         <v>0.445302075611564</v>
       </c>
-      <c r="U110" s="0" t="n">
+      <c r="U115" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="V110" s="28" t="n">
+      <c r="V115" s="30" t="n">
         <v>0.5396</v>
       </c>
-      <c r="W110" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="X110" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
+      <c r="W115" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="X115" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J112" s="10" t="n">
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="J117" s="10" t="n">
         <v>0.366225</v>
       </c>
-      <c r="K112" s="29" t="n">
+      <c r="K117" s="31" t="n">
         <v>0.399947</v>
       </c>
-      <c r="L112" s="10" t="n">
+      <c r="L117" s="10" t="n">
         <v>0.144707</v>
       </c>
-      <c r="M112" s="10" t="n">
+      <c r="M117" s="10" t="n">
         <v>0.232135</v>
       </c>
-      <c r="N112" s="24" t="n">
+      <c r="N117" s="26" t="n">
         <v>0.335551</v>
       </c>
-      <c r="O112" s="10" t="n">
+      <c r="O117" s="10" t="n">
         <v>0.119383</v>
       </c>
-      <c r="P112" s="10" t="n">
+      <c r="P117" s="10" t="n">
         <v>0.144385</v>
       </c>
-      <c r="Q112" s="24" t="n">
+      <c r="Q117" s="26" t="n">
         <v>0.335953</v>
       </c>
-      <c r="R112" s="10" t="n">
+      <c r="R117" s="10" t="n">
         <v>0.112338</v>
       </c>
-      <c r="S112" s="0" t="n">
-        <f aca="false">Q112/V112</f>
+      <c r="S117" s="0" t="n">
+        <f aca="false">Q117/V117</f>
         <v>0.72123872906827</v>
       </c>
-      <c r="U112" s="0" t="n">
+      <c r="U117" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="V112" s="10" t="n">
+      <c r="V117" s="10" t="n">
         <v>0.4658</v>
       </c>
-      <c r="W112" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="J114" s="10" t="n">
+      <c r="W117" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="J119" s="10" t="n">
         <v>0.406997</v>
       </c>
-      <c r="K114" s="10" t="n">
+      <c r="K119" s="10" t="n">
         <v>0.413022</v>
       </c>
-      <c r="L114" s="10" t="n">
+      <c r="L119" s="10" t="n">
         <v>0.150288</v>
       </c>
-      <c r="P114" s="10" t="n">
+      <c r="P119" s="10" t="n">
         <v>0.17971</v>
       </c>
-      <c r="Q114" s="10" t="n">
+      <c r="Q119" s="10" t="n">
         <v>0.359421</v>
       </c>
-      <c r="R114" s="10" t="n">
+      <c r="R119" s="10" t="n">
         <v>0.120326</v>
       </c>
-      <c r="S114" s="0" t="n">
-        <f aca="false">Q114/V114</f>
+      <c r="S119" s="0" t="n">
+        <f aca="false">Q119/V119</f>
         <v>0.772284056725397</v>
       </c>
-      <c r="U114" s="0" t="n">
+      <c r="U119" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="V114" s="10" t="n">
+      <c r="V119" s="10" t="n">
         <v>0.4654</v>
       </c>
-      <c r="W114" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="J120" s="10" t="n">
+      <c r="W119" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="J125" s="10" t="n">
         <v>0.570309</v>
       </c>
-      <c r="K120" s="10" t="n">
+      <c r="K125" s="10" t="n">
         <v>0.506601</v>
       </c>
-      <c r="L120" s="10" t="n">
+      <c r="L125" s="10" t="n">
         <v>0.174945</v>
       </c>
-      <c r="M120" s="10" t="n">
+      <c r="M125" s="10" t="n">
         <v>0.497265</v>
       </c>
-      <c r="N120" s="10" t="n">
+      <c r="N125" s="10" t="n">
         <v>0.492078</v>
       </c>
-      <c r="O120" s="10" t="n">
+      <c r="O125" s="10" t="n">
         <v>0.172062</v>
       </c>
-      <c r="P120" s="10" t="n">
+      <c r="P125" s="10" t="n">
         <v>0.517553</v>
       </c>
-      <c r="Q120" s="10" t="n">
+      <c r="Q125" s="10" t="n">
         <v>0.489173</v>
       </c>
-      <c r="R120" s="10" t="n">
+      <c r="R125" s="10" t="n">
         <v>0.173171</v>
       </c>
-      <c r="W120" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V121" s="2"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J122" s="10" t="n">
+      <c r="W125" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V126" s="2"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="J127" s="10" t="n">
         <v>0.53527</v>
       </c>
-      <c r="K122" s="10" t="n">
+      <c r="K127" s="10" t="n">
         <v>0.624088</v>
       </c>
-      <c r="L122" s="10" t="n">
+      <c r="L127" s="10" t="n">
         <v>0.179823</v>
       </c>
-      <c r="V122" s="2"/>
-      <c r="W122" s="30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V123" s="2"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="J124" s="10" t="n">
+      <c r="V127" s="2"/>
+      <c r="W127" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V128" s="2"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="J129" s="10" t="n">
         <v>0.509545</v>
       </c>
-      <c r="K124" s="10" t="n">
+      <c r="K129" s="10" t="n">
         <v>0.504833</v>
       </c>
-      <c r="L124" s="10" t="n">
+      <c r="L129" s="10" t="n">
         <v>0.173614</v>
       </c>
-      <c r="M124" s="10" t="n">
+      <c r="M129" s="10" t="n">
         <v>0.334369</v>
       </c>
-      <c r="N124" s="10" t="n">
+      <c r="N129" s="10" t="n">
         <v>0.414619</v>
       </c>
-      <c r="O124" s="10" t="n">
+      <c r="O129" s="10" t="n">
         <v>0.142572</v>
       </c>
-      <c r="P124" s="10" t="n">
+      <c r="P129" s="10" t="n">
         <v>0.260693</v>
       </c>
-      <c r="Q124" s="31" t="n">
+      <c r="Q129" s="33" t="n">
         <v>0.42473</v>
       </c>
-      <c r="R124" s="10" t="n">
+      <c r="R129" s="10" t="n">
         <v>0.137916</v>
       </c>
-      <c r="S124" s="16" t="n">
-        <f aca="false">Q124/V124</f>
+      <c r="S129" s="16" t="n">
+        <f aca="false">Q129/V129</f>
         <v>0.766245715316616</v>
       </c>
-      <c r="T124" s="0" t="n">
+      <c r="T129" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U124" s="0" t="n">
+      <c r="U129" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="V124" s="10" t="n">
+      <c r="V129" s="10" t="n">
         <v>0.5543</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V125" s="2"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="V126" s="2"/>
-      <c r="W126" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V127" s="2"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="J128" s="10" t="n">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V130" s="2"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="V131" s="2"/>
+      <c r="W131" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V132" s="2"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="J133" s="10" t="n">
         <v>0.546447</v>
       </c>
-      <c r="K128" s="10" t="n">
+      <c r="K133" s="10" t="n">
         <v>0.549731</v>
       </c>
-      <c r="L128" s="10" t="n">
+      <c r="L133" s="10" t="n">
         <v>0.196452</v>
       </c>
-      <c r="M128" s="10" t="n">
+      <c r="M133" s="10" t="n">
         <v>0.493894</v>
       </c>
-      <c r="N128" s="10" t="n">
+      <c r="N133" s="10" t="n">
         <v>0.51285</v>
       </c>
-      <c r="O128" s="10" t="n">
+      <c r="O133" s="10" t="n">
         <v>0.180044</v>
       </c>
-      <c r="P128" s="10" t="n">
+      <c r="P133" s="10" t="n">
         <v>0.458191</v>
       </c>
-      <c r="Q128" s="10" t="n">
+      <c r="Q133" s="10" t="n">
         <v>0.490952</v>
       </c>
-      <c r="R128" s="10" t="n">
+      <c r="R133" s="10" t="n">
         <v>0.172949</v>
       </c>
-      <c r="W128" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="J130" s="10" t="n">
+      <c r="W133" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="J135" s="10" t="n">
         <v>0.525183</v>
       </c>
-      <c r="K130" s="10" t="n">
+      <c r="K135" s="10" t="n">
         <v>0.539951</v>
       </c>
-      <c r="L130" s="10" t="n">
+      <c r="L135" s="10" t="n">
         <v>0.197561</v>
       </c>
-      <c r="M130" s="10" t="n">
+      <c r="M135" s="10" t="n">
         <v>0.46354</v>
       </c>
-      <c r="N130" s="10" t="n">
+      <c r="N135" s="10" t="n">
         <v>0.48907</v>
       </c>
-      <c r="O130" s="10" t="n">
+      <c r="O135" s="10" t="n">
         <v>0.171397</v>
       </c>
-      <c r="P130" s="10" t="n">
+      <c r="P135" s="10" t="n">
         <v>0.334369</v>
       </c>
-      <c r="Q130" s="31" t="n">
+      <c r="Q135" s="33" t="n">
         <v>0.414619</v>
       </c>
-      <c r="R130" s="10" t="n">
+      <c r="R135" s="10" t="n">
         <v>0.142572</v>
       </c>
-      <c r="S130" s="0" t="n">
-        <f aca="false">Q130/V130</f>
+      <c r="S135" s="0" t="n">
+        <f aca="false">Q135/V135</f>
         <v>0.656874207858048</v>
       </c>
-      <c r="T130" s="0" t="n">
+      <c r="T135" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="U130" s="0" t="n">
+      <c r="U135" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="V130" s="10" t="n">
+      <c r="V135" s="10" t="n">
         <v>0.6312</v>
       </c>
-      <c r="W130" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D132" s="0" t="s">
+      <c r="W135" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D137" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E132" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F132" s="4" t="n">
+      <c r="E137" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F137" s="4" t="n">
         <v>20191030</v>
       </c>
-      <c r="H132" s="0" t="n">
+      <c r="H137" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="J132" s="10" t="n">
+      <c r="J137" s="10" t="n">
         <v>0.394624</v>
       </c>
-      <c r="K132" s="10" t="n">
+      <c r="K137" s="10" t="n">
         <v>0.390665</v>
       </c>
-      <c r="L132" s="10" t="n">
+      <c r="L137" s="10" t="n">
         <v>0.13969</v>
       </c>
-      <c r="M132" s="10" t="n">
+      <c r="M137" s="10" t="n">
         <v>0.356773</v>
       </c>
-      <c r="N132" s="10" t="n">
+      <c r="N137" s="10" t="n">
         <v>0.377995</v>
       </c>
-      <c r="O132" s="10" t="n">
+      <c r="O137" s="10" t="n">
         <v>0.136364</v>
       </c>
-      <c r="P132" s="10" t="n">
+      <c r="P137" s="10" t="n">
         <v>0.301481</v>
       </c>
-      <c r="Q132" s="24" t="n">
+      <c r="Q137" s="26" t="n">
         <v>0.383617</v>
       </c>
-      <c r="R132" s="10" t="n">
+      <c r="R137" s="10" t="n">
         <v>0.136364</v>
       </c>
-      <c r="S132" s="9" t="n">
-        <f aca="false">Q132/V132</f>
+      <c r="S137" s="9" t="n">
+        <f aca="false">Q137/V137</f>
         <v>0.775453810390135</v>
       </c>
-      <c r="T132" s="0" t="n">
+      <c r="T137" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="U132" s="0" t="n">
+      <c r="U137" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="V132" s="10" t="n">
+      <c r="V137" s="10" t="n">
         <v>0.4947</v>
       </c>
-      <c r="W132" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="J134" s="10" t="n">
+      <c r="W137" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="J139" s="10" t="n">
         <v>0.155699</v>
       </c>
-      <c r="K134" s="10" t="n">
+      <c r="K139" s="10" t="n">
         <v>0.429368</v>
       </c>
-      <c r="L134" s="10" t="n">
+      <c r="L139" s="10" t="n">
         <v>0.146785</v>
       </c>
-      <c r="M134" s="10" t="n">
+      <c r="M139" s="10" t="n">
         <v>0.14578</v>
       </c>
-      <c r="N134" s="10" t="n">
+      <c r="N139" s="10" t="n">
         <v>0.405742</v>
       </c>
-      <c r="O134" s="10" t="n">
+      <c r="O139" s="10" t="n">
         <v>0.136585</v>
       </c>
-      <c r="P134" s="10" t="n">
+      <c r="P139" s="10" t="n">
         <v>0.139775</v>
       </c>
-      <c r="Q134" s="10" t="n">
+      <c r="Q139" s="10" t="n">
         <v>0.396125</v>
       </c>
-      <c r="R134" s="10" t="n">
+      <c r="R139" s="10" t="n">
         <v>0.133703</v>
       </c>
-      <c r="U134" s="2" t="n">
+      <c r="U139" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="V134" s="10" t="n">
+      <c r="V139" s="10" t="n">
         <v>0.5043</v>
       </c>
-      <c r="W134" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="X134" s="2"/>
-      <c r="Y134" s="2"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="W136" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="P138" s="10" t="n">
+      <c r="W139" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="X139" s="2"/>
+      <c r="Y139" s="2"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="W141" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P143" s="10" t="n">
         <v>0.459714</v>
       </c>
-      <c r="Q138" s="10" t="n">
+      <c r="Q143" s="10" t="n">
         <v>0.487062</v>
       </c>
-      <c r="R138" s="10" t="n">
+      <c r="R143" s="10" t="n">
         <v>0.179556</v>
       </c>
-      <c r="W138" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="P140" s="10"/>
-      <c r="Q140" s="10"/>
-      <c r="R140" s="10"/>
-      <c r="W140" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="0" t="s">
-        <v>193</v>
+      <c r="W143" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U145" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="V145" s="34" t="n">
-        <v>0.4306</v>
-      </c>
+      <c r="B145" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="P145" s="10"/>
+      <c r="Q145" s="10"/>
+      <c r="R145" s="10"/>
       <c r="W145" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="W148" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="W149" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="150" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1"/>
-      <c r="B150" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2"/>
-      <c r="V150" s="2"/>
-      <c r="W150" s="33" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U150" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V150" s="36" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="W150" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="X150" s="2"/>
-      <c r="Y150" s="2"/>
-    </row>
-    <row r="151" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1"/>
-      <c r="B153" s="2" t="s">
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J153" s="10" t="n">
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="W153" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="W154" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1"/>
+      <c r="B155" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2"/>
+      <c r="V155" s="2"/>
+      <c r="W155" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="X155" s="2"/>
+      <c r="Y155" s="2"/>
+    </row>
+    <row r="156" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1"/>
+      <c r="B158" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J158" s="10" t="n">
         <v>17011.322266</v>
       </c>
-      <c r="K153" s="10" t="n">
+      <c r="K158" s="10" t="n">
         <v>16883.591797</v>
       </c>
-      <c r="L153" s="10" t="n">
+      <c r="L158" s="10" t="n">
         <v>16883.591797</v>
       </c>
-      <c r="W153" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="154" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1"/>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
-      <c r="L154" s="10"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="V155" s="10" t="n">
+      <c r="W158" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="10"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="V160" s="10" t="n">
         <v>0.464</v>
       </c>
-      <c r="W155" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y155" s="0" t="s">
+      <c r="W160" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y160" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Z155" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB155" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="22"/>
-      <c r="B157" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="W157" s="35"/>
-    </row>
-    <row r="158" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="36"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="22"/>
-      <c r="B159" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="W159" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="X159" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y159" s="0" t="s">
+      <c r="Z160" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB160" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="22"/>
+      <c r="B162" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="J162" s="10" t="n">
+        <v>0.104649</v>
+      </c>
+      <c r="K162" s="10" t="n">
+        <v>0.098683</v>
+      </c>
+      <c r="P162" s="10" t="n">
+        <v>0.078059</v>
+      </c>
+      <c r="Q162" s="10" t="n">
+        <v>0.089873</v>
+      </c>
+      <c r="R162" s="2"/>
+      <c r="V162" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="W162" s="24"/>
+    </row>
+    <row r="163" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="22"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="22"/>
+      <c r="B164" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="J164" s="10" t="n">
+        <v>0.352455</v>
+      </c>
+      <c r="K164" s="10" t="n">
+        <v>0.375377</v>
+      </c>
+      <c r="L164" s="10" t="n">
+        <v>0.12949</v>
+      </c>
+      <c r="P164" s="10" t="n">
+        <v>0.256998</v>
+      </c>
+      <c r="Q164" s="10" t="n">
+        <v>0.359854</v>
+      </c>
+      <c r="R164" s="10" t="n">
+        <v>0.122395</v>
+      </c>
+      <c r="V164" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="W164" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="X164" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y164" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Z159" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="W163" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="W167" s="0" t="s">
-        <v>215</v>
+      <c r="Z164" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="W168" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="W172" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4527,12 +4662,12 @@
         <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>11</v>
@@ -4541,15 +4676,15 @@
         <v>0.4306</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -4561,18 +4696,18 @@
         <v>32</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
@@ -4584,15 +4719,15 @@
         <v>32</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>14</v>
@@ -4601,18 +4736,18 @@
         <v>0.4849</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="37" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
@@ -4624,15 +4759,15 @@
         <v>32</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="37" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>8</v>
@@ -4641,15 +4776,15 @@
         <v>0.4947</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="37" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>9</v>
@@ -4661,12 +4796,12 @@
         <v>32</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="37" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>13</v>
@@ -4675,15 +4810,15 @@
         <v>0.5043</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10</v>
@@ -4695,12 +4830,12 @@
         <v>32</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>6</v>
@@ -4709,12 +4844,12 @@
         <v>0.5543</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -4726,15 +4861,15 @@
         <v>32</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>7</v>
@@ -4743,10 +4878,10 @@
         <v>0.6312</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4859,57 +4994,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="10" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="10" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="10" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="10" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="10" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="10" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="10" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4931,196 +5066,202 @@
   <dimension ref="B2:G53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="91.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="41"/>
       <c r="C5" s="0" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="41"/>
       <c r="C28" s="0" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="42"/>
       <c r="C33" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="42"/>
       <c r="C34" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="43" t="s">
+        <v>281</v>
+      </c>
       <c r="C40" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="43" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="3" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>278</v>
+        <v>286</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>287</v>
       </c>
       <c r="G47" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0" t="s">
-        <v>280</v>
+      <c r="C50" s="38" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
